--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -22,30 +22,6 @@
     <author>Neal Fann</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Neal Fann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Are these boxes summarizing the total burden?</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E4" authorId="0">
       <text>
         <r>
@@ -99,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -125,24 +101,6 @@
     <t>6% Rollback</t>
   </si>
   <si>
-    <t>Aland</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
     <t>Population Affected</t>
   </si>
   <si>
@@ -173,15 +131,9 @@
     <t>Regions and Countries</t>
   </si>
   <si>
-    <t>South Asia</t>
-  </si>
-  <si>
     <t>Policy scenario</t>
   </si>
   <si>
-    <t>2010 Air Quality Levels</t>
-  </si>
-  <si>
     <t>Policy Scenario</t>
   </si>
   <si>
@@ -189,13 +141,16 @@
   </si>
   <si>
     <t>Region and Country</t>
+  </si>
+  <si>
+    <t>Air Quality Levels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,19 +187,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
@@ -327,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -335,15 +277,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -353,7 +286,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -366,22 +299,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,59 +399,17 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Detailed Results'!$A$4:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>South Asia</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Aland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Algeria</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>American Samoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Andorra</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Angola</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f>'Detailed Results'!#REF!</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Detailed Results'!$C$4:$C$10</c:f>
+              <c:f>'Detailed Results'!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9884.6173197547432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3561.5826016336237</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3950.3233898884982</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11954.774569654508</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38697.644281255452</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3631.2468904730263</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10583.334739611779</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,7 +481,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Detailed Results'!$A$4:$A$10</c:f>
+              <c:f>'Detailed Results'!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -616,7 +510,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Detailed Results'!$C$4:$C$10</c:f>
+              <c:f>'Detailed Results'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -654,11 +548,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48464640"/>
-        <c:axId val="48466176"/>
+        <c:axId val="68792704"/>
+        <c:axId val="68794240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48464640"/>
+        <c:axId val="68792704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48466176"/>
+        <c:crossAx val="68794240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -676,7 +570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48466176"/>
+        <c:axId val="68794240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48464640"/>
+        <c:crossAx val="68792704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -755,6 +649,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -781,7 +676,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Detailed Results'!$A$4:$A$10</c:f>
+              <c:f>'Detailed Results'!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -810,7 +705,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Detailed Results'!$D$4:$D$10</c:f>
+              <c:f>'Detailed Results'!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -848,11 +743,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="70786048"/>
-        <c:axId val="86189952"/>
+        <c:axId val="76355840"/>
+        <c:axId val="76406784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70786048"/>
+        <c:axId val="76355840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86189952"/>
+        <c:crossAx val="76406784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -870,7 +765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86189952"/>
+        <c:axId val="76406784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,13 +776,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70786048"/>
+        <c:crossAx val="76355840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -901,7 +797,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -912,7 +808,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -958,7 +854,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666963" cy="6297521"/>
+    <xdr:ext cx="8665882" cy="6293971"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -985,7 +881,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:ext cx="8665882" cy="6293971"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1298,13 +1194,13 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="14" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="16" style="3" customWidth="1"/>
@@ -1327,94 +1223,94 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
+      <c r="G2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="10">
-        <f ca="1">SUM('Detailed Results'!B4:B10)</f>
-        <v>6784796</v>
-      </c>
-      <c r="E4" s="11">
-        <f ca="1">SUM('Detailed Results'!C4:C10)</f>
-        <v>82263.523792271619</v>
-      </c>
-      <c r="F4" s="12">
-        <f ca="1">(E4/D4) * 100</f>
-        <v>1.212468640063336</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="e">
+        <f>SUM('Detailed Results'!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="8" t="e">
+        <f>SUM('Detailed Results'!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="9" t="e">
+        <f>(E4/D4) * 100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <v>50</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>100</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <v>1</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <v>50</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="9">
         <v>100</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="9">
         <v>75</v>
       </c>
     </row>
@@ -1422,7 +1318,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>2010</v>
       </c>
     </row>
@@ -1430,7 +1326,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1438,39 +1334,39 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8"/>
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1489,17 +1385,17 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A2:K10"/>
+  <dimension ref="A2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="18" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
     <col min="5" max="10" width="10.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="3" customWidth="1"/>
@@ -1507,321 +1403,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="19"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="4"/>
       <c r="E2" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="51.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="10">
-        <f ca="1">RANDBETWEEN(500000,1500000)</f>
-        <v>1357699</v>
-      </c>
-      <c r="C4" s="11">
-        <f ca="1">B4*RAND()*RAND()*RAND()*RAND()</f>
-        <v>9884.6173197547432</v>
-      </c>
-      <c r="D4" s="12">
-        <f ca="1">(C4/B4) * 100</f>
-        <v>0.72804187966218892</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
-        <v>50</v>
-      </c>
-      <c r="G4" s="12">
-        <v>100</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>50</v>
-      </c>
-      <c r="J4" s="12">
-        <v>100</v>
-      </c>
-      <c r="K4" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10">
-        <f t="shared" ref="B5:B10" ca="1" si="0">RANDBETWEEN(500000,1500000)</f>
-        <v>1385865</v>
-      </c>
-      <c r="C5" s="11">
-        <f t="shared" ref="C5:C10" ca="1" si="1">B5*RAND()*RAND()*RAND()*RAND()</f>
-        <v>3561.5826016336237</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" ref="D5:D10" ca="1" si="2">(C5/B5) * 100</f>
-        <v>0.25699347350814283</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>50</v>
-      </c>
-      <c r="G5" s="12">
-        <v>100</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
-        <v>50</v>
-      </c>
-      <c r="J5" s="12">
-        <v>100</v>
-      </c>
-      <c r="K5" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1189174</v>
-      </c>
-      <c r="C6" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3950.3233898884982</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.33219052803782279</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>50</v>
-      </c>
-      <c r="G6" s="12">
-        <v>100</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>50</v>
-      </c>
-      <c r="J6" s="12">
-        <v>100</v>
-      </c>
-      <c r="K6" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>791513</v>
-      </c>
-      <c r="C7" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>11954.774569654508</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.5103699585040937</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>50</v>
-      </c>
-      <c r="G7" s="12">
-        <v>100</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
-        <v>50</v>
-      </c>
-      <c r="J7" s="12">
-        <v>100</v>
-      </c>
-      <c r="K7" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>550697</v>
-      </c>
-      <c r="C8" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>38697.644281255452</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.0270301601888976</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
-        <v>50</v>
-      </c>
-      <c r="G8" s="12">
-        <v>100</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
-        <v>50</v>
-      </c>
-      <c r="J8" s="12">
-        <v>100</v>
-      </c>
-      <c r="K8" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>556032</v>
-      </c>
-      <c r="C9" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3631.2468904730263</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.65306437227947778</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>50</v>
-      </c>
-      <c r="G9" s="12">
-        <v>100</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <v>50</v>
-      </c>
-      <c r="J9" s="12">
-        <v>100</v>
-      </c>
-      <c r="K9" s="12">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>953816</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>10583.334739611779</v>
-      </c>
-      <c r="D10" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.1095782351744758</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12">
-        <v>50</v>
-      </c>
-      <c r="G10" s="12">
-        <v>100</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>50</v>
-      </c>
-      <c r="J10" s="12">
-        <v>100</v>
-      </c>
-      <c r="K10" s="12">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Policy Scenario</t>
-  </si>
-  <si>
-    <t>Avoided Deaths (% total deaths)</t>
   </si>
   <si>
     <t>Region and Country</t>
@@ -306,9 +303,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,6 +310,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,9 +395,9 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Detailed Results'!#REF!</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -454,7 +451,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -548,11 +544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68792704"/>
-        <c:axId val="68794240"/>
+        <c:axId val="107231488"/>
+        <c:axId val="107237376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68792704"/>
+        <c:axId val="107231488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68794240"/>
+        <c:crossAx val="107237376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -570,7 +566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68794240"/>
+        <c:axId val="107237376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +597,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -622,7 +617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68792704"/>
+        <c:crossAx val="107231488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,7 +644,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -668,7 +662,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Avoided Deaths (% total deaths)</c:v>
+                  <c:v>Avoided Deaths (% Population)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -743,11 +737,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="76355840"/>
-        <c:axId val="76406784"/>
+        <c:axId val="66637824"/>
+        <c:axId val="66639360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76355840"/>
+        <c:axId val="66637824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -757,7 +751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76406784"/>
+        <c:crossAx val="66639360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -765,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76406784"/>
+        <c:axId val="66639360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,14 +770,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76355840"/>
+        <c:crossAx val="66637824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1194,7 +1187,7 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1203,7 +1196,7 @@
     <col min="2" max="2" width="40.7109375" style="14" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" customWidth="1"/>
@@ -1223,16 +1216,16 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="21" t="s">
+      <c r="G2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -1388,7 +1381,7 @@
   <dimension ref="A2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1396,7 +1389,7 @@
     <col min="1" max="1" width="40.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="3" customWidth="1"/>
     <col min="5" max="10" width="10.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
@@ -1407,21 +1400,21 @@
       <c r="B2" s="4"/>
       <c r="C2" s="16"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="E2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -1430,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -22,30 +22,6 @@
     <author>Neal Fann</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Neal Fann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Eventually, impact estimates should include 95% confidence intervals and be rounded to two significant figures</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D7" authorId="0">
       <text>
         <r>
@@ -451,6 +427,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -544,11 +521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="107231488"/>
-        <c:axId val="107237376"/>
+        <c:axId val="68085248"/>
+        <c:axId val="68086784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107231488"/>
+        <c:axId val="68085248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,7 +535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107237376"/>
+        <c:crossAx val="68086784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -566,7 +543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107237376"/>
+        <c:axId val="68086784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,6 +574,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -617,7 +595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107231488"/>
+        <c:crossAx val="68085248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -644,6 +622,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -737,11 +716,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="66637824"/>
-        <c:axId val="66639360"/>
+        <c:axId val="89861504"/>
+        <c:axId val="89863296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66637824"/>
+        <c:axId val="89861504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +730,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66639360"/>
+        <c:crossAx val="89863296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66639360"/>
+        <c:axId val="89863296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,13 +749,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66637824"/>
+        <c:crossAx val="89861504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1187,7 +1167,7 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1273,39 +1253,16 @@
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="e">
-        <f>SUM('Detailed Results'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" s="8" t="e">
-        <f>SUM('Detailed Results'!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" s="9" t="e">
-        <f>(E4/D4) * 100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>50</v>
-      </c>
-      <c r="I4" s="9">
-        <v>100</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
-        <v>50</v>
-      </c>
-      <c r="L4" s="9">
-        <v>100</v>
-      </c>
-      <c r="M4" s="9">
-        <v>75</v>
-      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1375,9 +1332,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
   <dimension ref="A2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,9 +256,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -268,17 +265,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,9 +275,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +428,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -521,11 +521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68085248"/>
-        <c:axId val="68086784"/>
+        <c:axId val="83937152"/>
+        <c:axId val="86036864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68085248"/>
+        <c:axId val="83937152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68086784"/>
+        <c:crossAx val="86036864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -543,7 +543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68086784"/>
+        <c:axId val="86036864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +574,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -595,7 +594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68085248"/>
+        <c:crossAx val="83937152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -622,7 +621,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -716,11 +714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89861504"/>
-        <c:axId val="89863296"/>
+        <c:axId val="86045440"/>
+        <c:axId val="86046976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89861504"/>
+        <c:axId val="86045440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89863296"/>
+        <c:crossAx val="86046976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -738,7 +736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89863296"/>
+        <c:axId val="86046976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,14 +747,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89861504"/>
+        <c:crossAx val="86045440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1167,13 +1164,13 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="3" customWidth="1"/>
@@ -1196,16 +1193,16 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -1253,16 +1250,16 @@
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1289,34 +1286,34 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1335,69 +1332,68 @@
   <dimension ref="A2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="3" customWidth="1"/>
-    <col min="5" max="10" width="10.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="21" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="22" customWidth="1"/>
+    <col min="5" max="10" width="10.7109375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="22" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="23" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="4"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="20" t="s">
         <v>14</v>
       </c>
     </row>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -266,22 +266,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -292,6 +280,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,11 +521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83937152"/>
-        <c:axId val="86036864"/>
+        <c:axId val="83936384"/>
+        <c:axId val="83937920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83937152"/>
+        <c:axId val="83936384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86036864"/>
+        <c:crossAx val="83937920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -543,7 +543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86036864"/>
+        <c:axId val="83937920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83937152"/>
+        <c:crossAx val="83936384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -714,11 +714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="86045440"/>
-        <c:axId val="86046976"/>
+        <c:axId val="88134016"/>
+        <c:axId val="88135552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86045440"/>
+        <c:axId val="88134016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86046976"/>
+        <c:crossAx val="88135552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -736,7 +736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86046976"/>
+        <c:axId val="88135552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86045440"/>
+        <c:crossAx val="88134016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1164,7 +1164,7 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:M4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1193,16 +1193,16 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -1332,68 +1332,68 @@
   <dimension ref="A2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="21" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="22" customWidth="1"/>
-    <col min="5" max="10" width="10.7109375" style="22" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="22" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="17" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="18" customWidth="1"/>
+    <col min="5" max="10" width="10.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="18" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="51.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="16" t="s">
         <v>14</v>
       </c>
     </row>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -16,40 +16,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Neal Fann</author>
-  </authors>
-  <commentList>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Neal Fann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Can we add the total avoided deaths somewhere in the box? Perhaps in the lower right-hand corner?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
@@ -123,26 +89,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -244,52 +197,52 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,6 +381,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -521,11 +475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83936384"/>
-        <c:axId val="83937920"/>
+        <c:axId val="50131712"/>
+        <c:axId val="50133248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83936384"/>
+        <c:axId val="50131712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83937920"/>
+        <c:crossAx val="50133248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -543,7 +497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83937920"/>
+        <c:axId val="50133248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,44 +511,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:srgbClr val="FF0000"/>
-                    </a:solidFill>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Number of avoided deaths</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83936384"/>
+        <c:crossAx val="50131712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -603,6 +536,20 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
 </file>
 
@@ -621,6 +568,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -714,11 +662,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88134016"/>
-        <c:axId val="88135552"/>
+        <c:axId val="68199168"/>
+        <c:axId val="68235264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88134016"/>
+        <c:axId val="68199168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88135552"/>
+        <c:crossAx val="68235264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -736,7 +684,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88135552"/>
+        <c:axId val="68235264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,13 +695,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88134016"/>
+        <c:crossAx val="68199168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -767,7 +716,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -778,7 +727,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -824,7 +773,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665882" cy="6293971"/>
+    <xdr:ext cx="8666963" cy="6297521"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -851,7 +800,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665882" cy="6293971"/>
+    <xdr:ext cx="8666963" cy="6297521"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1160,11 +1109,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1323,7 +1272,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Detailed Results" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided Deaths by country" sheetId="4" r:id="rId3"/>
     <sheet name="Avoided Deaths (% Population)" sheetId="5" r:id="rId4"/>
+    <sheet name="DataSource" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -381,7 +382,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -475,11 +475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="50131712"/>
-        <c:axId val="50133248"/>
+        <c:axId val="82004992"/>
+        <c:axId val="82019072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50131712"/>
+        <c:axId val="82004992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50133248"/>
+        <c:crossAx val="82019072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -497,7 +497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50133248"/>
+        <c:axId val="82019072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,14 +520,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50131712"/>
+        <c:crossAx val="82004992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -662,11 +661,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68199168"/>
-        <c:axId val="68235264"/>
+        <c:axId val="82037376"/>
+        <c:axId val="82055552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68199168"/>
+        <c:axId val="82037376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,7 +675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68235264"/>
+        <c:crossAx val="82055552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -684,7 +683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68235264"/>
+        <c:axId val="82055552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,7 +694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68199168"/>
+        <c:crossAx val="82037376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1353,4 +1352,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Detailed Results" sheetId="2" r:id="rId2"/>
-    <sheet name="Avoided Deaths by country" sheetId="4" r:id="rId3"/>
+    <sheet name="Avoided Deaths By Country" sheetId="4" r:id="rId3"/>
     <sheet name="Avoided Deaths (% Population)" sheetId="5" r:id="rId4"/>
     <sheet name="DataSource" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
@@ -288,7 +288,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>% avoided deaths by country</a:t>
+              <a:t>% Avoided Deaths By Country</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -382,6 +382,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -475,11 +476,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82004992"/>
-        <c:axId val="82019072"/>
+        <c:axId val="82004608"/>
+        <c:axId val="82018688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82004992"/>
+        <c:axId val="82004608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82019072"/>
+        <c:crossAx val="82018688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -497,7 +498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82019072"/>
+        <c:axId val="82018688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,18 +516,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of avoided deaths</a:t>
+                  <a:t>Number of Avoided Deaths</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82004992"/>
+        <c:crossAx val="82004608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -661,11 +663,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82037376"/>
-        <c:axId val="82055552"/>
+        <c:axId val="82056704"/>
+        <c:axId val="82058624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82037376"/>
+        <c:axId val="82056704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82055552"/>
+        <c:crossAx val="82058624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -683,7 +685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82055552"/>
+        <c:axId val="82058624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,16 +696,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82037376"/>
+        <c:crossAx val="82056704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1112,7 +1109,7 @@
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7530"/>
   </bookViews>
@@ -382,7 +382,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -476,11 +475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82004608"/>
-        <c:axId val="82018688"/>
+        <c:axId val="82026880"/>
+        <c:axId val="82028416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82004608"/>
+        <c:axId val="82026880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82018688"/>
+        <c:crossAx val="82028416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -498,7 +497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82018688"/>
+        <c:axId val="82028416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,14 +520,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82004608"/>
+        <c:crossAx val="82026880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -569,7 +567,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -663,11 +660,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82056704"/>
-        <c:axId val="82058624"/>
+        <c:axId val="90327680"/>
+        <c:axId val="90437120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82056704"/>
+        <c:axId val="90327680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82058624"/>
+        <c:crossAx val="90437120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -685,7 +682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82058624"/>
+        <c:axId val="90437120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82056704"/>
+        <c:crossAx val="90327680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -710,7 +707,7 @@
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="Chart3"/>
   <sheetViews>
     <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
@@ -721,7 +718,7 @@
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
+  <sheetPr codeName="Chart4"/>
   <sheetViews>
     <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
@@ -760,6 +757,65 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="5314950"/>
+          <a:ext cx="4333875" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Avoided Deaths (Total):</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1106,11 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1273,6 +1328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1353,6 +1409,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Pollutant</t>
   </si>
   <si>
-    <t>PM 2.5µg/m³</t>
-  </si>
-  <si>
     <t>Rollback Type</t>
   </si>
   <si>
@@ -84,6 +81,15 @@
   </si>
   <si>
     <t>Air Quality Levels</t>
+  </si>
+  <si>
+    <t>5.8 µg/m³</t>
+  </si>
+  <si>
+    <t>PM 2.5</t>
+  </si>
+  <si>
+    <t>Background Concentration</t>
   </si>
 </sst>
 </file>
@@ -475,11 +481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82026880"/>
-        <c:axId val="82028416"/>
+        <c:axId val="53650944"/>
+        <c:axId val="53652480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82026880"/>
+        <c:axId val="53650944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82028416"/>
+        <c:crossAx val="53652480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -497,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82028416"/>
+        <c:axId val="53652480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82026880"/>
+        <c:crossAx val="53650944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -660,11 +666,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="90327680"/>
-        <c:axId val="90437120"/>
+        <c:axId val="71120768"/>
+        <c:axId val="71122304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90327680"/>
+        <c:axId val="71120768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90437120"/>
+        <c:crossAx val="71122304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -682,7 +688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90437120"/>
+        <c:axId val="71122304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90327680"/>
+        <c:crossAx val="71120768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1165,11 +1171,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="30" style="10" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
@@ -1194,12 +1202,12 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
       <c r="J2" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="20"/>
       <c r="L2" s="21"/>
@@ -1210,37 +1218,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="51.75" x14ac:dyDescent="0.35">
@@ -1248,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1274,26 +1282,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5"/>
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -1351,12 +1363,12 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -1364,37 +1376,37 @@
     </row>
     <row r="3" spans="1:11" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -90,13 +90,22 @@
   </si>
   <si>
     <t>Background Concentration</t>
+  </si>
+  <si>
+    <t>95% CI</t>
+  </si>
+  <si>
+    <t>% of Baseline Mortality</t>
+  </si>
+  <si>
+    <t>Deaths per 100,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +132,19 @@
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Gill Sans MT"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -138,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -198,11 +220,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -240,6 +290,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -261,9 +319,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -481,11 +536,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53650944"/>
-        <c:axId val="53652480"/>
+        <c:axId val="85155200"/>
+        <c:axId val="86492672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53650944"/>
+        <c:axId val="85155200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53652480"/>
+        <c:crossAx val="86492672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53652480"/>
+        <c:axId val="86492672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,7 +587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53650944"/>
+        <c:crossAx val="85155200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -587,7 +642,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Detailed Results'!$D$3</c:f>
+              <c:f>'Detailed Results'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -666,11 +721,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="71120768"/>
-        <c:axId val="71122304"/>
+        <c:axId val="87614976"/>
+        <c:axId val="87616512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71120768"/>
+        <c:axId val="87614976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71122304"/>
+        <c:crossAx val="87616512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -688,7 +743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71122304"/>
+        <c:axId val="87616512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71120768"/>
+        <c:crossAx val="87614976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1169,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:M14"/>
+  <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1183,15 +1238,17 @@
     <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="3" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="20.28515625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="13" max="13" width="9.7109375" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="21" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,20 +1257,23 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="4"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1226,17 +1286,17 @@
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>10</v>
@@ -1248,10 +1308,19 @@
         <v>12</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="51.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1260,16 +1329,19 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1277,7 +1349,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1293,7 +1365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1301,36 +1373,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1341,10 +1413,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:K3"/>
+  <dimension ref="A2:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1352,29 +1424,36 @@
     <col min="1" max="1" width="40.7109375" style="17" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" style="18" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="18" customWidth="1"/>
-    <col min="5" max="10" width="10.7109375" style="18" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="11.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="18" customWidth="1"/>
+    <col min="8" max="11" width="10.7109375" style="18" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="21.140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="14"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="51.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
@@ -1384,17 +1463,17 @@
       <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>10</v>
@@ -1406,13 +1485,22 @@
         <v>12</v>
       </c>
       <c r="K3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -105,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,19 +129,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
@@ -294,10 +281,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,6 +293,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,11 +523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="85155200"/>
-        <c:axId val="86492672"/>
+        <c:axId val="68029056"/>
+        <c:axId val="68030848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85155200"/>
+        <c:axId val="68029056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,7 +537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86492672"/>
+        <c:crossAx val="68030848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -558,7 +545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86492672"/>
+        <c:axId val="68030848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85155200"/>
+        <c:crossAx val="68029056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -721,11 +708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87614976"/>
-        <c:axId val="87616512"/>
+        <c:axId val="68076672"/>
+        <c:axId val="68078208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87614976"/>
+        <c:axId val="68076672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,7 +722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87616512"/>
+        <c:crossAx val="68078208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -743,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87616512"/>
+        <c:axId val="68078208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,7 +741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87614976"/>
+        <c:crossAx val="68076672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1226,8 +1213,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1261,16 +1248,16 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="23" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -1329,9 +1316,9 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -1441,16 +1428,16 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -281,6 +281,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,10 +297,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,11 +523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68029056"/>
-        <c:axId val="68030848"/>
+        <c:axId val="89457792"/>
+        <c:axId val="89459328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68029056"/>
+        <c:axId val="89457792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68030848"/>
+        <c:crossAx val="89459328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -545,7 +545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68030848"/>
+        <c:axId val="89459328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68029056"/>
+        <c:crossAx val="89457792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -708,11 +708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68076672"/>
-        <c:axId val="68078208"/>
+        <c:axId val="89432448"/>
+        <c:axId val="89433984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68076672"/>
+        <c:axId val="89432448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68078208"/>
+        <c:crossAx val="89433984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -730,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68078208"/>
+        <c:axId val="89433984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68076672"/>
+        <c:crossAx val="89432448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1213,9 +1213,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1248,16 +1246,16 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="21" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -1316,9 +1314,9 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -1428,16 +1426,16 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -281,10 +281,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,11 +523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89457792"/>
-        <c:axId val="89459328"/>
+        <c:axId val="79447552"/>
+        <c:axId val="101740928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89457792"/>
+        <c:axId val="79447552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89459328"/>
+        <c:crossAx val="101740928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -545,7 +545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89459328"/>
+        <c:axId val="101740928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89457792"/>
+        <c:crossAx val="79447552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -708,11 +708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89432448"/>
-        <c:axId val="89433984"/>
+        <c:axId val="103956480"/>
+        <c:axId val="103958016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89432448"/>
+        <c:axId val="103956480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89433984"/>
+        <c:crossAx val="103958016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -730,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89433984"/>
+        <c:axId val="103958016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89432448"/>
+        <c:crossAx val="103956480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1223,9 +1223,9 @@
     <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="3" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="3"/>
     <col min="13" max="13" width="9.7109375" style="3" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="3"/>
@@ -1314,9 +1314,9 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -1401,7 +1401,7 @@
   <dimension ref="A2:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1409,9 +1409,9 @@
     <col min="1" max="1" width="40.7109375" style="17" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" style="18" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="18" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="18" customWidth="1"/>
     <col min="8" max="11" width="10.7109375" style="18" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="21.140625" style="3" customWidth="1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7530"/>
+    <workbookView xWindow="4125" yWindow="1185" windowWidth="14370" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Detailed Results" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided Deaths By Country" sheetId="4" r:id="rId3"/>
     <sheet name="Avoided Deaths (% Population)" sheetId="5" r:id="rId4"/>
-    <sheet name="DataSource" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Metadata" sheetId="7" r:id="rId5"/>
+    <sheet name="DataSource" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -99,13 +100,547 @@
   </si>
   <si>
     <t>Deaths per 100,000</t>
+  </si>
+  <si>
+    <t>Supplementary Information / Underlying data and functions</t>
+  </si>
+  <si>
+    <r>
+      <t>A.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Air Quality Grid (PM2.5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description:  PM2.5 concentration data from the Global Burden of Disease 2010 study</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exposure Assessment for Estimation of the Global Burden of Disease Attributable to Outdoor Air Pollution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Michael Brauer, Markus Amann, Rick T. Burnett, Aaron Cohen, Frank Dentener, Majid Ezzati, Sarah B. Henderson, Michal Krzyzanowski, Randall V. Martin, Rita Van Dingenen, Aaron van Donkelaar, and George D. Thurston</t>
+    </r>
+  </si>
+  <si>
+    <t>Environmental Science &amp; Technology 2012 46 (2), 652-660</t>
+  </si>
+  <si>
+    <r>
+      <t>B.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Population Grid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description:  Population data from 2010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Center for International Earth Science Information Network: Gridded Population of the World, Version 3.0. Columbia University 2012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Air Quality Standards</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description: Air Quality Standards / Guidelines / Objectives For Different Countries (updated April 2014).  Table developed by Scott Voorhees, US EPA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standards:</t>
+    </r>
+  </si>
+  <si>
+    <t>Standard Group</t>
+  </si>
+  <si>
+    <t>Concentration Limit</t>
+  </si>
+  <si>
+    <t>Exposure Duration</t>
+  </si>
+  <si>
+    <t>WHO</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>US Primary</t>
+  </si>
+  <si>
+    <t>US Secondary</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>China Class I</t>
+  </si>
+  <si>
+    <t>China Class II</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>24-hour</t>
+  </si>
+  <si>
+    <r>
+      <t>D.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Health Impact Function (Krewski et al, 2009)</t>
+    </r>
+  </si>
+  <si>
+    <t>a.       Reference: Krewski, D., M. Jerrett, R.T. Burnett, R. Ma, E. Hughes, et al. (2009). Extended Follow-Up and Spatial Analysis of the American Cancer Society Study Linking Particulate Air Pollution and Mortality. Health Effects Institute, Report Number 140. Cambridge, May.  http://pubs.healtheffects.org/getfile.php?u=478.</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>β = (Effective estimate) quantifies the change in health effects per unit of change in a pollutant and is derived from an epidemiological study</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ΔAQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = change in pollutant concentration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incidence Rate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = baseline incident rate for the heath effect due to all causes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lim et al. A comparative risk assessment of burden of disease and injury attributable to 67 risk factors and risk factor clusters in 21 regions, 1990–2010: a systematic analysis for the Global Burden of Disease Study 2010, The Lancet, Volume 380, Issue 9859, 15 December 2012–4 January 2013, Pages 2224-2260, ISSN 0140-6736, http://dx.doi.org/10.1016/S0140-6736(12)61766-8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>File:  gbd_incrate_allcause_2010.csv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Population</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Affected population</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>E.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Firebird database location: C:\ProgramData\BenMAP-CE\Database</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Firebird interface software: FlameRobin</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +667,38 @@
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -147,7 +714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -235,11 +802,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -284,6 +900,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,6 +1092,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -523,11 +1186,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79447552"/>
-        <c:axId val="101740928"/>
+        <c:axId val="91560576"/>
+        <c:axId val="91638784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79447552"/>
+        <c:axId val="91560576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +1200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101740928"/>
+        <c:crossAx val="91638784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -545,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101740928"/>
+        <c:axId val="91638784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,13 +1231,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79447552"/>
+        <c:crossAx val="91560576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -615,6 +1279,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -708,11 +1373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103956480"/>
-        <c:axId val="103958016"/>
+        <c:axId val="105329024"/>
+        <c:axId val="105330944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103956480"/>
+        <c:axId val="105329024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +1387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103958016"/>
+        <c:crossAx val="105330944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -730,7 +1395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103958016"/>
+        <c:axId val="105330944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +1406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103956480"/>
+        <c:crossAx val="105329024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -920,6 +1585,76 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="742950" y="6286500"/>
+          <a:ext cx="2705100" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1246,16 +1981,16 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="23" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -1400,9 +2135,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1426,16 +2159,16 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1493,6 +2226,363 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="32">
+        <v>10</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="32">
+        <v>12</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="32">
+        <v>15</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="32">
+        <v>25</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="32">
+        <v>15</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="32">
+        <v>15</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="32">
+        <v>35</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="32">
+        <v>35</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="32">
+        <v>40</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="32">
+        <v>12</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="32">
+        <v>25</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="32">
+        <v>35</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="32">
+        <v>35</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="32">
+        <v>35</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="32">
+        <v>75</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="32">
+        <v>75</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="32">
+        <v>60</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="35">
+        <v>37.5</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Detailed Results" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided Deaths By Country" sheetId="4" r:id="rId3"/>
     <sheet name="Avoided Deaths (% Population)" sheetId="5" r:id="rId4"/>
-    <sheet name="Metadata" sheetId="7" r:id="rId5"/>
+    <sheet name="Metadata" sheetId="8" r:id="rId5"/>
     <sheet name="DataSource" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -105,56 +105,82 @@
     <t>Supplementary Information / Underlying data and functions</t>
   </si>
   <si>
+    <t>Standard Group</t>
+  </si>
+  <si>
+    <t>Concentration Limit</t>
+  </si>
+  <si>
+    <t>Exposure Duration</t>
+  </si>
+  <si>
+    <t>WHO</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>US Primary</t>
+  </si>
+  <si>
+    <t>US Secondary</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>China Class I</t>
+  </si>
+  <si>
+    <t>China Class II</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>24-hour</t>
+  </si>
+  <si>
+    <t>Air Quality Grid</t>
+  </si>
+  <si>
+    <t>Description:  PM2.5 concentration data from the Global Burden of Disease 2010 study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brauer, M.; Amann, M.; Burnett, R. T.; Cohen, A.; Dentener, F.; Ezzati, M.; Henderson, S. B.; Krzyzanowski, M.; Martin, R. V.; Van Dingenen, R.; van Donkelaar, A. &amp; Thurston, G. D. Exposure Assessment for Estimation of the Global Burden of Disease Attributable to Outdoor Air Pollution. Environ. Sci. Technol., Environmental Science &amp; Technology, American Chemical Society, 2011, 46, 652-660 </t>
+  </si>
+  <si>
+    <t>Population Grid</t>
+  </si>
+  <si>
+    <t>Description:  2010 Population Data</t>
+  </si>
+  <si>
+    <t>Center for International Earth Science Information Network: Gridded Population of the World, Version 3.0. Columbia University 2012</t>
+  </si>
+  <si>
+    <t>Health Impact Function (Krewski et al, 2009)</t>
+  </si>
+  <si>
+    <t>Krewski, D., M. Jerrett, R.T. Burnett, R. Ma, E. Hughes, et al. (2009). Extended Follow-Up and Spatial Analysis of the American Cancer Society Study Linking Particulate Air Pollution and Mortality. Health Effects Institute, Report Number 140. Cambridge, May.  http://pubs.healtheffects.org/getfile.php?u=478.</t>
+  </si>
+  <si>
     <r>
-      <t>A.</t>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
         <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Air Quality Grid (PM2.5)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description:  PM2.5 concentration data from the Global Burden of Disease 2010 study</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -163,255 +189,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exposure Assessment for Estimation of the Global Burden of Disease Attributable to Outdoor Air Pollution</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Michael Brauer, Markus Amann, Rick T. Burnett, Aaron Cohen, Frank Dentener, Majid Ezzati, Sarah B. Henderson, Michal Krzyzanowski, Randall V. Martin, Rita Van Dingenen, Aaron van Donkelaar, and George D. Thurston</t>
-    </r>
-  </si>
-  <si>
-    <t>Environmental Science &amp; Technology 2012 46 (2), 652-660</t>
-  </si>
-  <si>
-    <r>
-      <t>B.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Population Grid</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description:  Population data from 2010</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Center for International Earth Science Information Network: Gridded Population of the World, Version 3.0. Columbia University 2012</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Air Quality Standards</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description: Air Quality Standards / Guidelines / Objectives For Different Countries (updated April 2014).  Table developed by Scott Voorhees, US EPA.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Standards:</t>
-    </r>
-  </si>
-  <si>
-    <t>Standard Group</t>
-  </si>
-  <si>
-    <t>Concentration Limit</t>
-  </si>
-  <si>
-    <t>Exposure Duration</t>
-  </si>
-  <si>
-    <t>WHO</t>
-  </si>
-  <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>US Primary</t>
-  </si>
-  <si>
-    <t>US Secondary</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>China Class I</t>
-  </si>
-  <si>
-    <t>China Class II</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>24-hour</t>
-  </si>
-  <si>
-    <r>
-      <t>D.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Health Impact Function (Krewski et al, 2009)</t>
-    </r>
-  </si>
-  <si>
-    <t>a.       Reference: Krewski, D., M. Jerrett, R.T. Burnett, R. Ma, E. Hughes, et al. (2009). Extended Follow-Up and Spatial Analysis of the American Cancer Society Study Linking Particulate Air Pollution and Mortality. Health Effects Institute, Report Number 140. Cambridge, May.  http://pubs.healtheffects.org/getfile.php?u=478.</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -426,6 +204,7 @@
     <r>
       <rPr>
         <sz val="7"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -435,6 +214,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -444,11 +224,12 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = change in pollutant concentration</t>
+      <t xml:space="preserve"> = change in pollutant concentration (described above)</t>
     </r>
   </si>
   <si>
@@ -458,6 +239,7 @@
     <r>
       <rPr>
         <sz val="7"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -467,6 +249,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -476,171 +259,32 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = baseline incident rate for the heath effect due to all causes</t>
+      <t xml:space="preserve"> = baseline incident rate for the heath effect due to all causes (comes from the specified database entry)</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lim et al. A comparative risk assessment of burden of disease and injury attributable to 67 risk factors and risk factor clusters in 21 regions, 1990–2010: a systematic analysis for the Global Burden of Disease Study 2010, The Lancet, Volume 380, Issue 9859, 15 December 2012–4 January 2013, Pages 2224-2260, ISSN 0140-6736, http://dx.doi.org/10.1016/S0140-6736(12)61766-8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>File:  gbd_incrate_allcause_2010.csv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Population</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = Affected population</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Database</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Firebird database location: C:\ProgramData\BenMAP-CE\Database</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Firebird interface software: FlameRobin</t>
-    </r>
+    <t>Reference: Lim et al. A comparative risk assessment of burden of disease and injury attributable to 67 risk factors and risk factor clusters in 21 regions, 1990–2010: a systematic analysis for the Global Burden of Disease Study 2010, The Lancet, Volume 380, Issue 9859, 15 December 2012–4 January 2013, Pages 2224-2260, ISSN 0140-6736, http://dx.doi.org/10.1016/S0140-6736(12)61766-8</t>
+  </si>
+  <si>
+    <t>Air Quality Standards</t>
+  </si>
+  <si>
+    <t>Description: Air Quality Standards / Guidelines / Objectives For Different Countries (updated April 2014).  Table developed by Scott Voorhees, US EPA.</t>
+  </si>
+  <si>
+    <t>Standards:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,31 +314,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -714,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -802,60 +460,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -901,52 +510,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="13"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,6 +521,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,11 +771,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="91560576"/>
-        <c:axId val="91638784"/>
+        <c:axId val="89654784"/>
+        <c:axId val="89656704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91560576"/>
+        <c:axId val="89654784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91638784"/>
+        <c:crossAx val="89656704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1208,7 +793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91638784"/>
+        <c:axId val="89656704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91560576"/>
+        <c:crossAx val="89654784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1373,11 +958,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105329024"/>
-        <c:axId val="105330944"/>
+        <c:axId val="79181696"/>
+        <c:axId val="79183232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105329024"/>
+        <c:axId val="79181696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105330944"/>
+        <c:crossAx val="79183232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1395,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105330944"/>
+        <c:axId val="79183232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1406,7 +991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105329024"/>
+        <c:crossAx val="79181696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,14 +1179,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2705100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1635,7 +1220,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="742950" y="6286500"/>
+          <a:off x="609600" y="3238500"/>
           <a:ext cx="2705100" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1981,16 +1566,16 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="39" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -2159,16 +1744,16 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2230,355 +1815,309 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="24"/>
+    <col min="2" max="2" width="83.140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="32">
-        <v>10</v>
-      </c>
-      <c r="D14" s="33" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="32">
-        <v>12</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="32">
-        <v>15</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="32">
-        <v>25</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="32">
-        <v>15</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>43</v>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="32">
-        <v>15</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="32">
-        <v>35</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="32">
-        <v>35</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="32">
-        <v>40</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>43</v>
+      <c r="B19" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" s="30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="32">
-        <v>12</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="32">
-        <v>25</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="32">
-        <v>35</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>53</v>
+      <c r="A23" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="32">
-        <v>35</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>53</v>
+      <c r="B26" s="28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="32">
+        <v>28</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="34">
+        <v>10</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="34">
+        <v>12</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="34">
+        <v>15</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="32">
+      <c r="C31" s="34">
+        <v>25</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="34">
+        <v>15</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="34">
+        <v>15</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="34">
+        <v>35</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="34">
+        <v>35</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="34">
+        <v>40</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="34">
+        <v>12</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="34">
+        <v>25</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="34">
+        <v>35</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="34">
+        <v>35</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="34">
+        <v>35</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="34">
         <v>75</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="32">
+      <c r="D42" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="34">
         <v>75</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="32">
+      <c r="D43" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="34">
         <v>60</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="35">
+      <c r="D44" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="34">
         <v>37.5</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="D45" s="34" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Detailed Results" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided Deaths By Country" sheetId="4" r:id="rId3"/>
-    <sheet name="Avoided Deaths (% Population)" sheetId="5" r:id="rId4"/>
+    <sheet name="Deaths Per 100,000" sheetId="5" r:id="rId4"/>
     <sheet name="Metadata" sheetId="8" r:id="rId5"/>
     <sheet name="DataSource" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
@@ -510,18 +510,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -543,6 +531,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,11 +771,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89654784"/>
-        <c:axId val="89656704"/>
+        <c:axId val="89664512"/>
+        <c:axId val="94384896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89654784"/>
+        <c:axId val="89664512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89656704"/>
+        <c:crossAx val="94384896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -793,7 +793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89656704"/>
+        <c:axId val="94384896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89654784"/>
+        <c:crossAx val="89664512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -864,6 +864,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deaths</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Per 100,000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -958,11 +978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79181696"/>
-        <c:axId val="79183232"/>
+        <c:axId val="94826880"/>
+        <c:axId val="94828416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79181696"/>
+        <c:axId val="94826880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79183232"/>
+        <c:crossAx val="94828416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +1000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79183232"/>
+        <c:axId val="94828416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +1011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79181696"/>
+        <c:crossAx val="94826880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1566,16 +1586,16 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="23" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -1744,16 +1764,16 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1820,297 +1840,297 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="83.140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="83.140625" style="24" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="30">
         <v>10</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="30">
         <v>12</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="30">
         <v>15</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="30">
         <v>25</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="30">
         <v>15</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="30">
         <v>15</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="30">
         <v>35</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="30">
         <v>35</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="30">
         <v>40</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="30">
         <v>12</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="30">
         <v>25</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="30">
         <v>35</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="30">
         <v>35</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="30">
         <v>35</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="30">
         <v>75</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="30">
         <v>75</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="30">
         <v>60</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="30">
         <v>37.5</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="30" t="s">
         <v>42</v>
       </c>
     </row>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmathews\Documents\RTI\Source\GitHub\benmap-ce\BenMAP\Tools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1185" windowWidth="14370" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -153,25 +158,47 @@
     <t>Air Quality Grid</t>
   </si>
   <si>
-    <t>Description:  PM2.5 concentration data from the Global Burden of Disease 2010 study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brauer, M.; Amann, M.; Burnett, R. T.; Cohen, A.; Dentener, F.; Ezzati, M.; Henderson, S. B.; Krzyzanowski, M.; Martin, R. V.; Van Dingenen, R.; van Donkelaar, A. &amp; Thurston, G. D. Exposure Assessment for Estimation of the Global Burden of Disease Attributable to Outdoor Air Pollution. Environ. Sci. Technol., Environmental Science &amp; Technology, American Chemical Society, 2011, 46, 652-660 </t>
-  </si>
-  <si>
     <t>Population Grid</t>
   </si>
   <si>
-    <t>Description:  2010 Population Data</t>
-  </si>
-  <si>
-    <t>Center for International Earth Science Information Network: Gridded Population of the World, Version 3.0. Columbia University 2012</t>
-  </si>
-  <si>
     <t>Health Impact Function (Krewski et al, 2009)</t>
   </si>
   <si>
     <t>Krewski, D., M. Jerrett, R.T. Burnett, R. Ma, E. Hughes, et al. (2009). Extended Follow-Up and Spatial Analysis of the American Cancer Society Study Linking Particulate Air Pollution and Mortality. Health Effects Institute, Report Number 140. Cambridge, May.  http://pubs.healtheffects.org/getfile.php?u=478.</t>
+  </si>
+  <si>
+    <t>Air Quality Standards</t>
+  </si>
+  <si>
+    <t>Description: Air Quality Standards / Guidelines / Objectives For Different Countries (updated April 2014).  Table developed by Scott Voorhees, US EPA.</t>
+  </si>
+  <si>
+    <t>Standards:</t>
+  </si>
+  <si>
+    <t>Description:  PM2.5 concentration data from the Global Burden of Disease 2013 study</t>
+  </si>
+  <si>
+    <t>Description:  2015 Population Data</t>
+  </si>
+  <si>
+    <t>Center for International Earth Science Information Network - CIESIN - Columbia University. 2016. Gridded Population of the World, Version 4 (GPWv4): Administrative Unit Center Points with Population Estimates. Palisades, NY: NASA Socioeconomic Data and Applications Center (SEDAC). http://dx.doi.org/10.7927/H4F47M2C.</t>
+  </si>
+  <si>
+    <t>Incidence Dataset</t>
+  </si>
+  <si>
+    <t>Description: 2015 Cause-Specific Mortality</t>
+  </si>
+  <si>
+    <t>Global Burden of Disease Study 2015. Global Burden of Disease Study 2015 (GBD 2015) Life Expectancy, All-Cause and Cause-Specific Mortality 1980-2015. Seattle, United States: Institute for Health Metrics and Evaluation (IHME), 2016.
+http://ghdx.healthdata.org/record/global-burden-disease-study-2015-gbd-2015-life-expectancy-all-cause-and-cause-specific</t>
+  </si>
+  <si>
+    <t>Ambient Air Pollution Exposure Estimation for the Global Burden of Disease 2013
+Michael Brauer, Greg Freedman, Joseph Frostad, Aaron van Donkelaar, Randall V. Martin, Frank Dentener, Rita van Dingenen, Kara Estep, Heresh Amini, Joshua S. Apte, Kalpana Balakrishnan, Lars Barregard, David Broday, Valery Feigin, Santu Ghosh, Philip K. Hopke, Luke D. Knibbs, Yoshihiro Kokubo, Yang Liu, Stefan Ma, Lidia Morawska, José Luis Texcalac Sangrador, Gavin Shaddick, H. Ross Anderson, Theo Vos, Mohammad H. Forouzanfar, Richard T. Burnett, and Aaron Cohen.
+Environmental Science &amp; Technology 2016 50 (1), 79-88 
+DOI: 10.1021/acs.est.5b03709</t>
   </si>
   <si>
     <r>
@@ -180,7 +207,6 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -189,7 +215,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -204,7 +229,6 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -214,7 +238,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -224,7 +247,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -239,7 +261,6 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -249,7 +270,6 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -259,7 +279,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -267,24 +286,12 @@
       <t xml:space="preserve"> = baseline incident rate for the heath effect due to all causes (comes from the specified database entry)</t>
     </r>
   </si>
-  <si>
-    <t>Reference: Lim et al. A comparative risk assessment of burden of disease and injury attributable to 67 risk factors and risk factor clusters in 21 regions, 1990–2010: a systematic analysis for the Global Burden of Disease Study 2010, The Lancet, Volume 380, Issue 9859, 15 December 2012–4 January 2013, Pages 2224-2260, ISSN 0140-6736, http://dx.doi.org/10.1016/S0140-6736(12)61766-8</t>
-  </si>
-  <si>
-    <t>Air Quality Standards</t>
-  </si>
-  <si>
-    <t>Description: Air Quality Standards / Guidelines / Objectives For Different Countries (updated April 2014).  Table developed by Scott Voorhees, US EPA.</t>
-  </si>
-  <si>
-    <t>Standards:</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,9 +319,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,28 +328,6 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,7 +335,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -464,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -513,24 +507,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,6 +545,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,12 +568,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -588,7 +605,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -615,16 +631,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Detailed Results'!#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Detailed Results'!#REF!</c:f>
@@ -637,6 +646,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Detailed Results'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21E9-4C8E-8CE2-574259B75E2D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -663,7 +692,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -677,7 +706,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -702,35 +730,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Detailed Results'!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>South Asia</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Aland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Algeria</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>American Samoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Andorra</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Angola</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Detailed Results'!#REF!</c:f>
@@ -761,6 +760,50 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Detailed Results'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>South Asia</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Aland</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Albania</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Algeria</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>American Samoa</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Andorra</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Angola</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-670D-48F1-B870-0B3BA3CDF1E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -816,7 +859,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -850,7 +892,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -884,7 +926,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -909,35 +950,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Detailed Results'!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>South Asia</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Aland</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Albania</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Algeria</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>American Samoa</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Andorra</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Angola</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Detailed Results'!#REF!</c:f>
@@ -968,6 +980,50 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Detailed Results'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>South Asia</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Aland</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Albania</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Algeria</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>American Samoa</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Andorra</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Angola</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B595-4FD2-8708-848E74F2263B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1027,7 +1083,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart3"/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1038,7 +1094,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart4"/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1062,7 +1118,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2" title="By Country"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="By Country">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1092,7 +1154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1143,10 +1211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666963" cy="6297521"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1170,10 +1244,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666963" cy="6297521"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1197,20 +1277,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2705100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1240,8 +1326,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609600" y="3238500"/>
-          <a:ext cx="2705100" cy="342900"/>
+          <a:off x="609599" y="6229349"/>
+          <a:ext cx="2876551" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1306,7 +1392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1339,9 +1425,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1374,6 +1477,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1553,7 +1673,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1586,16 +1708,16 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="31" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -1671,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -1764,16 +1886,16 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1832,311 +1954,365 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="83.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="69.140625" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="6" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+    </row>
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+    </row>
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="24" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="30">
-        <v>10</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="30">
-        <v>12</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="30">
-        <v>15</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="30">
-        <v>25</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="32">
+        <v>10</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="32">
+        <v>12</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="32">
+        <v>15</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="32">
+        <v>25</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C37" s="32">
         <v>15</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D37" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C38" s="32">
         <v>15</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D38" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="29" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C39" s="32">
         <v>35</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D39" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C40" s="32">
         <v>35</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D40" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C41" s="32">
         <v>40</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D41" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C42" s="32">
         <v>12</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D42" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C43" s="32">
         <v>25</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D43" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C44" s="32">
         <v>35</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D44" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="29" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C45" s="32">
         <v>35</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D45" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C46" s="32">
         <v>35</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D46" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="29" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C47" s="32">
         <v>75</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D47" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C48" s="32">
         <v>75</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D48" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C49" s="32">
         <v>60</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D49" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C50" s="32">
         <v>37.5</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D50" s="25" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="68" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -186,13 +186,6 @@
   </si>
   <si>
     <t>Incidence Dataset</t>
-  </si>
-  <si>
-    <t>Description: 2015 Cause-Specific Mortality</t>
-  </si>
-  <si>
-    <t>Global Burden of Disease Study 2015. Global Burden of Disease Study 2015 (GBD 2015) Life Expectancy, All-Cause and Cause-Specific Mortality 1980-2015. Seattle, United States: Institute for Health Metrics and Evaluation (IHME), 2016.
-http://ghdx.healthdata.org/record/global-burden-disease-study-2015-gbd-2015-life-expectancy-all-cause-and-cause-specific</t>
   </si>
   <si>
     <t>Ambient Air Pollution Exposure Estimation for the Global Burden of Disease 2013
@@ -285,6 +278,13 @@
       </rPr>
       <t xml:space="preserve"> = baseline incident rate for the heath effect due to all causes (comes from the specified database entry)</t>
     </r>
+  </si>
+  <si>
+    <t>Description: 2013 Cause-Specific Mortality</t>
+  </si>
+  <si>
+    <t>Global Burden of Disease Study 2013. Global Burden of Disease Study 2013 (GBD 2013) Incidence, Prevalence, and Years Lived with Disability 1990-2013. Seattle, United States: Institute for Health Metrics and Evaluation (IHME), 2015.
+http://ghdx.healthdata.org/record/global-burden-disease-study-2013-gbd-2013-incidence-prevalence-and-years-lived-disability</t>
   </si>
 </sst>
 </file>
@@ -546,17 +546,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1673,7 +1673,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1959,14 +1959,16 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="25" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="24" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="69.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" style="25" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
@@ -1981,19 +1983,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="6" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2001,19 +2003,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -2021,22 +2023,22 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -2044,32 +2046,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+    </row>
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-    </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -2077,11 +2079,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
@@ -2299,17 +2301,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -546,17 +546,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1673,7 +1673,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1959,7 +1959,7 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1983,19 +1983,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="6" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2003,19 +2003,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -2023,22 +2023,22 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -2046,32 +2046,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -2079,11 +2079,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
@@ -2301,17 +2301,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -546,17 +546,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,7 +1083,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart3"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1094,7 +1094,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart4"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1211,7 +1211,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:ext cx="8670421" cy="6302523"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1244,7 +1244,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:ext cx="8670421" cy="6302523"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1673,7 +1673,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1959,7 +1959,7 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1983,19 +1983,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="6" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2003,19 +2003,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -2023,22 +2023,22 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -2046,32 +2046,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -2079,11 +2079,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
@@ -2301,17 +2301,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -546,17 +546,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1673,7 +1673,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1959,7 +1959,7 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1983,19 +1983,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="6" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2003,19 +2003,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -2023,22 +2023,22 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -2046,32 +2046,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -2079,11 +2079,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
@@ -2301,17 +2301,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmathews\Documents\RTI\Source\GitHub\benmap-ce\BenMAP\Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\benmap-ce\BenMAP\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>Standards:</t>
   </si>
   <si>
-    <t>Description:  PM2.5 concentration data from the Global Burden of Disease 2013 study</t>
-  </si>
-  <si>
     <t>Description:  2015 Population Data</t>
   </si>
   <si>
@@ -186,12 +183,6 @@
   </si>
   <si>
     <t>Incidence Dataset</t>
-  </si>
-  <si>
-    <t>Ambient Air Pollution Exposure Estimation for the Global Burden of Disease 2013
-Michael Brauer, Greg Freedman, Joseph Frostad, Aaron van Donkelaar, Randall V. Martin, Frank Dentener, Rita van Dingenen, Kara Estep, Heresh Amini, Joshua S. Apte, Kalpana Balakrishnan, Lars Barregard, David Broday, Valery Feigin, Santu Ghosh, Philip K. Hopke, Luke D. Knibbs, Yoshihiro Kokubo, Yang Liu, Stefan Ma, Lidia Morawska, José Luis Texcalac Sangrador, Gavin Shaddick, H. Ross Anderson, Theo Vos, Mohammad H. Forouzanfar, Richard T. Burnett, and Aaron Cohen.
-Environmental Science &amp; Technology 2016 50 (1), 79-88 
-DOI: 10.1021/acs.est.5b03709</t>
   </si>
   <si>
     <r>
@@ -285,6 +276,13 @@
   <si>
     <t>Global Burden of Disease Study 2013. Global Burden of Disease Study 2013 (GBD 2013) Incidence, Prevalence, and Years Lived with Disability 1990-2013. Seattle, United States: Institute for Health Metrics and Evaluation (IHME), 2015.
 http://ghdx.healthdata.org/record/global-burden-disease-study-2013-gbd-2013-incidence-prevalence-and-years-lived-disability</t>
+  </si>
+  <si>
+    <t>Description:  PM2.5 concentration data from the Global Burden of Disease 2015 study</t>
+  </si>
+  <si>
+    <t>Estimates and 25-year trends of the global burden of disease attributable to ambient air pollution: an analysis of data from the Global Burden of Diseases Study 2015
+Cohen, A. J.; Brauer, M.; Burnett, R. T. Lancet 2017, In press (17), 1–12.</t>
   </si>
 </sst>
 </file>
@@ -546,17 +544,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,7 +1081,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart3"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1094,7 +1092,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart4"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1211,7 +1209,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670421" cy="6302523"/>
+    <xdr:ext cx="8668956" cy="6293734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1244,7 +1242,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670421" cy="6302523"/>
+    <xdr:ext cx="8668956" cy="6293734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1673,8 +1671,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1793,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -1959,8 +1957,8 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,19 +1981,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="6" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="6" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2003,42 +2001,42 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="B11" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -2046,32 +2044,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+    </row>
+    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-    </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -2079,11 +2077,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
@@ -2301,17 +2299,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\benmap-ce\BenMAP\Tools\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="25200" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Detailed Results" sheetId="2" r:id="rId2"/>
     <sheet name="Avoided Deaths By Country" sheetId="4" r:id="rId3"/>
     <sheet name="Deaths Per 100,000" sheetId="5" r:id="rId4"/>
-    <sheet name="Metadata" sheetId="8" r:id="rId5"/>
-    <sheet name="DataSource" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Economic Benefits" sheetId="10" r:id="rId5"/>
+    <sheet name="Metadata" sheetId="8" r:id="rId6"/>
+    <sheet name="DataSource" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -284,11 +280,26 @@
     <t>Estimates and 25-year trends of the global burden of disease attributable to ambient air pollution: an analysis of data from the Global Burden of Diseases Study 2015
 Cohen, A. J.; Brauer, M.; Burnett, R. T. Lancet 2017, In press (17), 1–12.</t>
   </si>
+  <si>
+    <t>Economic Benefits</t>
+  </si>
+  <si>
+    <t>Avoided Life Years Lost</t>
+  </si>
+  <si>
+    <t>Change in Life Expectancy</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Value of Statistical Life Data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -532,6 +543,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,7 +586,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -603,6 +615,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -628,7 +641,7 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -644,7 +657,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
@@ -690,7 +703,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -758,7 +771,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
@@ -812,11 +825,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="89664512"/>
-        <c:axId val="94384896"/>
+        <c:axId val="101411456"/>
+        <c:axId val="113398144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89664512"/>
+        <c:axId val="101411456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,7 +839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94384896"/>
+        <c:crossAx val="113398144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -834,7 +847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94384896"/>
+        <c:axId val="113398144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89664512"/>
+        <c:crossAx val="101411456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -890,7 +903,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -978,7 +991,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
@@ -1032,11 +1045,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="94826880"/>
-        <c:axId val="94828416"/>
+        <c:axId val="113559040"/>
+        <c:axId val="113560576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94826880"/>
+        <c:axId val="113559040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94828416"/>
+        <c:crossAx val="113560576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1054,7 +1067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94828416"/>
+        <c:axId val="113560576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1078,195 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94826880"/>
+        <c:crossAx val="113559040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Economic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Benefits (USD)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed Results'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avoided Deaths (% Population)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detailed Results'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.72804187966218892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25699347350814283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33219052803782279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5103699585040937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0270301601888976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65306437227947778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1095782351744758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Detailed Results'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>South Asia</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Aland</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Albania</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Algeria</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>American Samoa</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Andorra</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Angola</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B595-4FD2-8708-848E74F2263B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="113573248"/>
+        <c:axId val="114185344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113573248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114185344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114185344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113573248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1081,7 +1282,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart3"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1092,7 +1293,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart4"/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1119,7 +1331,7 @@
         <xdr:cNvPr id="3" name="Chart 2" title="By Country">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,7 +1367,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1209,13 +1421,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668956" cy="6293734"/>
+    <xdr:ext cx="8658311" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,13 +1454,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668956" cy="6293734"/>
+    <xdr:ext cx="8658311" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,6 +1485,33 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8658311" cy="6281351"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1291,7 +1530,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1423,26 +1662,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1475,23 +1697,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1669,10 +1874,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:P14"/>
+  <dimension ref="A2:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1685,15 +1890,15 @@
     <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="3" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.7109375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="21" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="12" width="19.5703125" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.7109375" style="3" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="21" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1706,19 +1911,22 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="33" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1744,13 +1952,13 @@
         <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>10</v>
@@ -1762,10 +1970,19 @@
         <v>12</v>
       </c>
       <c r="P3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="51.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="51.75" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1785,8 +2002,11 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1794,7 +2014,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +2022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1810,7 +2030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1818,36 +2038,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1858,9 +2082,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:N3"/>
+  <dimension ref="A2:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1869,14 +2095,14 @@
     <col min="4" max="4" width="18.85546875" style="18" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="18" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="18" customWidth="1"/>
-    <col min="8" max="11" width="10.7109375" style="18" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="21.140625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="10" width="19.5703125" style="18" customWidth="1"/>
+    <col min="11" max="14" width="10.7109375" style="18" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="21.140625" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1884,19 +2110,22 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
@@ -1918,14 +2147,14 @@
       <c r="G3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>12</v>
+      <c r="H3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>10</v>
@@ -1937,13 +2166,22 @@
         <v>12</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1957,7 +2195,7 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
@@ -1981,19 +2219,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="6" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2001,19 +2239,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -2021,22 +2259,22 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -2044,32 +2282,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -2077,11 +2315,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="25200" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="25200" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>Value of Statistical Life Data</t>
+  </si>
+  <si>
+    <t>Economic Benefits (2011 USD)</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -825,11 +827,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101411456"/>
-        <c:axId val="113398144"/>
+        <c:axId val="142858880"/>
+        <c:axId val="156102656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101411456"/>
+        <c:axId val="142858880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,7 +841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113398144"/>
+        <c:crossAx val="156102656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -847,7 +849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113398144"/>
+        <c:axId val="156102656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101411456"/>
+        <c:crossAx val="142858880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,11 +1047,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="113559040"/>
-        <c:axId val="113560576"/>
+        <c:axId val="361780352"/>
+        <c:axId val="362184704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113559040"/>
+        <c:axId val="361780352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113560576"/>
+        <c:crossAx val="362184704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1067,7 +1069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113560576"/>
+        <c:axId val="362184704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113559040"/>
+        <c:crossAx val="361780352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1233,11 +1235,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="113573248"/>
-        <c:axId val="114185344"/>
+        <c:axId val="142845440"/>
+        <c:axId val="142846976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113573248"/>
+        <c:axId val="142845440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114185344"/>
+        <c:crossAx val="142846976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114185344"/>
+        <c:axId val="142846976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113573248"/>
+        <c:crossAx val="142845440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1876,7 +1878,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -2084,8 +2086,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -2148,7 +2150,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>61</v>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="25200" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="25200" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -279,9 +279,6 @@
   <si>
     <t>Estimates and 25-year trends of the global burden of disease attributable to ambient air pollution: an analysis of data from the Global Burden of Diseases Study 2015
 Cohen, A. J.; Brauer, M.; Burnett, R. T. Lancet 2017, In press (17), 1–12.</t>
-  </si>
-  <si>
-    <t>Economic Benefits</t>
   </si>
   <si>
     <t>Avoided Life Years Lost</t>
@@ -559,17 +556,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,6 +615,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -827,11 +825,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142858880"/>
-        <c:axId val="156102656"/>
+        <c:axId val="120848384"/>
+        <c:axId val="120850304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142858880"/>
+        <c:axId val="120848384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156102656"/>
+        <c:crossAx val="120850304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -849,7 +847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156102656"/>
+        <c:axId val="120850304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142858880"/>
+        <c:crossAx val="120848384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1047,11 +1045,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="361780352"/>
-        <c:axId val="362184704"/>
+        <c:axId val="144358016"/>
+        <c:axId val="155566464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="361780352"/>
+        <c:axId val="144358016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362184704"/>
+        <c:crossAx val="155566464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1069,7 +1067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362184704"/>
+        <c:axId val="155566464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="361780352"/>
+        <c:crossAx val="144358016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1121,12 +1119,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Benefits (USD)</a:t>
+              <a:t> Benefits (2011 USD)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1235,11 +1234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="142845440"/>
-        <c:axId val="142846976"/>
+        <c:axId val="170084224"/>
+        <c:axId val="170085760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="142845440"/>
+        <c:axId val="170084224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142846976"/>
+        <c:crossAx val="170085760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142846976"/>
+        <c:axId val="170085760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142845440"/>
+        <c:crossAx val="170084224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1306,7 +1305,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1333,7 +1332,7 @@
         <xdr:cNvPr id="3" name="Chart 2" title="By Country">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1368,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1428,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1461,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1488,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8658311" cy="6281351"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1532,7 +1531,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,8 +1877,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1954,13 +1953,13 @@
         <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>10</v>
@@ -2042,13 +2041,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="5"/>
     </row>
@@ -2086,8 +2085,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -2150,13 +2149,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>10</v>
@@ -2221,19 +2220,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="6" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2241,19 +2240,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -2261,22 +2260,22 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -2284,32 +2283,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -2317,11 +2316,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
@@ -2539,17 +2538,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="25200" windowHeight="11700" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="25200" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -556,17 +556,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,11 +825,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120848384"/>
-        <c:axId val="120850304"/>
+        <c:axId val="170536320"/>
+        <c:axId val="170542208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120848384"/>
+        <c:axId val="170536320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,7 +839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120850304"/>
+        <c:crossAx val="170542208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -847,7 +847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120850304"/>
+        <c:axId val="170542208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120848384"/>
+        <c:crossAx val="170536320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,11 +1045,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144358016"/>
-        <c:axId val="155566464"/>
+        <c:axId val="189073664"/>
+        <c:axId val="189075456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144358016"/>
+        <c:axId val="189073664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155566464"/>
+        <c:crossAx val="189075456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1067,7 +1067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155566464"/>
+        <c:axId val="189075456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144358016"/>
+        <c:crossAx val="189073664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,11 +1234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170084224"/>
-        <c:axId val="170085760"/>
+        <c:axId val="189133184"/>
+        <c:axId val="189134720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170084224"/>
+        <c:axId val="189133184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +1248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170085760"/>
+        <c:crossAx val="189134720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1256,7 +1256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170085760"/>
+        <c:axId val="189134720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170084224"/>
+        <c:crossAx val="189133184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1305,7 +1305,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="149" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1332,7 +1332,7 @@
         <xdr:cNvPr id="3" name="Chart 2" title="By Country">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1368,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1461,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1488,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:ext cx="8674782" cy="6296728"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1531,7 +1531,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,9 +1877,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:S14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2220,19 +2218,19 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="6" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -2240,19 +2238,19 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -2260,22 +2258,22 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
@@ -2283,32 +2281,32 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -2316,11 +2314,11 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
@@ -2538,17 +2536,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Avoided Deaths By Country" sheetId="4" r:id="rId3"/>
     <sheet name="Deaths Per 100,000" sheetId="5" r:id="rId4"/>
     <sheet name="Economic Benefits" sheetId="10" r:id="rId5"/>
-    <sheet name="Metadata" sheetId="8" r:id="rId6"/>
+    <sheet name="Metadata" sheetId="11" r:id="rId6"/>
     <sheet name="DataSource" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="304">
   <si>
     <t>Date</t>
   </si>
@@ -118,9 +118,6 @@
     <t>WHO</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
     <t>US Primary</t>
   </si>
   <si>
@@ -157,12 +154,6 @@
     <t>Population Grid</t>
   </si>
   <si>
-    <t>Health Impact Function (Krewski et al, 2009)</t>
-  </si>
-  <si>
-    <t>Krewski, D., M. Jerrett, R.T. Burnett, R. Ma, E. Hughes, et al. (2009). Extended Follow-Up and Spatial Analysis of the American Cancer Society Study Linking Particulate Air Pollution and Mortality. Health Effects Institute, Report Number 140. Cambridge, May.  http://pubs.healtheffects.org/getfile.php?u=478.</t>
-  </si>
-  <si>
     <t>Air Quality Standards</t>
   </si>
   <si>
@@ -179,92 +170,6 @@
   </si>
   <si>
     <t>Incidence Dataset</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>β = (Effective estimate) quantifies the change in health effects per unit of change in a pollutant and is derived from an epidemiological study</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ΔAQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = change in pollutant concentration (described above)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Incidence Rate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = baseline incident rate for the heath effect due to all causes (comes from the specified database entry)</t>
-    </r>
   </si>
   <si>
     <t>Description: 2013 Cause-Specific Mortality</t>
@@ -277,10 +182,6 @@
     <t>Description:  PM2.5 concentration data from the Global Burden of Disease 2015 study</t>
   </si>
   <si>
-    <t>Estimates and 25-year trends of the global burden of disease attributable to ambient air pollution: an analysis of data from the Global Burden of Diseases Study 2015
-Cohen, A. J.; Brauer, M.; Burnett, R. T. Lancet 2017, In press (17), 1–12.</t>
-  </si>
-  <si>
     <t>Avoided Life Years Lost</t>
   </si>
   <si>
@@ -294,13 +195,752 @@
   </si>
   <si>
     <t>Economic Benefits (2011 USD)</t>
+  </si>
+  <si>
+    <t>Cohen, A. J.; Brauer, M.; Burnett, R. T. (2017). Estimates and 25-year trends of the global burden of disease attributable to ambient air pollution: an analysis of data from the Global Burden of Diseases Study 2015. Lancet, 389(10082), 1907-18.</t>
+  </si>
+  <si>
+    <t>Health Impact Function - 2013 IER (Burnett et al., 2014)</t>
+  </si>
+  <si>
+    <t>Burnett RT, Pope CA, Ezzati M, Olives C, Lim SS, Mehta S, Shin HH, Singh G, Hubbell B, Brauer M, Anderson HR, Smith KR, Balmes JR, Bruce NG, Kan H, Laden F, Pruss-Ustun A, Turner MC, Gapstur SM, Diver WR, Cohen A. (2014). An integrated risk function for estimating the global burden of disease attributable to ambient fine particulate matter exposure. Environ Health Perspect 122:397-403; http://dx.doi.org/10.1289/ehp.1307049</t>
+  </si>
+  <si>
+    <t>Health Impact Function  - SCHIF (Burnett et al., in prep)</t>
+  </si>
+  <si>
+    <t>Burnett RT, Chen H, Szyszkowicz M, Fann N, Hubbell B, Pope CA, Apte JS, Brauer M, Cohen A, Weichenthal S, Coggins J, Di Q, Brunekreef B, Frostad J, Lim SS, Kan H, Pruss-Ustun AM, AARP collaborators, ACS collaborators, CTS collaborators, Canadian Breast Screening collaborators, CanCHEC/CCHS collaborators, Chinese Male Cohort Collaborators, CUELS collaborators, English Cohort collaborators, Hong Kong collaborators, NHIS collaborators, NHS collaborators, Rome Census Cohort collaborators, VHM&amp;PP collaborators. 2017. A new approach to estimating global mortality burden from outdoor fine particle exposure. Manuscript in preparation.</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>Estimated reductions in premature mortality are valued using country-specific estimates of the value per statistical life (VSL). This value is not the monetary value of individual lives. Rather, it reflects the amount individuals are willing to pay to incrementally reduce their risks of death from adverse health conditions that may be caused by environmental pollution. For example, if each individual in a population is willing to pay $20 to reduce his or her risk of death by 10 in 100,000, the VSL for that population would be $200,000 (= $20 ÷ (10/100,000)). For 500 avoided deaths in that population, the economic benefit would be $100,000,000 (= 500 * $200,000). 
+Fatal risk reductions have been shown to be sensative to income; individuals are willing to pay more for risk reductions as their income increases. Thus, the VSL is commonly adjusted to reflect differences in the average income levels both across countries and within a country over time.  Because of these adjustments, in some instances, a country  with a larger number of  avoided deaths than another country may actually show a smaller economic benefit when compared in common currency units.</t>
+  </si>
+  <si>
+    <t>VSL estimates provided by authors of:</t>
+  </si>
+  <si>
+    <t>World Bank and IHME (2016). The Cost of Air Pollution: Strengthening the Economic Case for Action. Washington, DC: 2016 International Bank for Reconstruction and Development/The World Bank.</t>
+  </si>
+  <si>
+    <t>In some instances, VSLs were imputed (due to lack of GDP data) using a population-weighted average of VSLs from countries in the same region.</t>
+  </si>
+  <si>
+    <t>REGIONNAME</t>
+  </si>
+  <si>
+    <t>COUNTRYNAME</t>
+  </si>
+  <si>
+    <t>OECD VSL (2011 USD, PPP)</t>
+  </si>
+  <si>
+    <t>USEPA VSL  (2011 USD, PPP)</t>
+  </si>
+  <si>
+    <t>Imputed</t>
+  </si>
+  <si>
+    <t>High-income Asia Pacific</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Central Asia</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>East Asia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Democratic Peoples Republic of Korea</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>China - Hong Kong Special Administrative Region</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Southeast Asia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Lao Peoples Democratic Republic</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Australasia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Bonaire - Saint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Central Europe</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Eastern Europe</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Republic of Moldova</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Andean Latin America</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Central Latin America</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Southern Latin America</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Tropical Latin America</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>North Africa and Middle East</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>High-income North America</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Central sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eastern sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Southern sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Western sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Cote dIvoire</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,19 +989,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
+      <b/>
       <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,8 +1036,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -463,11 +1131,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,9 +1234,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -531,19 +1245,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,11 +1273,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,11 +1592,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="170536320"/>
-        <c:axId val="170542208"/>
+        <c:axId val="41561472"/>
+        <c:axId val="41579648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170536320"/>
+        <c:axId val="41561472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,7 +1606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170542208"/>
+        <c:crossAx val="41579648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -847,7 +1614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170542208"/>
+        <c:axId val="41579648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +1643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170536320"/>
+        <c:crossAx val="41561472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,11 +1812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189073664"/>
-        <c:axId val="189075456"/>
+        <c:axId val="42191104"/>
+        <c:axId val="42201088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189073664"/>
+        <c:axId val="42191104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189075456"/>
+        <c:crossAx val="42201088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1067,7 +1834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189075456"/>
+        <c:axId val="42201088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189073664"/>
+        <c:crossAx val="42191104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,11 +2001,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189133184"/>
-        <c:axId val="189134720"/>
+        <c:axId val="42226048"/>
+        <c:axId val="42227584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189133184"/>
+        <c:axId val="42226048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,7 +2015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189134720"/>
+        <c:crossAx val="42227584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1256,7 +2023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189134720"/>
+        <c:axId val="42227584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +2034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189133184"/>
+        <c:crossAx val="42226048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1305,7 +2072,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="149" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1332,7 +2099,7 @@
         <xdr:cNvPr id="3" name="Chart 2" title="By Country">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +2135,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +2195,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +2228,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +2255,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674782" cy="6296728"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1508,82 +2275,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609599" y="6229349"/>
-          <a:ext cx="2876551" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1910,19 +2601,19 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -1951,13 +2642,13 @@
         <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>10</v>
@@ -2039,13 +2730,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5"/>
     </row>
@@ -2112,16 +2803,16 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2147,13 +2838,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>10</v>
@@ -2192,365 +2883,4157 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="20" style="24" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="33.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="20" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="6" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="38" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-    </row>
-    <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-    </row>
-    <row r="16" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="36" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-    </row>
-    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-    </row>
-    <row r="26" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C29" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D29" s="40" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C30" s="42">
         <v>10</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D30" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="C31" s="42">
+        <v>12</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C32" s="42">
+        <v>15</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="42">
+        <v>25</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="42">
+        <v>15</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="42">
+        <v>15</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="42">
+        <v>35</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="42">
+        <v>35</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="42">
+        <v>40</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="42">
         <v>12</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D39" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="42">
+        <v>25</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="32">
-        <v>15</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="31" t="s">
+      <c r="C41" s="42">
         <v>35</v>
       </c>
-      <c r="C36" s="32">
-        <v>25</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+      <c r="D41" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="42">
+        <v>35</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="32">
-        <v>15</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
+      <c r="C43" s="42">
+        <v>35</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="32">
-        <v>15</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
+      <c r="C44" s="42">
+        <v>75</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C45" s="42">
+        <v>75</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="42">
+        <v>60</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="42">
+        <v>37.5</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+    </row>
+    <row r="54" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="44"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="44"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="46"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="53">
+        <v>3290305.6926085213</v>
+      </c>
+      <c r="E59" s="53">
+        <v>5929712.9601737866</v>
+      </c>
+      <c r="F59" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="53">
+        <v>6547267.5477391807</v>
+      </c>
+      <c r="E60" s="53">
+        <v>11799334.426211156</v>
+      </c>
+      <c r="F60" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="53">
+        <v>6555587.9397879746</v>
+      </c>
+      <c r="E61" s="53">
+        <v>11814329.244679328</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="31" t="s">
+      <c r="D62" s="53">
+        <v>3628786.8284267276</v>
+      </c>
+      <c r="E62" s="53">
+        <v>6539715.8490677839</v>
+      </c>
+      <c r="F62" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="53">
+        <v>124821.91185661747</v>
+      </c>
+      <c r="E63" s="53">
+        <v>197072.59273000804</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="53">
+        <v>804636.9406998991</v>
+      </c>
+      <c r="E64" s="53">
+        <v>1270385.0289700886</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="53">
+        <v>478722.23834219226</v>
+      </c>
+      <c r="E65" s="53">
+        <v>755821.08384928619</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="53">
+        <v>586573.81323068135</v>
+      </c>
+      <c r="E66" s="53">
+        <v>926100.39761035226</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="53">
+        <v>281841.99712314445</v>
+      </c>
+      <c r="E67" s="53">
+        <v>444980.63110156474</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="53">
+        <v>1403701.1027275496</v>
+      </c>
+      <c r="E68" s="53">
+        <v>2216205.5653357934</v>
+      </c>
+      <c r="F68" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="53">
+        <v>1797585.68467049</v>
+      </c>
+      <c r="E69" s="53">
+        <v>2838082.402866025</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="53">
+        <v>428893.59441180492</v>
+      </c>
+      <c r="E70" s="53">
+        <v>677150.12051023834</v>
+      </c>
+      <c r="F70" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="53">
+        <v>173264.79370933332</v>
+      </c>
+      <c r="E71" s="53">
+        <v>273555.6731766084</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="53">
+        <v>747033.13453817845</v>
+      </c>
+      <c r="E72" s="53">
+        <v>1179438.4053961178</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="53">
+        <v>815731.31455121911</v>
+      </c>
+      <c r="E73" s="53">
+        <v>1306577.4321395389</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="53">
+        <v>4745125.7521404801</v>
+      </c>
+      <c r="E74" s="53">
+        <v>8551556.085907286</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="53">
+        <v>4047079.9676512373</v>
+      </c>
+      <c r="E75" s="53">
+        <v>7293554.0879838001</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="53">
+        <v>93102.754086549379</v>
+      </c>
+      <c r="E76" s="53">
+        <v>146993.43140342945</v>
+      </c>
+      <c r="F76" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="32">
-        <v>35</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="32">
-        <v>40</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="32">
-        <v>12</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="32">
-        <v>25</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="32">
-        <v>35</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="32">
-        <v>35</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="32">
-        <v>35</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="32">
-        <v>75</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="32">
-        <v>75</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="32">
-        <v>60</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="32">
-        <v>37.5</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>42</v>
+      <c r="D77" s="53">
+        <v>303618.25518799538</v>
+      </c>
+      <c r="E77" s="53">
+        <v>479361.6430005618</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="53">
+        <v>115976.61792497299</v>
+      </c>
+      <c r="E78" s="53">
+        <v>183107.37634580012</v>
+      </c>
+      <c r="F78" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="53">
+        <v>290873.95944608259</v>
+      </c>
+      <c r="E79" s="53">
+        <v>459240.56516238733</v>
+      </c>
+      <c r="F79" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" s="53">
+        <v>476752.16253127955</v>
+      </c>
+      <c r="E80" s="53">
+        <v>752710.66884156491</v>
+      </c>
+      <c r="F80" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="53">
+        <v>148330.44029253119</v>
+      </c>
+      <c r="E81" s="53">
+        <v>234188.56524815375</v>
+      </c>
+      <c r="F81" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="53">
+        <v>1963987.8818500957</v>
+      </c>
+      <c r="E82" s="53">
+        <v>3100803.202014049</v>
+      </c>
+      <c r="F82" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="53">
+        <v>403016.36446263507</v>
+      </c>
+      <c r="E83" s="53">
+        <v>636294.37072320166</v>
+      </c>
+      <c r="F83" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="53">
+        <v>306347.86353010684</v>
+      </c>
+      <c r="E84" s="53">
+        <v>483671.2308374737</v>
+      </c>
+      <c r="F84" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="53">
+        <v>663623.98318253644</v>
+      </c>
+      <c r="E85" s="53">
+        <v>1047749.525851091</v>
+      </c>
+      <c r="F85" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D86" s="53">
+        <v>152842.87741943006</v>
+      </c>
+      <c r="E86" s="53">
+        <v>241312.93685007736</v>
+      </c>
+      <c r="F86" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="53">
+        <v>851323.61181139515</v>
+      </c>
+      <c r="E87" s="53">
+        <v>1344095.3510203103</v>
+      </c>
+      <c r="F87" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="53">
+        <v>644860.03657322074</v>
+      </c>
+      <c r="E88" s="53">
+        <v>1018124.4419764503</v>
+      </c>
+      <c r="F88" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="53">
+        <v>265743.80870687531</v>
+      </c>
+      <c r="E89" s="53">
+        <v>419564.32652601384</v>
+      </c>
+      <c r="F89" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="53">
+        <v>1157696.2708244091</v>
+      </c>
+      <c r="E90" s="53">
+        <v>1827805.7297127701</v>
+      </c>
+      <c r="F90" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="53">
+        <v>108249.98001629034</v>
+      </c>
+      <c r="E91" s="53">
+        <v>170908.32777250808</v>
+      </c>
+      <c r="F91" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="53">
+        <v>656332.57853435271</v>
+      </c>
+      <c r="E92" s="53">
+        <v>1036237.6366540103</v>
+      </c>
+      <c r="F92" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" s="53">
+        <v>3409425.3195953574</v>
+      </c>
+      <c r="E93" s="53">
+        <v>6144387.6019682158</v>
+      </c>
+      <c r="F93" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" s="53">
+        <v>4205013.4349393807</v>
+      </c>
+      <c r="E94" s="53">
+        <v>7578178.1367241591</v>
+      </c>
+      <c r="F94" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E95" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F95" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="53">
+        <v>916200.07669429597</v>
+      </c>
+      <c r="E96" s="53">
+        <v>1446524.2671573833</v>
+      </c>
+      <c r="F96" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E97" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F97" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="53">
+        <v>2404466.7678753529</v>
+      </c>
+      <c r="E98" s="53">
+        <v>4333274.5002408018</v>
+      </c>
+      <c r="F98" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="53">
+        <v>2619733.9859117153</v>
+      </c>
+      <c r="E99" s="53">
+        <v>4721224.1109892186</v>
+      </c>
+      <c r="F99" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E100" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F100" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" s="53">
+        <v>415474.35267603159</v>
+      </c>
+      <c r="E101" s="53">
+        <v>655963.41761485697</v>
+      </c>
+      <c r="F101" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E102" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F102" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D103" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E103" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F103" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D104" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E104" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F104" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="53">
+        <v>82407.866933715108</v>
+      </c>
+      <c r="E105" s="53">
+        <v>130108.02155179245</v>
+      </c>
+      <c r="F105" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="53">
+        <v>1902349.8331391599</v>
+      </c>
+      <c r="E106" s="53">
+        <v>3428370.9521855223</v>
+      </c>
+      <c r="F106" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E107" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F107" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" s="53">
+        <v>1669914.1284475171</v>
+      </c>
+      <c r="E108" s="53">
+        <v>2636510.7058098367</v>
+      </c>
+      <c r="F108" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E109" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F109" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="53">
+        <v>2396169.5156936087</v>
+      </c>
+      <c r="E110" s="53">
+        <v>4318321.3839068254</v>
+      </c>
+      <c r="F110" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E111" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F111" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" s="53">
+        <v>823094.51481817348</v>
+      </c>
+      <c r="E112" s="53">
+        <v>1299526.4027312349</v>
+      </c>
+      <c r="F112" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" s="53">
+        <v>919141.46952648577</v>
+      </c>
+      <c r="E113" s="53">
+        <v>1451168.2267238968</v>
+      </c>
+      <c r="F113" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="53">
+        <v>647058.9027479823</v>
+      </c>
+      <c r="E114" s="53">
+        <v>1021596.0780993166</v>
+      </c>
+      <c r="F114" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D115" s="53">
+        <v>601966.32928652223</v>
+      </c>
+      <c r="E115" s="53">
+        <v>950402.56541601266</v>
+      </c>
+      <c r="F115" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D116" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E116" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F116" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117" s="53">
+        <v>857287.48059729743</v>
+      </c>
+      <c r="E117" s="53">
+        <v>1353511.2866269485</v>
+      </c>
+      <c r="F117" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C118" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" s="53">
+        <v>1253016.3139902861</v>
+      </c>
+      <c r="E118" s="53">
+        <v>1978299.8838754925</v>
+      </c>
+      <c r="F118" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" s="53">
+        <v>3244625.5067332508</v>
+      </c>
+      <c r="E119" s="53">
+        <v>5847389.1837489298</v>
+      </c>
+      <c r="F119" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" s="53">
+        <v>793510.61019327678</v>
+      </c>
+      <c r="E120" s="53">
+        <v>1252818.4433610663</v>
+      </c>
+      <c r="F120" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" s="53">
+        <v>1035569.6745922752</v>
+      </c>
+      <c r="E121" s="53">
+        <v>1666039.8450759219</v>
+      </c>
+      <c r="F121" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" s="53">
+        <v>2350202.0151256388</v>
+      </c>
+      <c r="E122" s="53">
+        <v>4235479.815575649</v>
+      </c>
+      <c r="F122" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" s="53">
+        <v>1027700.7709394741</v>
+      </c>
+      <c r="E123" s="53">
+        <v>1622564.9204309389</v>
+      </c>
+      <c r="F123" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C124" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D124" s="53">
+        <v>1178304.9300859834</v>
+      </c>
+      <c r="E124" s="53">
+        <v>1860343.3014656608</v>
+      </c>
+      <c r="F124" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D125" s="53">
+        <v>3087250.5046681091</v>
+      </c>
+      <c r="E125" s="53">
+        <v>5563771.5881408984</v>
+      </c>
+      <c r="F125" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C126" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D126" s="53">
+        <v>3111637.3731388333</v>
+      </c>
+      <c r="E126" s="53">
+        <v>5607721.0395106459</v>
+      </c>
+      <c r="F126" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C127" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" s="53">
+        <v>741743.37343016418</v>
+      </c>
+      <c r="E127" s="53">
+        <v>1171086.7712881882</v>
+      </c>
+      <c r="F127" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128" s="53">
+        <v>2551374.9710193528</v>
+      </c>
+      <c r="E128" s="53">
+        <v>4598029.0724666435</v>
+      </c>
+      <c r="F128" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129" s="53">
+        <v>937494.14143374248</v>
+      </c>
+      <c r="E129" s="53">
+        <v>1480143.9777157649</v>
+      </c>
+      <c r="F129" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C130" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D130" s="53">
+        <v>2766046.282739277</v>
+      </c>
+      <c r="E130" s="53">
+        <v>4984904.7546084961</v>
+      </c>
+      <c r="F130" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D131" s="53">
+        <v>1331350.3274507178</v>
+      </c>
+      <c r="E131" s="53">
+        <v>2101975.9829031029</v>
+      </c>
+      <c r="F131" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="53">
+        <v>2487356.6964748995</v>
+      </c>
+      <c r="E132" s="53">
+        <v>4482656.8159899944</v>
+      </c>
+      <c r="F132" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D133" s="53">
+        <v>722437.69612363353</v>
+      </c>
+      <c r="E133" s="53">
+        <v>1140606.3866776943</v>
+      </c>
+      <c r="F133" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" s="53">
+        <v>1553298.0386305354</v>
+      </c>
+      <c r="E134" s="53">
+        <v>2452393.711986932</v>
+      </c>
+      <c r="F134" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" s="53">
+        <v>2506462.0297725727</v>
+      </c>
+      <c r="E135" s="53">
+        <v>4517088.0065988647</v>
+      </c>
+      <c r="F135" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136" s="53">
+        <v>2555882.3983071623</v>
+      </c>
+      <c r="E136" s="53">
+        <v>4606152.2538675703</v>
+      </c>
+      <c r="F136" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D137" s="53">
+        <v>1377641.6605463785</v>
+      </c>
+      <c r="E137" s="53">
+        <v>2175062.1333906041</v>
+      </c>
+      <c r="F137" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D138" s="53">
+        <v>598983.67173910909</v>
+      </c>
+      <c r="E138" s="53">
+        <v>945693.45587465598</v>
+      </c>
+      <c r="F138" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D139" s="53">
+        <v>260954.90445666699</v>
+      </c>
+      <c r="E139" s="53">
+        <v>412003.46030559909</v>
+      </c>
+      <c r="F139" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D140" s="53">
+        <v>2159564.8036913252</v>
+      </c>
+      <c r="E140" s="53">
+        <v>3891917.8341242378</v>
+      </c>
+      <c r="F140" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C141" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" s="53">
+        <v>2424524.7130455836</v>
+      </c>
+      <c r="E141" s="53">
+        <v>4369422.4659746718</v>
+      </c>
+      <c r="F141" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D142" s="53">
+        <v>3507768.2638881821</v>
+      </c>
+      <c r="E142" s="53">
+        <v>6321618.9858559864</v>
+      </c>
+      <c r="F142" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C143" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D143" s="53">
+        <v>4046616.3092794176</v>
+      </c>
+      <c r="E143" s="53">
+        <v>7292718.4935699906</v>
+      </c>
+      <c r="F143" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C144" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D144" s="53">
+        <v>4334754.4004334249</v>
+      </c>
+      <c r="E144" s="53">
+        <v>7811994.3095751302</v>
+      </c>
+      <c r="F144" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D145" s="53">
+        <v>4148124.120035029</v>
+      </c>
+      <c r="E145" s="53">
+        <v>7475653.5267338008</v>
+      </c>
+      <c r="F145" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C146" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D146" s="53">
+        <v>4337400.1607029857</v>
+      </c>
+      <c r="E146" s="53">
+        <v>7816762.4376536785</v>
+      </c>
+      <c r="F146" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C147" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D147" s="53">
+        <v>7886958.1693686442</v>
+      </c>
+      <c r="E147" s="53">
+        <v>14213693.936801672</v>
+      </c>
+      <c r="F147" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C148" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D148" s="53">
+        <v>3824803.1230196669</v>
+      </c>
+      <c r="E148" s="53">
+        <v>6892971.8900077119</v>
+      </c>
+      <c r="F148" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C149" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D149" s="53">
+        <v>3742211.7251321161</v>
+      </c>
+      <c r="E149" s="53">
+        <v>6744127.5794158857</v>
+      </c>
+      <c r="F149" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C150" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D150" s="53">
+        <v>3222034.5100537436</v>
+      </c>
+      <c r="E150" s="53">
+        <v>5806676.2110623345</v>
+      </c>
+      <c r="F150" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D151" s="53">
+        <v>3180416.4816154991</v>
+      </c>
+      <c r="E151" s="53">
+        <v>5731673.1609926941</v>
+      </c>
+      <c r="F151" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D152" s="53">
+        <v>3922909.4046901651</v>
+      </c>
+      <c r="E152" s="53">
+        <v>7069776.7659810474</v>
+      </c>
+      <c r="F152" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C153" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" s="53">
+        <v>4329343.6720405612</v>
+      </c>
+      <c r="E153" s="53">
+        <v>7802243.2197760213</v>
+      </c>
+      <c r="F153" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D154" s="53">
+        <v>5218737.3950248696</v>
+      </c>
+      <c r="E154" s="53">
+        <v>9405088.0550521687</v>
+      </c>
+      <c r="F154" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D155" s="53">
+        <v>4003911.5977414665</v>
+      </c>
+      <c r="E155" s="53">
+        <v>7215757.0483049117</v>
+      </c>
+      <c r="F155" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D156" s="53">
+        <v>3922909.4046901651</v>
+      </c>
+      <c r="E156" s="53">
+        <v>7069776.7659810474</v>
+      </c>
+      <c r="F156" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C157" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D157" s="53">
+        <v>3922909.4046901651</v>
+      </c>
+      <c r="E157" s="53">
+        <v>7069776.7659810474</v>
+      </c>
+      <c r="F157" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B158" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D158" s="53">
+        <v>3776566.257003834</v>
+      </c>
+      <c r="E158" s="53">
+        <v>6806040.5236563114</v>
+      </c>
+      <c r="F158" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D159" s="53">
+        <v>5883698.2348961169</v>
+      </c>
+      <c r="E159" s="53">
+        <v>10603465.129574561</v>
+      </c>
+      <c r="F159" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D160" s="53">
+        <v>4143320.1012423248</v>
+      </c>
+      <c r="E160" s="53">
+        <v>7466995.8349697776</v>
+      </c>
+      <c r="F160" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="D161" s="53">
+        <v>3922909.4046901651</v>
+      </c>
+      <c r="E161" s="53">
+        <v>7069776.7659810474</v>
+      </c>
+      <c r="F161" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D162" s="53">
+        <v>4565525.0515592024</v>
+      </c>
+      <c r="E162" s="53">
+        <v>8227883.8495295215</v>
+      </c>
+      <c r="F162" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D163" s="53">
+        <v>3922909.4046901651</v>
+      </c>
+      <c r="E163" s="53">
+        <v>7069776.7659810474</v>
+      </c>
+      <c r="F163" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D164" s="53">
+        <v>3573281.5308429417</v>
+      </c>
+      <c r="E164" s="53">
+        <v>6439685.4831415266</v>
+      </c>
+      <c r="F164" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D165" s="53">
+        <v>3024063.47206337</v>
+      </c>
+      <c r="E165" s="53">
+        <v>5449897.3766981913</v>
+      </c>
+      <c r="F165" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C166" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D166" s="53">
+        <v>3069305.6355737308</v>
+      </c>
+      <c r="E166" s="53">
+        <v>5531431.7593290666</v>
+      </c>
+      <c r="F166" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C167" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D167" s="53">
+        <v>4472965.2073965073</v>
+      </c>
+      <c r="E167" s="53">
+        <v>8061074.6351892957</v>
+      </c>
+      <c r="F167" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C168" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D168" s="53">
+        <v>739703.91058245453</v>
+      </c>
+      <c r="E168" s="53">
+        <v>1167866.8059375826</v>
+      </c>
+      <c r="F168" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C169" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D169" s="53">
+        <v>383306.52303690225</v>
+      </c>
+      <c r="E169" s="53">
+        <v>605175.87963224342</v>
+      </c>
+      <c r="F169" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C170" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D170" s="53">
+        <v>789843.56394229853</v>
+      </c>
+      <c r="E170" s="53">
+        <v>1247028.8003281087</v>
+      </c>
+      <c r="F170" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C171" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D171" s="53">
+        <v>1320535.6338163763</v>
+      </c>
+      <c r="E171" s="53">
+        <v>2084901.4189711823</v>
+      </c>
+      <c r="F171" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C172" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D172" s="53">
+        <v>492855.48848924326</v>
+      </c>
+      <c r="E172" s="53">
+        <v>778135.0847226308</v>
+      </c>
+      <c r="F172" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C173" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D173" s="53">
+        <v>563274.51258089743</v>
+      </c>
+      <c r="E173" s="53">
+        <v>889314.76022063452</v>
+      </c>
+      <c r="F173" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C174" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D174" s="53">
+        <v>294143.46643357974</v>
+      </c>
+      <c r="E174" s="53">
+        <v>464402.56123656267</v>
+      </c>
+      <c r="F174" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C175" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D175" s="53">
+        <v>268888.60431065899</v>
+      </c>
+      <c r="E175" s="53">
+        <v>424529.42451261985</v>
+      </c>
+      <c r="F175" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D176" s="53">
+        <v>1063736.5733069701</v>
+      </c>
+      <c r="E176" s="53">
+        <v>1679459.3302187508</v>
+      </c>
+      <c r="F176" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C177" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D177" s="53">
+        <v>2022066.5731762508</v>
+      </c>
+      <c r="E177" s="53">
+        <v>3644121.6973343417</v>
+      </c>
+      <c r="F177" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D178" s="53">
+        <v>1341534.7005376401</v>
+      </c>
+      <c r="E178" s="53">
+        <v>2118055.3777762963</v>
+      </c>
+      <c r="F178" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C179" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D179" s="53">
+        <v>888974.52164897765</v>
+      </c>
+      <c r="E179" s="53">
+        <v>1403539.7411115258</v>
+      </c>
+      <c r="F179" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C180" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D180" s="53">
+        <v>2252772.2364681857</v>
+      </c>
+      <c r="E180" s="53">
+        <v>4059894.1177148693</v>
+      </c>
+      <c r="F180" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C181" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D181" s="53">
+        <v>2252772.2364681857</v>
+      </c>
+      <c r="E181" s="53">
+        <v>4059894.1177148693</v>
+      </c>
+      <c r="F181" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C182" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" s="53">
+        <v>2290629.7022343152</v>
+      </c>
+      <c r="E182" s="53">
+        <v>4128119.9685520865</v>
+      </c>
+      <c r="F182" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C183" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" s="53">
+        <v>2072598.8732683724</v>
+      </c>
+      <c r="E183" s="53">
+        <v>3735189.8419863032</v>
+      </c>
+      <c r="F183" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C184" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D184" s="53">
+        <v>548519.01419235638</v>
+      </c>
+      <c r="E184" s="53">
+        <v>866018.33508821437</v>
+      </c>
+      <c r="F184" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="C185" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D185" s="53">
+        <v>1242522.1934818879</v>
+      </c>
+      <c r="E185" s="53">
+        <v>1961731.4504470199</v>
+      </c>
+      <c r="F185" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C186" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D186" s="53">
+        <v>297245.60100814991</v>
+      </c>
+      <c r="E186" s="53">
+        <v>469300.3047057559</v>
+      </c>
+      <c r="F186" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C187" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D187" s="53">
+        <v>5465705.7159036426</v>
+      </c>
+      <c r="E187" s="53">
+        <v>9850168.6615006868</v>
+      </c>
+      <c r="F187" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B188" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C188" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D188" s="53">
+        <v>1438770.0188601092</v>
+      </c>
+      <c r="E188" s="53">
+        <v>2364280.0181682934</v>
+      </c>
+      <c r="F188" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B189" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C189" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D189" s="53">
+        <v>811373.47388421791</v>
+      </c>
+      <c r="E189" s="53">
+        <v>1281020.8703932706</v>
+      </c>
+      <c r="F189" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B190" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C190" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D190" s="53">
+        <v>854153.69495848124</v>
+      </c>
+      <c r="E190" s="53">
+        <v>1348563.5715045342</v>
+      </c>
+      <c r="F190" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B191" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C191" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D191" s="53">
+        <v>1476231.2371073815</v>
+      </c>
+      <c r="E191" s="53">
+        <v>2330718.3253206625</v>
+      </c>
+      <c r="F191" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C192" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D192" s="53">
+        <v>1438770.0188601092</v>
+      </c>
+      <c r="E192" s="53">
+        <v>2364280.0181682934</v>
+      </c>
+      <c r="F192" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C193" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D193" s="53">
+        <v>4113217.0745374002</v>
+      </c>
+      <c r="E193" s="53">
+        <v>7412744.8551919274</v>
+      </c>
+      <c r="F193" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C194" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D194" s="53">
+        <v>1570789.3921099347</v>
+      </c>
+      <c r="E194" s="53">
+        <v>2480009.5875112698</v>
+      </c>
+      <c r="F194" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C195" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D195" s="53">
+        <v>477723.8892442502</v>
+      </c>
+      <c r="E195" s="53">
+        <v>754244.8602339396</v>
+      </c>
+      <c r="F195" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C196" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D196" s="53">
+        <v>4437941.8024825538</v>
+      </c>
+      <c r="E196" s="53">
+        <v>7997956.2633935623</v>
+      </c>
+      <c r="F196" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B197" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C197" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D197" s="53">
+        <v>1089177.9434176167</v>
+      </c>
+      <c r="E197" s="53">
+        <v>1719626.9313693263</v>
+      </c>
+      <c r="F197" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B198" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C198" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D198" s="53">
+        <v>2896953.8541976949</v>
+      </c>
+      <c r="E198" s="53">
+        <v>4573797.9700369593</v>
+      </c>
+      <c r="F198" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C199" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D199" s="53">
+        <v>1438354.869045177</v>
+      </c>
+      <c r="E199" s="53">
+        <v>2270917.9749960415</v>
+      </c>
+      <c r="F199" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C200" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D200" s="53">
+        <v>4644216.203851915</v>
+      </c>
+      <c r="E200" s="53">
+        <v>8369699.2275502719</v>
+      </c>
+      <c r="F200" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B201" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C201" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D201" s="53">
+        <v>6674626.9087233488</v>
+      </c>
+      <c r="E201" s="53">
+        <v>12028858.526395462</v>
+      </c>
+      <c r="F201" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B202" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C202" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D202" s="53">
+        <v>1438770.0188601092</v>
+      </c>
+      <c r="E202" s="53">
+        <v>2364280.0181682934</v>
+      </c>
+      <c r="F202" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C203" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="D203" s="53">
+        <v>10359736.034941908</v>
+      </c>
+      <c r="E203" s="53">
+        <v>18670077.120303411</v>
+      </c>
+      <c r="F203" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C204" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D204" s="53">
+        <v>923886.64128603728</v>
+      </c>
+      <c r="E204" s="53">
+        <v>1458660.0467713112</v>
+      </c>
+      <c r="F204" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C205" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D205" s="53">
+        <v>1065261.0054039159</v>
+      </c>
+      <c r="E205" s="53">
+        <v>1681866.1495128751</v>
+      </c>
+      <c r="F205" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C206" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="D206" s="53">
+        <v>4844691.8634169903</v>
+      </c>
+      <c r="E206" s="53">
+        <v>8730991.8330953736</v>
+      </c>
+      <c r="F206" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C207" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D207" s="53">
+        <v>4156948.7181974985</v>
+      </c>
+      <c r="E207" s="53">
+        <v>7491557.0138200829</v>
+      </c>
+      <c r="F207" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C208" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D208" s="53">
+        <v>184230.94059927965</v>
+      </c>
+      <c r="E208" s="53">
+        <v>290869.35606861807</v>
+      </c>
+      <c r="F208" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B209" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C209" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D209" s="53">
+        <v>1008892.3299135733</v>
+      </c>
+      <c r="E209" s="53">
+        <v>1592869.5874317016</v>
+      </c>
+      <c r="F209" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C210" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D210" s="53">
+        <v>184230.94059927965</v>
+      </c>
+      <c r="E210" s="53">
+        <v>290869.35606861807</v>
+      </c>
+      <c r="F210" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C211" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D211" s="53">
+        <v>383007.7293688652</v>
+      </c>
+      <c r="E211" s="53">
+        <v>604704.13519270136</v>
+      </c>
+      <c r="F211" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B212" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C212" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D212" s="53">
+        <v>184230.94059927965</v>
+      </c>
+      <c r="E212" s="53">
+        <v>290869.35606861807</v>
+      </c>
+      <c r="F212" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B213" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C213" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="D213" s="53">
+        <v>185090.18082791899</v>
+      </c>
+      <c r="E213" s="53">
+        <v>292225.95041264937</v>
+      </c>
+      <c r="F213" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C214" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="D214" s="53">
+        <v>127900.39408823143</v>
+      </c>
+      <c r="E214" s="53">
+        <v>201932.99316798808</v>
+      </c>
+      <c r="F214" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C215" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D215" s="53">
+        <v>344914.10488048894</v>
+      </c>
+      <c r="E215" s="53">
+        <v>544560.77388101805</v>
+      </c>
+      <c r="F215" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B216" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C216" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D216" s="53">
+        <v>228005.7420287666</v>
+      </c>
+      <c r="E216" s="53">
+        <v>359982.33059075038</v>
+      </c>
+      <c r="F216" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B217" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C217" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="D217" s="53">
+        <v>101596.86109153602</v>
+      </c>
+      <c r="E217" s="53">
+        <v>160404.18329386457</v>
+      </c>
+      <c r="F217" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B218" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C218" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D218" s="53">
+        <v>92023.793505759255</v>
+      </c>
+      <c r="E218" s="53">
+        <v>145289.93595181339</v>
+      </c>
+      <c r="F218" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C219" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D219" s="53">
+        <v>593882.72446467215</v>
+      </c>
+      <c r="E219" s="53">
+        <v>937639.92673221591</v>
+      </c>
+      <c r="F219" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C220" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D220" s="53">
+        <v>43493.682713869217</v>
+      </c>
+      <c r="E220" s="53">
+        <v>68669.13582964892</v>
+      </c>
+      <c r="F220" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C221" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="D221" s="53">
+        <v>399338.45659670484</v>
+      </c>
+      <c r="E221" s="53">
+        <v>630487.57904552261</v>
+      </c>
+      <c r="F221" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C222" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D222" s="53">
+        <v>422405.32147751201</v>
+      </c>
+      <c r="E222" s="53">
+        <v>673288.08424335392</v>
+      </c>
+      <c r="F222" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B223" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C223" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="D223" s="53">
+        <v>1444374.2460897963</v>
+      </c>
+      <c r="E223" s="53">
+        <v>2280421.5487128529</v>
+      </c>
+      <c r="F223" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B224" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C224" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D224" s="53">
+        <v>422405.32147751201</v>
+      </c>
+      <c r="E224" s="53">
+        <v>673288.08424335392</v>
+      </c>
+      <c r="F224" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C225" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D225" s="53">
+        <v>3859090.3562601944</v>
+      </c>
+      <c r="E225" s="53">
+        <v>6954763.5502086449</v>
+      </c>
+      <c r="F225" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C226" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="D226" s="53">
+        <v>33406.957592748324</v>
+      </c>
+      <c r="E226" s="53">
+        <v>52743.910504967178</v>
+      </c>
+      <c r="F226" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C227" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D227" s="53">
+        <v>154689.80960651441</v>
+      </c>
+      <c r="E227" s="53">
+        <v>244228.92899673941</v>
+      </c>
+      <c r="F227" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C228" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D228" s="53">
+        <v>207367.71829098687</v>
+      </c>
+      <c r="E228" s="53">
+        <v>327398.39731868467</v>
+      </c>
+      <c r="F228" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C229" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D229" s="53">
+        <v>210159.99848557747</v>
+      </c>
+      <c r="E229" s="53">
+        <v>331806.93336329132</v>
+      </c>
+      <c r="F229" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B230" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C230" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D230" s="53">
+        <v>71123.902062450899</v>
+      </c>
+      <c r="E230" s="53">
+        <v>112292.55806162581</v>
+      </c>
+      <c r="F230" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B231" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C231" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D231" s="53">
+        <v>1366688.3023500459</v>
+      </c>
+      <c r="E231" s="53">
+        <v>2157768.64167313</v>
+      </c>
+      <c r="F231" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B232" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C232" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D232" s="53">
+        <v>75115.670396177593</v>
+      </c>
+      <c r="E232" s="53">
+        <v>118594.88209595648</v>
+      </c>
+      <c r="F232" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B233" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C233" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="D233" s="53">
+        <v>166510.36196835179</v>
+      </c>
+      <c r="E233" s="53">
+        <v>262891.57297325542</v>
+      </c>
+      <c r="F233" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B234" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C234" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="D234" s="53">
+        <v>35781.469085008728</v>
+      </c>
+      <c r="E234" s="53">
+        <v>56492.860743643956</v>
+      </c>
+      <c r="F234" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C235" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D235" s="53">
+        <v>123990.22244979367</v>
+      </c>
+      <c r="E235" s="53">
+        <v>195759.49645299272</v>
+      </c>
+      <c r="F235" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C236" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D236" s="53">
+        <v>72253.073862661709</v>
+      </c>
+      <c r="E236" s="53">
+        <v>114075.32849828419</v>
+      </c>
+      <c r="F236" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C237" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="D237" s="53">
+        <v>55196.548706680755</v>
+      </c>
+      <c r="E237" s="53">
+        <v>87145.973023301834</v>
+      </c>
+      <c r="F237" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C238" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="D238" s="53">
+        <v>70966.106893791555</v>
+      </c>
+      <c r="E238" s="53">
+        <v>112043.42629825651</v>
+      </c>
+      <c r="F238" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C239" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D239" s="53">
+        <v>109070.52910370006</v>
+      </c>
+      <c r="E239" s="53">
+        <v>172261.80080178866</v>
+      </c>
+      <c r="F239" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C240" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D240" s="53">
+        <v>45402.756674280492</v>
+      </c>
+      <c r="E240" s="53">
+        <v>71683.239279079862</v>
+      </c>
+      <c r="F240" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B241" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C241" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="D241" s="53">
+        <v>2385388.2862767414</v>
+      </c>
+      <c r="E241" s="53">
+        <v>4298891.7011440909</v>
+      </c>
+      <c r="F241" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B242" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C242" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D242" s="53">
+        <v>85808.08086343664</v>
+      </c>
+      <c r="E242" s="53">
+        <v>135476.38168183633</v>
+      </c>
+      <c r="F242" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B243" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C243" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D243" s="53">
+        <v>250533.04465759441</v>
+      </c>
+      <c r="E243" s="53">
+        <v>395549.11426072224</v>
+      </c>
+      <c r="F243" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B244" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C244" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="D244" s="53">
+        <v>75021.541923818819</v>
+      </c>
+      <c r="E244" s="53">
+        <v>118446.26922966124</v>
+      </c>
+      <c r="F244" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B245" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C245" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="D245" s="53">
+        <v>580508.4879915457</v>
+      </c>
+      <c r="E245" s="53">
+        <v>916524.27950057492</v>
+      </c>
+      <c r="F245" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B246" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C246" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D246" s="53">
+        <v>1006311.0478777629</v>
+      </c>
+      <c r="E246" s="53">
+        <v>1588794.1816331674</v>
+      </c>
+      <c r="F246" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B247" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C247" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="D247" s="53">
+        <v>648579.67861983448</v>
+      </c>
+      <c r="E247" s="53">
+        <v>1023997.1248351759</v>
+      </c>
+      <c r="F247" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B248" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C248" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="D248" s="53">
+        <v>132591.7837206382</v>
+      </c>
+      <c r="E248" s="53">
+        <v>209339.90037372854</v>
+      </c>
+      <c r="F248" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B249" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C249" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D249" s="53">
+        <v>1110340.9309328382</v>
+      </c>
+      <c r="E249" s="53">
+        <v>1753039.6932594688</v>
+      </c>
+      <c r="F249" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B250" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C250" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="D250" s="53">
+        <v>64806.304549582994</v>
+      </c>
+      <c r="E250" s="53">
+        <v>102318.14489035762</v>
+      </c>
+      <c r="F250" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B251" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C251" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D251" s="53">
+        <v>72194.899055286514</v>
+      </c>
+      <c r="E251" s="53">
+        <v>113983.48036080203</v>
+      </c>
+      <c r="F251" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C252" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D252" s="53">
+        <v>129365.28205157268</v>
+      </c>
+      <c r="E252" s="53">
+        <v>204245.80239114957</v>
+      </c>
+      <c r="F252" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B253" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C253" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="D253" s="53">
+        <v>171672.8136233027</v>
+      </c>
+      <c r="E253" s="53">
+        <v>271042.20708349993</v>
+      </c>
+      <c r="F253" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B254" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C254" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D254" s="53">
+        <v>359222.60999609315</v>
+      </c>
+      <c r="E254" s="53">
+        <v>567151.47257550561</v>
+      </c>
+      <c r="F254" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B255" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C255" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D255" s="53">
+        <v>39897.349379017083</v>
+      </c>
+      <c r="E255" s="53">
+        <v>62991.136477782049</v>
+      </c>
+      <c r="F255" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B256" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C256" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="D256" s="53">
+        <v>32848.279257748422</v>
+      </c>
+      <c r="E256" s="53">
+        <v>51861.852328298766</v>
+      </c>
+      <c r="F256" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B257" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C257" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="D257" s="53">
+        <v>84527.668484893074</v>
+      </c>
+      <c r="E257" s="53">
+        <v>133454.82806636993</v>
+      </c>
+      <c r="F257" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B258" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C258" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D258" s="53">
+        <v>71090.741358645886</v>
+      </c>
+      <c r="E258" s="53">
+        <v>112240.20294401549</v>
+      </c>
+      <c r="F258" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B259" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C259" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D259" s="53">
+        <v>61110.864051678742</v>
+      </c>
+      <c r="E259" s="53">
+        <v>96483.672165424243</v>
+      </c>
+      <c r="F259" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B260" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C260" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="D260" s="53">
+        <v>195374.66063336004</v>
+      </c>
+      <c r="E260" s="53">
+        <v>308463.39678717585</v>
+      </c>
+      <c r="F260" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B261" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C261" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="D261" s="53">
+        <v>92572.516371586345</v>
+      </c>
+      <c r="E261" s="53">
+        <v>146156.27613400036</v>
+      </c>
+      <c r="F261" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B262" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C262" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="D262" s="53">
+        <v>168515.40309331808</v>
+      </c>
+      <c r="E262" s="53">
+        <v>266057.19227158243</v>
+      </c>
+      <c r="F262" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B263" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C263" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="D263" s="53">
+        <v>110897.27724608926</v>
+      </c>
+      <c r="E263" s="53">
+        <v>175087.96034697728</v>
+      </c>
+      <c r="F263" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B264" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C264" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D264" s="53">
+        <v>157354.80036898993</v>
+      </c>
+      <c r="E264" s="53">
+        <v>248436.49665333683</v>
+      </c>
+      <c r="F264" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B265" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C265" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="D265" s="53">
+        <v>99629.289234785028</v>
+      </c>
+      <c r="E265" s="53">
+        <v>157297.72160436626</v>
+      </c>
+      <c r="F265" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B266" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C266" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="D266" s="53">
+        <v>431721.51813676796</v>
+      </c>
+      <c r="E266" s="53">
+        <v>681614.93163379573</v>
+      </c>
+      <c r="F266" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B267" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C267" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D267" s="53">
+        <v>77189.021200251751</v>
+      </c>
+      <c r="E267" s="53">
+        <v>121868.35077241054</v>
+      </c>
+      <c r="F267" s="54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B268" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="C268" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D268" s="58">
+        <v>213146.40164271297</v>
+      </c>
+      <c r="E268" s="58">
+        <v>336521.95658605563</v>
+      </c>
+      <c r="F268" s="59" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B11:D11"/>
+  <mergeCells count="12">
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="25200" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="25200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1255,27 +1255,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1288,14 +1267,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1334,6 +1307,33 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1592,11 +1592,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41561472"/>
-        <c:axId val="41579648"/>
+        <c:axId val="47559808"/>
+        <c:axId val="47561728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41561472"/>
+        <c:axId val="47559808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,7 +1606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41579648"/>
+        <c:crossAx val="47561728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1614,7 +1614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41579648"/>
+        <c:axId val="47561728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41561472"/>
+        <c:crossAx val="47559808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1699,194 +1699,6 @@
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
               <a:t> Per 100,000</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Detailed Results'!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avoided Deaths (% Population)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Detailed Results'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.72804187966218892</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25699347350814283</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33219052803782279</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5103699585040937</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0270301601888976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65306437227947778</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1095782351744758</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredCategoryTitle>
-                <c15:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Detailed Results'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="0">
-                        <c:v>South Asia</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Aland</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Albania</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Algeria</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>American Samoa</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Andorra</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>Angola</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:cat>
-              </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B595-4FD2-8708-848E74F2263B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="42191104"/>
-        <c:axId val="42201088"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="42191104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42201088"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="42201088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42191104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Economic</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Benefits (2011 USD)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2001,11 +1813,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="42226048"/>
-        <c:axId val="42227584"/>
+        <c:axId val="48306432"/>
+        <c:axId val="48349184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42226048"/>
+        <c:axId val="48306432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +1827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42227584"/>
+        <c:crossAx val="48349184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +1835,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42227584"/>
+        <c:axId val="48349184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,9 +1846,201 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42226048"/>
+        <c:crossAx val="48306432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Economic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Benefits (2011 USD)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed Results'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avoided Deaths (% Population)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Detailed Results'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.72804187966218892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25699347350814283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33219052803782279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5103699585040937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0270301601888976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65306437227947778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1095782351744758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Detailed Results'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>South Asia</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Aland</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Albania</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Algeria</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>American Samoa</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Andorra</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Angola</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B595-4FD2-8708-848E74F2263B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="49137152"/>
+        <c:axId val="49139072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="49137152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49139072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49139072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49137152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2061,7 +2065,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart4"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="146" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2222,7 +2226,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8658311" cy="6281351"/>
+    <xdr:ext cx="8670360" cy="6295634"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2604,16 +2608,16 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="32" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
       <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.35">
@@ -2803,16 +2807,16 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2909,13 +2913,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="30"/>
@@ -2925,13 +2929,13 @@
     </row>
     <row r="6" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="30"/>
@@ -2949,13 +2953,13 @@
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="30"/>
@@ -2965,13 +2969,13 @@
     </row>
     <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="30"/>
@@ -2989,13 +2993,13 @@
       <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
@@ -3006,13 +3010,13 @@
     </row>
     <row r="16" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
@@ -3036,13 +3040,13 @@
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="29"/>
@@ -3060,13 +3064,13 @@
       <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" s="30"/>
@@ -3084,13 +3088,13 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" s="30"/>
@@ -3108,247 +3112,247 @@
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="33" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="35">
         <v>10</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="35">
         <v>12</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="35">
         <v>15</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="35">
         <v>25</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="35">
         <v>15</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="35">
         <v>15</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="35">
         <v>35</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="35">
         <v>35</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="35">
         <v>40</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="35">
         <v>12</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="35">
         <v>25</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="35">
         <v>35</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="35">
         <v>35</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="35">
         <v>35</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="35">
         <v>75</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="35">
         <v>75</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="35">
         <v>60</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="35">
         <v>37.5</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E47" s="30"/>
@@ -3377,3653 +3381,3648 @@
       <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="44"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="36"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="44"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="44"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="46"/>
+      <c r="B57" s="37"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="52" t="s">
+      <c r="C59" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="53">
+      <c r="D59" s="44">
         <v>3290305.6926085213</v>
       </c>
-      <c r="E59" s="53">
+      <c r="E59" s="44">
         <v>5929712.9601737866</v>
       </c>
-      <c r="F59" s="54" t="s">
+      <c r="F59" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="44">
         <v>6547267.5477391807</v>
       </c>
-      <c r="E60" s="53">
+      <c r="E60" s="44">
         <v>11799334.426211156</v>
       </c>
-      <c r="F60" s="54" t="s">
+      <c r="F60" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C61" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="53">
+      <c r="D61" s="44">
         <v>6555587.9397879746</v>
       </c>
-      <c r="E61" s="53">
+      <c r="E61" s="44">
         <v>11814329.244679328</v>
       </c>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="53">
+      <c r="D62" s="44">
         <v>3628786.8284267276</v>
       </c>
-      <c r="E62" s="53">
+      <c r="E62" s="44">
         <v>6539715.8490677839</v>
       </c>
-      <c r="F62" s="54" t="s">
+      <c r="F62" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="53">
+      <c r="D63" s="44">
         <v>124821.91185661747</v>
       </c>
-      <c r="E63" s="53">
+      <c r="E63" s="44">
         <v>197072.59273000804</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="53">
+      <c r="D64" s="44">
         <v>804636.9406998991</v>
       </c>
-      <c r="E64" s="53">
+      <c r="E64" s="44">
         <v>1270385.0289700886</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="F64" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="52" t="s">
+      <c r="C65" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="53">
+      <c r="D65" s="44">
         <v>478722.23834219226</v>
       </c>
-      <c r="E65" s="53">
+      <c r="E65" s="44">
         <v>755821.08384928619</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="53">
+      <c r="D66" s="44">
         <v>586573.81323068135</v>
       </c>
-      <c r="E66" s="53">
+      <c r="E66" s="44">
         <v>926100.39761035226</v>
       </c>
-      <c r="F66" s="54" t="s">
+      <c r="F66" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="52" t="s">
+      <c r="C67" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="53">
+      <c r="D67" s="44">
         <v>281841.99712314445</v>
       </c>
-      <c r="E67" s="53">
+      <c r="E67" s="44">
         <v>444980.63110156474</v>
       </c>
-      <c r="F67" s="54" t="s">
+      <c r="F67" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="44">
         <v>1403701.1027275496</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="44">
         <v>2216205.5653357934</v>
       </c>
-      <c r="F68" s="54" t="s">
+      <c r="F68" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="53">
+      <c r="D69" s="44">
         <v>1797585.68467049</v>
       </c>
-      <c r="E69" s="53">
+      <c r="E69" s="44">
         <v>2838082.402866025</v>
       </c>
-      <c r="F69" s="54" t="s">
+      <c r="F69" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="44">
         <v>428893.59441180492</v>
       </c>
-      <c r="E70" s="53">
+      <c r="E70" s="44">
         <v>677150.12051023834</v>
       </c>
-      <c r="F70" s="54" t="s">
+      <c r="F70" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="53">
+      <c r="D71" s="44">
         <v>173264.79370933332</v>
       </c>
-      <c r="E71" s="53">
+      <c r="E71" s="44">
         <v>273555.6731766084</v>
       </c>
-      <c r="F71" s="54" t="s">
+      <c r="F71" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D72" s="53">
+      <c r="D72" s="44">
         <v>747033.13453817845</v>
       </c>
-      <c r="E72" s="53">
+      <c r="E72" s="44">
         <v>1179438.4053961178</v>
       </c>
-      <c r="F72" s="54" t="s">
+      <c r="F72" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="44">
         <v>815731.31455121911</v>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="44">
         <v>1306577.4321395389</v>
       </c>
-      <c r="F73" s="54" t="s">
+      <c r="F73" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="53">
+      <c r="D74" s="44">
         <v>4745125.7521404801</v>
       </c>
-      <c r="E74" s="53">
+      <c r="E74" s="44">
         <v>8551556.085907286</v>
       </c>
-      <c r="F74" s="54" t="s">
+      <c r="F74" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="53">
+      <c r="D75" s="44">
         <v>4047079.9676512373</v>
       </c>
-      <c r="E75" s="53">
+      <c r="E75" s="44">
         <v>7293554.0879838001</v>
       </c>
-      <c r="F75" s="54" t="s">
+      <c r="F75" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="53">
+      <c r="D76" s="44">
         <v>93102.754086549379</v>
       </c>
-      <c r="E76" s="53">
+      <c r="E76" s="44">
         <v>146993.43140342945</v>
       </c>
-      <c r="F76" s="54" t="s">
+      <c r="F76" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="52" t="s">
+      <c r="C77" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D77" s="53">
+      <c r="D77" s="44">
         <v>303618.25518799538</v>
       </c>
-      <c r="E77" s="53">
+      <c r="E77" s="44">
         <v>479361.6430005618</v>
       </c>
-      <c r="F77" s="54" t="s">
+      <c r="F77" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="53">
+      <c r="D78" s="44">
         <v>115976.61792497299</v>
       </c>
-      <c r="E78" s="53">
+      <c r="E78" s="44">
         <v>183107.37634580012</v>
       </c>
-      <c r="F78" s="54" t="s">
+      <c r="F78" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="51" t="s">
+      <c r="B79" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C79" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="53">
+      <c r="D79" s="44">
         <v>290873.95944608259</v>
       </c>
-      <c r="E79" s="53">
+      <c r="E79" s="44">
         <v>459240.56516238733</v>
       </c>
-      <c r="F79" s="54" t="s">
+      <c r="F79" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C80" s="52" t="s">
+      <c r="C80" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="53">
+      <c r="D80" s="44">
         <v>476752.16253127955</v>
       </c>
-      <c r="E80" s="53">
+      <c r="E80" s="44">
         <v>752710.66884156491</v>
       </c>
-      <c r="F80" s="54" t="s">
+      <c r="F80" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="51" t="s">
+      <c r="B81" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="53">
+      <c r="D81" s="44">
         <v>148330.44029253119</v>
       </c>
-      <c r="E81" s="53">
+      <c r="E81" s="44">
         <v>234188.56524815375</v>
       </c>
-      <c r="F81" s="54" t="s">
+      <c r="F81" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="D82" s="53">
+      <c r="D82" s="44">
         <v>1963987.8818500957</v>
       </c>
-      <c r="E82" s="53">
+      <c r="E82" s="44">
         <v>3100803.202014049</v>
       </c>
-      <c r="F82" s="54" t="s">
+      <c r="F82" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="53">
+      <c r="D83" s="44">
         <v>403016.36446263507</v>
       </c>
-      <c r="E83" s="53">
+      <c r="E83" s="44">
         <v>636294.37072320166</v>
       </c>
-      <c r="F83" s="54" t="s">
+      <c r="F83" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="51" t="s">
+      <c r="B84" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="52" t="s">
+      <c r="C84" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="53">
+      <c r="D84" s="44">
         <v>306347.86353010684</v>
       </c>
-      <c r="E84" s="53">
+      <c r="E84" s="44">
         <v>483671.2308374737</v>
       </c>
-      <c r="F84" s="54" t="s">
+      <c r="F84" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="51" t="s">
+      <c r="B85" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C85" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D85" s="53">
+      <c r="D85" s="44">
         <v>663623.98318253644</v>
       </c>
-      <c r="E85" s="53">
+      <c r="E85" s="44">
         <v>1047749.525851091</v>
       </c>
-      <c r="F85" s="54" t="s">
+      <c r="F85" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="53">
+      <c r="D86" s="44">
         <v>152842.87741943006</v>
       </c>
-      <c r="E86" s="53">
+      <c r="E86" s="44">
         <v>241312.93685007736</v>
       </c>
-      <c r="F86" s="54" t="s">
+      <c r="F86" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C87" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D87" s="53">
+      <c r="D87" s="44">
         <v>851323.61181139515</v>
       </c>
-      <c r="E87" s="53">
+      <c r="E87" s="44">
         <v>1344095.3510203103</v>
       </c>
-      <c r="F87" s="54" t="s">
+      <c r="F87" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D88" s="53">
+      <c r="D88" s="44">
         <v>644860.03657322074</v>
       </c>
-      <c r="E88" s="53">
+      <c r="E88" s="44">
         <v>1018124.4419764503</v>
       </c>
-      <c r="F88" s="54" t="s">
+      <c r="F88" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="52" t="s">
+      <c r="C89" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="53">
+      <c r="D89" s="44">
         <v>265743.80870687531</v>
       </c>
-      <c r="E89" s="53">
+      <c r="E89" s="44">
         <v>419564.32652601384</v>
       </c>
-      <c r="F89" s="54" t="s">
+      <c r="F89" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="52" t="s">
+      <c r="C90" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="53">
+      <c r="D90" s="44">
         <v>1157696.2708244091</v>
       </c>
-      <c r="E90" s="53">
+      <c r="E90" s="44">
         <v>1827805.7297127701</v>
       </c>
-      <c r="F90" s="54" t="s">
+      <c r="F90" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="52" t="s">
+      <c r="C91" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="D91" s="53">
+      <c r="D91" s="44">
         <v>108249.98001629034</v>
       </c>
-      <c r="E91" s="53">
+      <c r="E91" s="44">
         <v>170908.32777250808</v>
       </c>
-      <c r="F91" s="54" t="s">
+      <c r="F91" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="D92" s="53">
+      <c r="D92" s="44">
         <v>656332.57853435271</v>
       </c>
-      <c r="E92" s="53">
+      <c r="E92" s="44">
         <v>1036237.6366540103</v>
       </c>
-      <c r="F92" s="54" t="s">
+      <c r="F92" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C93" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D93" s="53">
+      <c r="D93" s="44">
         <v>3409425.3195953574</v>
       </c>
-      <c r="E93" s="53">
+      <c r="E93" s="44">
         <v>6144387.6019682158</v>
       </c>
-      <c r="F93" s="54" t="s">
+      <c r="F93" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="51" t="s">
+      <c r="B94" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C94" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="44">
         <v>4205013.4349393807</v>
       </c>
-      <c r="E94" s="53">
+      <c r="E94" s="44">
         <v>7578178.1367241591</v>
       </c>
-      <c r="F94" s="54" t="s">
+      <c r="F94" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D95" s="53">
+      <c r="D95" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E95" s="53">
+      <c r="E95" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F95" s="54" t="s">
+      <c r="F95" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="51" t="s">
+      <c r="B96" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="C96" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D96" s="53">
+      <c r="D96" s="44">
         <v>916200.07669429597</v>
       </c>
-      <c r="E96" s="53">
+      <c r="E96" s="44">
         <v>1446524.2671573833</v>
       </c>
-      <c r="F96" s="54" t="s">
+      <c r="F96" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="51" t="s">
+      <c r="B97" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D97" s="53">
+      <c r="D97" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E97" s="53">
+      <c r="E97" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F97" s="54" t="s">
+      <c r="F97" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="51" t="s">
+      <c r="B98" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C98" s="52" t="s">
+      <c r="C98" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D98" s="53">
+      <c r="D98" s="44">
         <v>2404466.7678753529</v>
       </c>
-      <c r="E98" s="53">
+      <c r="E98" s="44">
         <v>4333274.5002408018</v>
       </c>
-      <c r="F98" s="54" t="s">
+      <c r="F98" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="C99" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D99" s="53">
+      <c r="D99" s="44">
         <v>2619733.9859117153</v>
       </c>
-      <c r="E99" s="53">
+      <c r="E99" s="44">
         <v>4721224.1109892186</v>
       </c>
-      <c r="F99" s="54" t="s">
+      <c r="F99" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="51" t="s">
+      <c r="B100" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C100" s="52" t="s">
+      <c r="C100" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="53">
+      <c r="D100" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E100" s="53">
+      <c r="E100" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F100" s="54" t="s">
+      <c r="F100" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="51" t="s">
+      <c r="B101" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C101" s="52" t="s">
+      <c r="C101" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D101" s="53">
+      <c r="D101" s="44">
         <v>415474.35267603159</v>
       </c>
-      <c r="E101" s="53">
+      <c r="E101" s="44">
         <v>655963.41761485697</v>
       </c>
-      <c r="F101" s="54" t="s">
+      <c r="F101" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="51" t="s">
+      <c r="B102" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C102" s="52" t="s">
+      <c r="C102" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="53">
+      <c r="D102" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E102" s="53">
+      <c r="E102" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F102" s="54" t="s">
+      <c r="F102" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="51" t="s">
+      <c r="B103" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="52" t="s">
+      <c r="C103" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D103" s="53">
+      <c r="D103" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E103" s="53">
+      <c r="E103" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F103" s="54" t="s">
+      <c r="F103" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="51" t="s">
+      <c r="B104" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C104" s="52" t="s">
+      <c r="C104" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D104" s="53">
+      <c r="D104" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E104" s="53">
+      <c r="E104" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F104" s="54" t="s">
+      <c r="F104" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="51" t="s">
+      <c r="B105" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D105" s="53">
+      <c r="D105" s="44">
         <v>82407.866933715108</v>
       </c>
-      <c r="E105" s="53">
+      <c r="E105" s="44">
         <v>130108.02155179245</v>
       </c>
-      <c r="F105" s="54" t="s">
+      <c r="F105" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="51" t="s">
+      <c r="B106" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C106" s="52" t="s">
+      <c r="C106" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D106" s="53">
+      <c r="D106" s="44">
         <v>1902349.8331391599</v>
       </c>
-      <c r="E106" s="53">
+      <c r="E106" s="44">
         <v>3428370.9521855223</v>
       </c>
-      <c r="F106" s="54" t="s">
+      <c r="F106" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C107" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D107" s="53">
+      <c r="D107" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E107" s="53">
+      <c r="E107" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F107" s="54" t="s">
+      <c r="F107" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="52" t="s">
+      <c r="C108" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D108" s="53">
+      <c r="D108" s="44">
         <v>1669914.1284475171</v>
       </c>
-      <c r="E108" s="53">
+      <c r="E108" s="44">
         <v>2636510.7058098367</v>
       </c>
-      <c r="F108" s="54" t="s">
+      <c r="F108" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="51" t="s">
+      <c r="B109" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="52" t="s">
+      <c r="C109" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="D109" s="53">
+      <c r="D109" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E109" s="53">
+      <c r="E109" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F109" s="54" t="s">
+      <c r="F109" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="51" t="s">
+      <c r="B110" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C110" s="52" t="s">
+      <c r="C110" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="D110" s="53">
+      <c r="D110" s="44">
         <v>2396169.5156936087</v>
       </c>
-      <c r="E110" s="53">
+      <c r="E110" s="44">
         <v>4318321.3839068254</v>
       </c>
-      <c r="F110" s="54" t="s">
+      <c r="F110" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="51" t="s">
+      <c r="B111" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="52" t="s">
+      <c r="C111" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D111" s="53">
+      <c r="D111" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E111" s="53">
+      <c r="E111" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F111" s="54" t="s">
+      <c r="F111" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="51" t="s">
+      <c r="B112" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="52" t="s">
+      <c r="C112" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="D112" s="53">
+      <c r="D112" s="44">
         <v>823094.51481817348</v>
       </c>
-      <c r="E112" s="53">
+      <c r="E112" s="44">
         <v>1299526.4027312349</v>
       </c>
-      <c r="F112" s="54" t="s">
+      <c r="F112" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="51" t="s">
+      <c r="B113" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="52" t="s">
+      <c r="C113" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="D113" s="53">
+      <c r="D113" s="44">
         <v>919141.46952648577</v>
       </c>
-      <c r="E113" s="53">
+      <c r="E113" s="44">
         <v>1451168.2267238968</v>
       </c>
-      <c r="F113" s="54" t="s">
+      <c r="F113" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="51" t="s">
+      <c r="B114" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="52" t="s">
+      <c r="C114" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D114" s="53">
+      <c r="D114" s="44">
         <v>647058.9027479823</v>
       </c>
-      <c r="E114" s="53">
+      <c r="E114" s="44">
         <v>1021596.0780993166</v>
       </c>
-      <c r="F114" s="54" t="s">
+      <c r="F114" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="52" t="s">
+      <c r="C115" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="D115" s="53">
+      <c r="D115" s="44">
         <v>601966.32928652223</v>
       </c>
-      <c r="E115" s="53">
+      <c r="E115" s="44">
         <v>950402.56541601266</v>
       </c>
-      <c r="F115" s="54" t="s">
+      <c r="F115" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="52" t="s">
+      <c r="C116" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="D116" s="53">
+      <c r="D116" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E116" s="53">
+      <c r="E116" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F116" s="54" t="s">
+      <c r="F116" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="51" t="s">
+      <c r="B117" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="52" t="s">
+      <c r="C117" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D117" s="53">
+      <c r="D117" s="44">
         <v>857287.48059729743</v>
       </c>
-      <c r="E117" s="53">
+      <c r="E117" s="44">
         <v>1353511.2866269485</v>
       </c>
-      <c r="F117" s="54" t="s">
+      <c r="F117" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="51" t="s">
+      <c r="B118" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="52" t="s">
+      <c r="C118" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="D118" s="53">
+      <c r="D118" s="44">
         <v>1253016.3139902861</v>
       </c>
-      <c r="E118" s="53">
+      <c r="E118" s="44">
         <v>1978299.8838754925</v>
       </c>
-      <c r="F118" s="54" t="s">
+      <c r="F118" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="51" t="s">
+      <c r="B119" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="52" t="s">
+      <c r="C119" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="D119" s="53">
+      <c r="D119" s="44">
         <v>3244625.5067332508</v>
       </c>
-      <c r="E119" s="53">
+      <c r="E119" s="44">
         <v>5847389.1837489298</v>
       </c>
-      <c r="F119" s="54" t="s">
+      <c r="F119" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="51" t="s">
+      <c r="B120" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C120" s="52" t="s">
+      <c r="C120" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="53">
+      <c r="D120" s="44">
         <v>793510.61019327678</v>
       </c>
-      <c r="E120" s="53">
+      <c r="E120" s="44">
         <v>1252818.4433610663</v>
       </c>
-      <c r="F120" s="54" t="s">
+      <c r="F120" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="51" t="s">
+      <c r="B121" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C121" s="55" t="s">
+      <c r="C121" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D121" s="53">
+      <c r="D121" s="44">
         <v>1035569.6745922752</v>
       </c>
-      <c r="E121" s="53">
+      <c r="E121" s="44">
         <v>1666039.8450759219</v>
       </c>
-      <c r="F121" s="54" t="s">
+      <c r="F121" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="51" t="s">
+      <c r="B122" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C122" s="52" t="s">
+      <c r="C122" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="D122" s="53">
+      <c r="D122" s="44">
         <v>2350202.0151256388</v>
       </c>
-      <c r="E122" s="53">
+      <c r="E122" s="44">
         <v>4235479.815575649</v>
       </c>
-      <c r="F122" s="54" t="s">
+      <c r="F122" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="51" t="s">
+      <c r="B123" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C123" s="52" t="s">
+      <c r="C123" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D123" s="53">
+      <c r="D123" s="44">
         <v>1027700.7709394741</v>
       </c>
-      <c r="E123" s="53">
+      <c r="E123" s="44">
         <v>1622564.9204309389</v>
       </c>
-      <c r="F123" s="54" t="s">
+      <c r="F123" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="51" t="s">
+      <c r="B124" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="52" t="s">
+      <c r="C124" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="D124" s="53">
+      <c r="D124" s="44">
         <v>1178304.9300859834</v>
       </c>
-      <c r="E124" s="53">
+      <c r="E124" s="44">
         <v>1860343.3014656608</v>
       </c>
-      <c r="F124" s="54" t="s">
+      <c r="F124" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C125" s="52" t="s">
+      <c r="C125" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="D125" s="53">
+      <c r="D125" s="44">
         <v>3087250.5046681091</v>
       </c>
-      <c r="E125" s="53">
+      <c r="E125" s="44">
         <v>5563771.5881408984</v>
       </c>
-      <c r="F125" s="54" t="s">
+      <c r="F125" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="51" t="s">
+      <c r="B126" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C126" s="52" t="s">
+      <c r="C126" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="D126" s="53">
+      <c r="D126" s="44">
         <v>3111637.3731388333</v>
       </c>
-      <c r="E126" s="53">
+      <c r="E126" s="44">
         <v>5607721.0395106459</v>
       </c>
-      <c r="F126" s="54" t="s">
+      <c r="F126" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="51" t="s">
+      <c r="B127" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C127" s="52" t="s">
+      <c r="C127" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D127" s="53">
+      <c r="D127" s="44">
         <v>741743.37343016418</v>
       </c>
-      <c r="E127" s="53">
+      <c r="E127" s="44">
         <v>1171086.7712881882</v>
       </c>
-      <c r="F127" s="54" t="s">
+      <c r="F127" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="51" t="s">
+      <c r="B128" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C128" s="52" t="s">
+      <c r="C128" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D128" s="53">
+      <c r="D128" s="44">
         <v>2551374.9710193528</v>
       </c>
-      <c r="E128" s="53">
+      <c r="E128" s="44">
         <v>4598029.0724666435</v>
       </c>
-      <c r="F128" s="54" t="s">
+      <c r="F128" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="129" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B129" s="51" t="s">
+      <c r="B129" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C129" s="52" t="s">
+      <c r="C129" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="D129" s="53">
+      <c r="D129" s="44">
         <v>937494.14143374248</v>
       </c>
-      <c r="E129" s="53">
+      <c r="E129" s="44">
         <v>1480143.9777157649</v>
       </c>
-      <c r="F129" s="54" t="s">
+      <c r="F129" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C130" s="52" t="s">
+      <c r="C130" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="D130" s="53">
+      <c r="D130" s="44">
         <v>2766046.282739277</v>
       </c>
-      <c r="E130" s="53">
+      <c r="E130" s="44">
         <v>4984904.7546084961</v>
       </c>
-      <c r="F130" s="54" t="s">
+      <c r="F130" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="51" t="s">
+      <c r="B131" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C131" s="52" t="s">
+      <c r="C131" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="D131" s="53">
+      <c r="D131" s="44">
         <v>1331350.3274507178</v>
       </c>
-      <c r="E131" s="53">
+      <c r="E131" s="44">
         <v>2101975.9829031029</v>
       </c>
-      <c r="F131" s="54" t="s">
+      <c r="F131" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="51" t="s">
+      <c r="B132" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="52" t="s">
+      <c r="C132" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="D132" s="53">
+      <c r="D132" s="44">
         <v>2487356.6964748995</v>
       </c>
-      <c r="E132" s="53">
+      <c r="E132" s="44">
         <v>4482656.8159899944</v>
       </c>
-      <c r="F132" s="54" t="s">
+      <c r="F132" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="51" t="s">
+      <c r="B133" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C133" s="52" t="s">
+      <c r="C133" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D133" s="53">
+      <c r="D133" s="44">
         <v>722437.69612363353</v>
       </c>
-      <c r="E133" s="53">
+      <c r="E133" s="44">
         <v>1140606.3866776943</v>
       </c>
-      <c r="F133" s="54" t="s">
+      <c r="F133" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="51" t="s">
+      <c r="B134" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="52" t="s">
+      <c r="C134" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D134" s="53">
+      <c r="D134" s="44">
         <v>1553298.0386305354</v>
       </c>
-      <c r="E134" s="53">
+      <c r="E134" s="44">
         <v>2452393.711986932</v>
       </c>
-      <c r="F134" s="54" t="s">
+      <c r="F134" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="51" t="s">
+      <c r="B135" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C135" s="52" t="s">
+      <c r="C135" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D135" s="53">
+      <c r="D135" s="44">
         <v>2506462.0297725727</v>
       </c>
-      <c r="E135" s="53">
+      <c r="E135" s="44">
         <v>4517088.0065988647</v>
       </c>
-      <c r="F135" s="54" t="s">
+      <c r="F135" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="51" t="s">
+      <c r="B136" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C136" s="52" t="s">
+      <c r="C136" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D136" s="53">
+      <c r="D136" s="44">
         <v>2555882.3983071623</v>
       </c>
-      <c r="E136" s="53">
+      <c r="E136" s="44">
         <v>4606152.2538675703</v>
       </c>
-      <c r="F136" s="54" t="s">
+      <c r="F136" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="51" t="s">
+      <c r="B137" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C137" s="52" t="s">
+      <c r="C137" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D137" s="53">
+      <c r="D137" s="44">
         <v>1377641.6605463785</v>
       </c>
-      <c r="E137" s="53">
+      <c r="E137" s="44">
         <v>2175062.1333906041</v>
       </c>
-      <c r="F137" s="54" t="s">
+      <c r="F137" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="51" t="s">
+      <c r="B138" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C138" s="52" t="s">
+      <c r="C138" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D138" s="53">
+      <c r="D138" s="44">
         <v>598983.67173910909</v>
       </c>
-      <c r="E138" s="53">
+      <c r="E138" s="44">
         <v>945693.45587465598</v>
       </c>
-      <c r="F138" s="54" t="s">
+      <c r="F138" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="51" t="s">
+      <c r="B139" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C139" s="52" t="s">
+      <c r="C139" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D139" s="53">
+      <c r="D139" s="44">
         <v>260954.90445666699</v>
       </c>
-      <c r="E139" s="53">
+      <c r="E139" s="44">
         <v>412003.46030559909</v>
       </c>
-      <c r="F139" s="54" t="s">
+      <c r="F139" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="51" t="s">
+      <c r="B140" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C140" s="52" t="s">
+      <c r="C140" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="D140" s="53">
+      <c r="D140" s="44">
         <v>2159564.8036913252</v>
       </c>
-      <c r="E140" s="53">
+      <c r="E140" s="44">
         <v>3891917.8341242378</v>
       </c>
-      <c r="F140" s="54" t="s">
+      <c r="F140" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="51" t="s">
+      <c r="B141" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C141" s="52" t="s">
+      <c r="C141" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="D141" s="53">
+      <c r="D141" s="44">
         <v>2424524.7130455836</v>
       </c>
-      <c r="E141" s="53">
+      <c r="E141" s="44">
         <v>4369422.4659746718</v>
       </c>
-      <c r="F141" s="54" t="s">
+      <c r="F141" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="51" t="s">
+      <c r="B142" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C142" s="52" t="s">
+      <c r="C142" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="D142" s="53">
+      <c r="D142" s="44">
         <v>3507768.2638881821</v>
       </c>
-      <c r="E142" s="53">
+      <c r="E142" s="44">
         <v>6321618.9858559864</v>
       </c>
-      <c r="F142" s="54" t="s">
+      <c r="F142" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B143" s="51" t="s">
+      <c r="B143" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C143" s="52" t="s">
+      <c r="C143" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="D143" s="53">
+      <c r="D143" s="44">
         <v>4046616.3092794176</v>
       </c>
-      <c r="E143" s="53">
+      <c r="E143" s="44">
         <v>7292718.4935699906</v>
       </c>
-      <c r="F143" s="54" t="s">
+      <c r="F143" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="51" t="s">
+      <c r="B144" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C144" s="52" t="s">
+      <c r="C144" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D144" s="53">
+      <c r="D144" s="44">
         <v>4334754.4004334249</v>
       </c>
-      <c r="E144" s="53">
+      <c r="E144" s="44">
         <v>7811994.3095751302</v>
       </c>
-      <c r="F144" s="54" t="s">
+      <c r="F144" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="51" t="s">
+      <c r="B145" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C145" s="52" t="s">
+      <c r="C145" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D145" s="53">
+      <c r="D145" s="44">
         <v>4148124.120035029</v>
       </c>
-      <c r="E145" s="53">
+      <c r="E145" s="44">
         <v>7475653.5267338008</v>
       </c>
-      <c r="F145" s="54" t="s">
+      <c r="F145" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="51" t="s">
+      <c r="B146" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C146" s="52" t="s">
+      <c r="C146" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="D146" s="53">
+      <c r="D146" s="44">
         <v>4337400.1607029857</v>
       </c>
-      <c r="E146" s="53">
+      <c r="E146" s="44">
         <v>7816762.4376536785</v>
       </c>
-      <c r="F146" s="54" t="s">
+      <c r="F146" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="51" t="s">
+      <c r="B147" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C147" s="52" t="s">
+      <c r="C147" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D147" s="53">
+      <c r="D147" s="44">
         <v>7886958.1693686442</v>
       </c>
-      <c r="E147" s="53">
+      <c r="E147" s="44">
         <v>14213693.936801672</v>
       </c>
-      <c r="F147" s="54" t="s">
+      <c r="F147" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="51" t="s">
+      <c r="B148" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C148" s="52" t="s">
+      <c r="C148" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D148" s="53">
+      <c r="D148" s="44">
         <v>3824803.1230196669</v>
       </c>
-      <c r="E148" s="53">
+      <c r="E148" s="44">
         <v>6892971.8900077119</v>
       </c>
-      <c r="F148" s="54" t="s">
+      <c r="F148" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="51" t="s">
+      <c r="B149" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C149" s="52" t="s">
+      <c r="C149" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="D149" s="53">
+      <c r="D149" s="44">
         <v>3742211.7251321161</v>
       </c>
-      <c r="E149" s="53">
+      <c r="E149" s="44">
         <v>6744127.5794158857</v>
       </c>
-      <c r="F149" s="54" t="s">
+      <c r="F149" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="51" t="s">
+      <c r="B150" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C150" s="52" t="s">
+      <c r="C150" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="D150" s="53">
+      <c r="D150" s="44">
         <v>3222034.5100537436</v>
       </c>
-      <c r="E150" s="53">
+      <c r="E150" s="44">
         <v>5806676.2110623345</v>
       </c>
-      <c r="F150" s="54" t="s">
+      <c r="F150" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="51" t="s">
+      <c r="B151" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C151" s="52" t="s">
+      <c r="C151" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D151" s="53">
+      <c r="D151" s="44">
         <v>3180416.4816154991</v>
       </c>
-      <c r="E151" s="53">
+      <c r="E151" s="44">
         <v>5731673.1609926941</v>
       </c>
-      <c r="F151" s="54" t="s">
+      <c r="F151" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="51" t="s">
+      <c r="B152" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C152" s="52" t="s">
+      <c r="C152" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D152" s="53">
+      <c r="D152" s="44">
         <v>3922909.4046901651</v>
       </c>
-      <c r="E152" s="53">
+      <c r="E152" s="44">
         <v>7069776.7659810474</v>
       </c>
-      <c r="F152" s="54" t="s">
+      <c r="F152" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="51" t="s">
+      <c r="B153" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C153" s="52" t="s">
+      <c r="C153" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="D153" s="53">
+      <c r="D153" s="44">
         <v>4329343.6720405612</v>
       </c>
-      <c r="E153" s="53">
+      <c r="E153" s="44">
         <v>7802243.2197760213</v>
       </c>
-      <c r="F153" s="54" t="s">
+      <c r="F153" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="51" t="s">
+      <c r="B154" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C154" s="52" t="s">
+      <c r="C154" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D154" s="53">
+      <c r="D154" s="44">
         <v>5218737.3950248696</v>
       </c>
-      <c r="E154" s="53">
+      <c r="E154" s="44">
         <v>9405088.0550521687</v>
       </c>
-      <c r="F154" s="54" t="s">
+      <c r="F154" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="51" t="s">
+      <c r="B155" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C155" s="52" t="s">
+      <c r="C155" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="D155" s="53">
+      <c r="D155" s="44">
         <v>4003911.5977414665</v>
       </c>
-      <c r="E155" s="53">
+      <c r="E155" s="44">
         <v>7215757.0483049117</v>
       </c>
-      <c r="F155" s="54" t="s">
+      <c r="F155" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="51" t="s">
+      <c r="B156" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C156" s="52" t="s">
+      <c r="C156" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="D156" s="53">
+      <c r="D156" s="44">
         <v>3922909.4046901651</v>
       </c>
-      <c r="E156" s="53">
+      <c r="E156" s="44">
         <v>7069776.7659810474</v>
       </c>
-      <c r="F156" s="54" t="s">
+      <c r="F156" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="51" t="s">
+      <c r="B157" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C157" s="52" t="s">
+      <c r="C157" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="D157" s="53">
+      <c r="D157" s="44">
         <v>3922909.4046901651</v>
       </c>
-      <c r="E157" s="53">
+      <c r="E157" s="44">
         <v>7069776.7659810474</v>
       </c>
-      <c r="F157" s="54" t="s">
+      <c r="F157" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="158" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B158" s="51" t="s">
+      <c r="B158" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C158" s="52" t="s">
+      <c r="C158" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="D158" s="53">
+      <c r="D158" s="44">
         <v>3776566.257003834</v>
       </c>
-      <c r="E158" s="53">
+      <c r="E158" s="44">
         <v>6806040.5236563114</v>
       </c>
-      <c r="F158" s="54" t="s">
+      <c r="F158" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B159" s="51" t="s">
+      <c r="B159" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C159" s="52" t="s">
+      <c r="C159" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="D159" s="53">
+      <c r="D159" s="44">
         <v>5883698.2348961169</v>
       </c>
-      <c r="E159" s="53">
+      <c r="E159" s="44">
         <v>10603465.129574561</v>
       </c>
-      <c r="F159" s="54" t="s">
+      <c r="F159" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="51" t="s">
+      <c r="B160" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C160" s="52" t="s">
+      <c r="C160" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="D160" s="53">
+      <c r="D160" s="44">
         <v>4143320.1012423248</v>
       </c>
-      <c r="E160" s="53">
+      <c r="E160" s="44">
         <v>7466995.8349697776</v>
       </c>
-      <c r="F160" s="54" t="s">
+      <c r="F160" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161" s="51" t="s">
+      <c r="B161" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C161" s="52" t="s">
+      <c r="C161" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="D161" s="53">
+      <c r="D161" s="44">
         <v>3922909.4046901651</v>
       </c>
-      <c r="E161" s="53">
+      <c r="E161" s="44">
         <v>7069776.7659810474</v>
       </c>
-      <c r="F161" s="54" t="s">
+      <c r="F161" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="51" t="s">
+      <c r="B162" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C162" s="52" t="s">
+      <c r="C162" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D162" s="53">
+      <c r="D162" s="44">
         <v>4565525.0515592024</v>
       </c>
-      <c r="E162" s="53">
+      <c r="E162" s="44">
         <v>8227883.8495295215</v>
       </c>
-      <c r="F162" s="54" t="s">
+      <c r="F162" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="51" t="s">
+      <c r="B163" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C163" s="52" t="s">
+      <c r="C163" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="D163" s="53">
+      <c r="D163" s="44">
         <v>3922909.4046901651</v>
       </c>
-      <c r="E163" s="53">
+      <c r="E163" s="44">
         <v>7069776.7659810474</v>
       </c>
-      <c r="F163" s="54" t="s">
+      <c r="F163" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164" s="51" t="s">
+      <c r="B164" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C164" s="52" t="s">
+      <c r="C164" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="D164" s="53">
+      <c r="D164" s="44">
         <v>3573281.5308429417</v>
       </c>
-      <c r="E164" s="53">
+      <c r="E164" s="44">
         <v>6439685.4831415266</v>
       </c>
-      <c r="F164" s="54" t="s">
+      <c r="F164" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="51" t="s">
+      <c r="B165" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="52" t="s">
+      <c r="C165" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="D165" s="53">
+      <c r="D165" s="44">
         <v>3024063.47206337</v>
       </c>
-      <c r="E165" s="53">
+      <c r="E165" s="44">
         <v>5449897.3766981913</v>
       </c>
-      <c r="F165" s="54" t="s">
+      <c r="F165" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="51" t="s">
+      <c r="B166" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="52" t="s">
+      <c r="C166" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="D166" s="53">
+      <c r="D166" s="44">
         <v>3069305.6355737308</v>
       </c>
-      <c r="E166" s="53">
+      <c r="E166" s="44">
         <v>5531431.7593290666</v>
       </c>
-      <c r="F166" s="54" t="s">
+      <c r="F166" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="51" t="s">
+      <c r="B167" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="52" t="s">
+      <c r="C167" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="D167" s="53">
+      <c r="D167" s="44">
         <v>4472965.2073965073</v>
       </c>
-      <c r="E167" s="53">
+      <c r="E167" s="44">
         <v>8061074.6351892957</v>
       </c>
-      <c r="F167" s="54" t="s">
+      <c r="F167" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="51" t="s">
+      <c r="B168" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C168" s="52" t="s">
+      <c r="C168" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="D168" s="53">
+      <c r="D168" s="44">
         <v>739703.91058245453</v>
       </c>
-      <c r="E168" s="53">
+      <c r="E168" s="44">
         <v>1167866.8059375826</v>
       </c>
-      <c r="F168" s="54" t="s">
+      <c r="F168" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="51" t="s">
+      <c r="B169" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C169" s="52" t="s">
+      <c r="C169" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="D169" s="53">
+      <c r="D169" s="44">
         <v>383306.52303690225</v>
       </c>
-      <c r="E169" s="53">
+      <c r="E169" s="44">
         <v>605175.87963224342</v>
       </c>
-      <c r="F169" s="54" t="s">
+      <c r="F169" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B170" s="51" t="s">
+      <c r="B170" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C170" s="52" t="s">
+      <c r="C170" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="D170" s="53">
+      <c r="D170" s="44">
         <v>789843.56394229853</v>
       </c>
-      <c r="E170" s="53">
+      <c r="E170" s="44">
         <v>1247028.8003281087</v>
       </c>
-      <c r="F170" s="54" t="s">
+      <c r="F170" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="51" t="s">
+      <c r="B171" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C171" s="52" t="s">
+      <c r="C171" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="D171" s="53">
+      <c r="D171" s="44">
         <v>1320535.6338163763</v>
       </c>
-      <c r="E171" s="53">
+      <c r="E171" s="44">
         <v>2084901.4189711823</v>
       </c>
-      <c r="F171" s="54" t="s">
+      <c r="F171" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B172" s="51" t="s">
+      <c r="B172" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C172" s="52" t="s">
+      <c r="C172" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D172" s="53">
+      <c r="D172" s="44">
         <v>492855.48848924326</v>
       </c>
-      <c r="E172" s="53">
+      <c r="E172" s="44">
         <v>778135.0847226308</v>
       </c>
-      <c r="F172" s="54" t="s">
+      <c r="F172" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B173" s="51" t="s">
+      <c r="B173" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C173" s="52" t="s">
+      <c r="C173" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="D173" s="53">
+      <c r="D173" s="44">
         <v>563274.51258089743</v>
       </c>
-      <c r="E173" s="53">
+      <c r="E173" s="44">
         <v>889314.76022063452</v>
       </c>
-      <c r="F173" s="54" t="s">
+      <c r="F173" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B174" s="51" t="s">
+      <c r="B174" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C174" s="52" t="s">
+      <c r="C174" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="D174" s="53">
+      <c r="D174" s="44">
         <v>294143.46643357974</v>
       </c>
-      <c r="E174" s="53">
+      <c r="E174" s="44">
         <v>464402.56123656267</v>
       </c>
-      <c r="F174" s="54" t="s">
+      <c r="F174" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B175" s="51" t="s">
+      <c r="B175" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C175" s="52" t="s">
+      <c r="C175" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="D175" s="53">
+      <c r="D175" s="44">
         <v>268888.60431065899</v>
       </c>
-      <c r="E175" s="53">
+      <c r="E175" s="44">
         <v>424529.42451261985</v>
       </c>
-      <c r="F175" s="54" t="s">
+      <c r="F175" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B176" s="51" t="s">
+      <c r="B176" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C176" s="52" t="s">
+      <c r="C176" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="D176" s="53">
+      <c r="D176" s="44">
         <v>1063736.5733069701</v>
       </c>
-      <c r="E176" s="53">
+      <c r="E176" s="44">
         <v>1679459.3302187508</v>
       </c>
-      <c r="F176" s="54" t="s">
+      <c r="F176" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B177" s="51" t="s">
+      <c r="B177" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C177" s="52" t="s">
+      <c r="C177" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="D177" s="53">
+      <c r="D177" s="44">
         <v>2022066.5731762508</v>
       </c>
-      <c r="E177" s="53">
+      <c r="E177" s="44">
         <v>3644121.6973343417</v>
       </c>
-      <c r="F177" s="54" t="s">
+      <c r="F177" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B178" s="51" t="s">
+      <c r="B178" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C178" s="52" t="s">
+      <c r="C178" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="D178" s="53">
+      <c r="D178" s="44">
         <v>1341534.7005376401</v>
       </c>
-      <c r="E178" s="53">
+      <c r="E178" s="44">
         <v>2118055.3777762963</v>
       </c>
-      <c r="F178" s="54" t="s">
+      <c r="F178" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B179" s="51" t="s">
+      <c r="B179" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C179" s="52" t="s">
+      <c r="C179" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="D179" s="53">
+      <c r="D179" s="44">
         <v>888974.52164897765</v>
       </c>
-      <c r="E179" s="53">
+      <c r="E179" s="44">
         <v>1403539.7411115258</v>
       </c>
-      <c r="F179" s="54" t="s">
+      <c r="F179" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B180" s="51" t="s">
+      <c r="B180" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C180" s="52" t="s">
+      <c r="C180" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="D180" s="53">
+      <c r="D180" s="44">
         <v>2252772.2364681857</v>
       </c>
-      <c r="E180" s="53">
+      <c r="E180" s="44">
         <v>4059894.1177148693</v>
       </c>
-      <c r="F180" s="54" t="s">
+      <c r="F180" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B181" s="51" t="s">
+      <c r="B181" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C181" s="52" t="s">
+      <c r="C181" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="D181" s="53">
+      <c r="D181" s="44">
         <v>2252772.2364681857</v>
       </c>
-      <c r="E181" s="53">
+      <c r="E181" s="44">
         <v>4059894.1177148693</v>
       </c>
-      <c r="F181" s="54" t="s">
+      <c r="F181" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B182" s="51" t="s">
+      <c r="B182" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C182" s="52" t="s">
+      <c r="C182" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="D182" s="53">
+      <c r="D182" s="44">
         <v>2290629.7022343152</v>
       </c>
-      <c r="E182" s="53">
+      <c r="E182" s="44">
         <v>4128119.9685520865</v>
       </c>
-      <c r="F182" s="54" t="s">
+      <c r="F182" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B183" s="51" t="s">
+      <c r="B183" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C183" s="52" t="s">
+      <c r="C183" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="D183" s="53">
+      <c r="D183" s="44">
         <v>2072598.8732683724</v>
       </c>
-      <c r="E183" s="53">
+      <c r="E183" s="44">
         <v>3735189.8419863032</v>
       </c>
-      <c r="F183" s="54" t="s">
+      <c r="F183" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B184" s="51" t="s">
+      <c r="B184" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="C184" s="52" t="s">
+      <c r="C184" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="D184" s="53">
+      <c r="D184" s="44">
         <v>548519.01419235638</v>
       </c>
-      <c r="E184" s="53">
+      <c r="E184" s="44">
         <v>866018.33508821437</v>
       </c>
-      <c r="F184" s="54" t="s">
+      <c r="F184" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B185" s="51" t="s">
+      <c r="B185" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="C185" s="52" t="s">
+      <c r="C185" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="D185" s="53">
+      <c r="D185" s="44">
         <v>1242522.1934818879</v>
       </c>
-      <c r="E185" s="53">
+      <c r="E185" s="44">
         <v>1961731.4504470199</v>
       </c>
-      <c r="F185" s="54" t="s">
+      <c r="F185" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B186" s="51" t="s">
+      <c r="B186" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C186" s="52" t="s">
+      <c r="C186" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="D186" s="53">
+      <c r="D186" s="44">
         <v>297245.60100814991</v>
       </c>
-      <c r="E186" s="53">
+      <c r="E186" s="44">
         <v>469300.3047057559</v>
       </c>
-      <c r="F186" s="54" t="s">
+      <c r="F186" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B187" s="51" t="s">
+      <c r="B187" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C187" s="52" t="s">
+      <c r="C187" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="D187" s="53">
+      <c r="D187" s="44">
         <v>5465705.7159036426</v>
       </c>
-      <c r="E187" s="53">
+      <c r="E187" s="44">
         <v>9850168.6615006868</v>
       </c>
-      <c r="F187" s="54" t="s">
+      <c r="F187" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B188" s="51" t="s">
+      <c r="B188" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C188" s="52" t="s">
+      <c r="C188" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="D188" s="53">
+      <c r="D188" s="44">
         <v>1438770.0188601092</v>
       </c>
-      <c r="E188" s="53">
+      <c r="E188" s="44">
         <v>2364280.0181682934</v>
       </c>
-      <c r="F188" s="54" t="s">
+      <c r="F188" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B189" s="51" t="s">
+      <c r="B189" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C189" s="52" t="s">
+      <c r="C189" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="D189" s="53">
+      <c r="D189" s="44">
         <v>811373.47388421791</v>
       </c>
-      <c r="E189" s="53">
+      <c r="E189" s="44">
         <v>1281020.8703932706</v>
       </c>
-      <c r="F189" s="54" t="s">
+      <c r="F189" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B190" s="51" t="s">
+      <c r="B190" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C190" s="52" t="s">
+      <c r="C190" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="D190" s="53">
+      <c r="D190" s="44">
         <v>854153.69495848124</v>
       </c>
-      <c r="E190" s="53">
+      <c r="E190" s="44">
         <v>1348563.5715045342</v>
       </c>
-      <c r="F190" s="54" t="s">
+      <c r="F190" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B191" s="51" t="s">
+      <c r="B191" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C191" s="52" t="s">
+      <c r="C191" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="D191" s="53">
+      <c r="D191" s="44">
         <v>1476231.2371073815</v>
       </c>
-      <c r="E191" s="53">
+      <c r="E191" s="44">
         <v>2330718.3253206625</v>
       </c>
-      <c r="F191" s="54" t="s">
+      <c r="F191" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B192" s="51" t="s">
+      <c r="B192" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C192" s="52" t="s">
+      <c r="C192" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D192" s="53">
+      <c r="D192" s="44">
         <v>1438770.0188601092</v>
       </c>
-      <c r="E192" s="53">
+      <c r="E192" s="44">
         <v>2364280.0181682934</v>
       </c>
-      <c r="F192" s="54" t="s">
+      <c r="F192" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B193" s="51" t="s">
+      <c r="B193" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C193" s="52" t="s">
+      <c r="C193" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="D193" s="53">
+      <c r="D193" s="44">
         <v>4113217.0745374002</v>
       </c>
-      <c r="E193" s="53">
+      <c r="E193" s="44">
         <v>7412744.8551919274</v>
       </c>
-      <c r="F193" s="54" t="s">
+      <c r="F193" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B194" s="51" t="s">
+      <c r="B194" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C194" s="52" t="s">
+      <c r="C194" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="D194" s="53">
+      <c r="D194" s="44">
         <v>1570789.3921099347</v>
       </c>
-      <c r="E194" s="53">
+      <c r="E194" s="44">
         <v>2480009.5875112698</v>
       </c>
-      <c r="F194" s="54" t="s">
+      <c r="F194" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B195" s="51" t="s">
+      <c r="B195" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C195" s="52" t="s">
+      <c r="C195" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="D195" s="53">
+      <c r="D195" s="44">
         <v>477723.8892442502</v>
       </c>
-      <c r="E195" s="53">
+      <c r="E195" s="44">
         <v>754244.8602339396</v>
       </c>
-      <c r="F195" s="54" t="s">
+      <c r="F195" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B196" s="51" t="s">
+      <c r="B196" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C196" s="52" t="s">
+      <c r="C196" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="D196" s="53">
+      <c r="D196" s="44">
         <v>4437941.8024825538</v>
       </c>
-      <c r="E196" s="53">
+      <c r="E196" s="44">
         <v>7997956.2633935623</v>
       </c>
-      <c r="F196" s="54" t="s">
+      <c r="F196" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="51" t="s">
+      <c r="B197" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C197" s="52" t="s">
+      <c r="C197" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="D197" s="53">
+      <c r="D197" s="44">
         <v>1089177.9434176167</v>
       </c>
-      <c r="E197" s="53">
+      <c r="E197" s="44">
         <v>1719626.9313693263</v>
       </c>
-      <c r="F197" s="54" t="s">
+      <c r="F197" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B198" s="51" t="s">
+      <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C198" s="52" t="s">
+      <c r="C198" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="D198" s="53">
+      <c r="D198" s="44">
         <v>2896953.8541976949</v>
       </c>
-      <c r="E198" s="53">
+      <c r="E198" s="44">
         <v>4573797.9700369593</v>
       </c>
-      <c r="F198" s="54" t="s">
+      <c r="F198" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B199" s="51" t="s">
+      <c r="B199" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C199" s="52" t="s">
+      <c r="C199" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="D199" s="53">
+      <c r="D199" s="44">
         <v>1438354.869045177</v>
       </c>
-      <c r="E199" s="53">
+      <c r="E199" s="44">
         <v>2270917.9749960415</v>
       </c>
-      <c r="F199" s="54" t="s">
+      <c r="F199" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B200" s="51" t="s">
+      <c r="B200" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C200" s="52" t="s">
+      <c r="C200" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="D200" s="53">
+      <c r="D200" s="44">
         <v>4644216.203851915</v>
       </c>
-      <c r="E200" s="53">
+      <c r="E200" s="44">
         <v>8369699.2275502719</v>
       </c>
-      <c r="F200" s="54" t="s">
+      <c r="F200" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B201" s="51" t="s">
+      <c r="B201" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C201" s="52" t="s">
+      <c r="C201" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="D201" s="53">
+      <c r="D201" s="44">
         <v>6674626.9087233488</v>
       </c>
-      <c r="E201" s="53">
+      <c r="E201" s="44">
         <v>12028858.526395462</v>
       </c>
-      <c r="F201" s="54" t="s">
+      <c r="F201" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B202" s="51" t="s">
+      <c r="B202" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C202" s="52" t="s">
+      <c r="C202" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="D202" s="53">
+      <c r="D202" s="44">
         <v>1438770.0188601092</v>
       </c>
-      <c r="E202" s="53">
+      <c r="E202" s="44">
         <v>2364280.0181682934</v>
       </c>
-      <c r="F202" s="54" t="s">
+      <c r="F202" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B203" s="51" t="s">
+      <c r="B203" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C203" s="52" t="s">
+      <c r="C203" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="D203" s="53">
+      <c r="D203" s="44">
         <v>10359736.034941908</v>
       </c>
-      <c r="E203" s="53">
+      <c r="E203" s="44">
         <v>18670077.120303411</v>
       </c>
-      <c r="F203" s="54" t="s">
+      <c r="F203" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B204" s="51" t="s">
+      <c r="B204" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C204" s="52" t="s">
+      <c r="C204" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="D204" s="53">
+      <c r="D204" s="44">
         <v>923886.64128603728</v>
       </c>
-      <c r="E204" s="53">
+      <c r="E204" s="44">
         <v>1458660.0467713112</v>
       </c>
-      <c r="F204" s="54" t="s">
+      <c r="F204" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B205" s="51" t="s">
+      <c r="B205" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C205" s="52" t="s">
+      <c r="C205" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="D205" s="53">
+      <c r="D205" s="44">
         <v>1065261.0054039159</v>
       </c>
-      <c r="E205" s="53">
+      <c r="E205" s="44">
         <v>1681866.1495128751</v>
       </c>
-      <c r="F205" s="54" t="s">
+      <c r="F205" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B206" s="51" t="s">
+      <c r="B206" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="C206" s="52" t="s">
+      <c r="C206" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="D206" s="53">
+      <c r="D206" s="44">
         <v>4844691.8634169903</v>
       </c>
-      <c r="E206" s="53">
+      <c r="E206" s="44">
         <v>8730991.8330953736</v>
       </c>
-      <c r="F206" s="54" t="s">
+      <c r="F206" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B207" s="51" t="s">
+      <c r="B207" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="C207" s="52" t="s">
+      <c r="C207" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="D207" s="53">
+      <c r="D207" s="44">
         <v>4156948.7181974985</v>
       </c>
-      <c r="E207" s="53">
+      <c r="E207" s="44">
         <v>7491557.0138200829</v>
       </c>
-      <c r="F207" s="54" t="s">
+      <c r="F207" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B208" s="51" t="s">
+      <c r="B208" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C208" s="52" t="s">
+      <c r="C208" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="D208" s="53">
+      <c r="D208" s="44">
         <v>184230.94059927965</v>
       </c>
-      <c r="E208" s="53">
+      <c r="E208" s="44">
         <v>290869.35606861807</v>
       </c>
-      <c r="F208" s="54" t="s">
+      <c r="F208" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B209" s="51" t="s">
+      <c r="B209" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C209" s="52" t="s">
+      <c r="C209" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="D209" s="53">
+      <c r="D209" s="44">
         <v>1008892.3299135733</v>
       </c>
-      <c r="E209" s="53">
+      <c r="E209" s="44">
         <v>1592869.5874317016</v>
       </c>
-      <c r="F209" s="54" t="s">
+      <c r="F209" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B210" s="51" t="s">
+      <c r="B210" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C210" s="52" t="s">
+      <c r="C210" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D210" s="53">
+      <c r="D210" s="44">
         <v>184230.94059927965</v>
       </c>
-      <c r="E210" s="53">
+      <c r="E210" s="44">
         <v>290869.35606861807</v>
       </c>
-      <c r="F210" s="54" t="s">
+      <c r="F210" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B211" s="51" t="s">
+      <c r="B211" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C211" s="52" t="s">
+      <c r="C211" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="D211" s="53">
+      <c r="D211" s="44">
         <v>383007.7293688652</v>
       </c>
-      <c r="E211" s="53">
+      <c r="E211" s="44">
         <v>604704.13519270136</v>
       </c>
-      <c r="F211" s="54" t="s">
+      <c r="F211" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B212" s="51" t="s">
+      <c r="B212" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C212" s="52" t="s">
+      <c r="C212" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="D212" s="53">
+      <c r="D212" s="44">
         <v>184230.94059927965</v>
       </c>
-      <c r="E212" s="53">
+      <c r="E212" s="44">
         <v>290869.35606861807</v>
       </c>
-      <c r="F212" s="54" t="s">
+      <c r="F212" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B213" s="51" t="s">
+      <c r="B213" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C213" s="52" t="s">
+      <c r="C213" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="D213" s="53">
+      <c r="D213" s="44">
         <v>185090.18082791899</v>
       </c>
-      <c r="E213" s="53">
+      <c r="E213" s="44">
         <v>292225.95041264937</v>
       </c>
-      <c r="F213" s="54" t="s">
+      <c r="F213" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B214" s="51" t="s">
+      <c r="B214" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C214" s="52" t="s">
+      <c r="C214" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="D214" s="53">
+      <c r="D214" s="44">
         <v>127900.39408823143</v>
       </c>
-      <c r="E214" s="53">
+      <c r="E214" s="44">
         <v>201932.99316798808</v>
       </c>
-      <c r="F214" s="54" t="s">
+      <c r="F214" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B215" s="51" t="s">
+      <c r="B215" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C215" s="52" t="s">
+      <c r="C215" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="D215" s="53">
+      <c r="D215" s="44">
         <v>344914.10488048894</v>
       </c>
-      <c r="E215" s="53">
+      <c r="E215" s="44">
         <v>544560.77388101805</v>
       </c>
-      <c r="F215" s="54" t="s">
+      <c r="F215" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B216" s="51" t="s">
+      <c r="B216" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C216" s="52" t="s">
+      <c r="C216" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="D216" s="53">
+      <c r="D216" s="44">
         <v>228005.7420287666</v>
       </c>
-      <c r="E216" s="53">
+      <c r="E216" s="44">
         <v>359982.33059075038</v>
       </c>
-      <c r="F216" s="54" t="s">
+      <c r="F216" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B217" s="51" t="s">
+      <c r="B217" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C217" s="52" t="s">
+      <c r="C217" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="D217" s="53">
+      <c r="D217" s="44">
         <v>101596.86109153602</v>
       </c>
-      <c r="E217" s="53">
+      <c r="E217" s="44">
         <v>160404.18329386457</v>
       </c>
-      <c r="F217" s="54" t="s">
+      <c r="F217" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B218" s="51" t="s">
+      <c r="B218" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C218" s="52" t="s">
+      <c r="C218" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="D218" s="53">
+      <c r="D218" s="44">
         <v>92023.793505759255</v>
       </c>
-      <c r="E218" s="53">
+      <c r="E218" s="44">
         <v>145289.93595181339</v>
       </c>
-      <c r="F218" s="54" t="s">
+      <c r="F218" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B219" s="51" t="s">
+      <c r="B219" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C219" s="52" t="s">
+      <c r="C219" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="D219" s="53">
+      <c r="D219" s="44">
         <v>593882.72446467215</v>
       </c>
-      <c r="E219" s="53">
+      <c r="E219" s="44">
         <v>937639.92673221591</v>
       </c>
-      <c r="F219" s="54" t="s">
+      <c r="F219" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B220" s="51" t="s">
+      <c r="B220" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C220" s="52" t="s">
+      <c r="C220" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="D220" s="53">
+      <c r="D220" s="44">
         <v>43493.682713869217</v>
       </c>
-      <c r="E220" s="53">
+      <c r="E220" s="44">
         <v>68669.13582964892</v>
       </c>
-      <c r="F220" s="54" t="s">
+      <c r="F220" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B221" s="51" t="s">
+      <c r="B221" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C221" s="52" t="s">
+      <c r="C221" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="D221" s="53">
+      <c r="D221" s="44">
         <v>399338.45659670484</v>
       </c>
-      <c r="E221" s="53">
+      <c r="E221" s="44">
         <v>630487.57904552261</v>
       </c>
-      <c r="F221" s="54" t="s">
+      <c r="F221" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B222" s="51" t="s">
+      <c r="B222" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C222" s="52" t="s">
+      <c r="C222" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="D222" s="53">
+      <c r="D222" s="44">
         <v>422405.32147751201</v>
       </c>
-      <c r="E222" s="53">
+      <c r="E222" s="44">
         <v>673288.08424335392</v>
       </c>
-      <c r="F222" s="54" t="s">
+      <c r="F222" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B223" s="51" t="s">
+      <c r="B223" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C223" s="52" t="s">
+      <c r="C223" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="D223" s="53">
+      <c r="D223" s="44">
         <v>1444374.2460897963</v>
       </c>
-      <c r="E223" s="53">
+      <c r="E223" s="44">
         <v>2280421.5487128529</v>
       </c>
-      <c r="F223" s="54" t="s">
+      <c r="F223" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B224" s="51" t="s">
+      <c r="B224" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C224" s="52" t="s">
+      <c r="C224" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="D224" s="53">
+      <c r="D224" s="44">
         <v>422405.32147751201</v>
       </c>
-      <c r="E224" s="53">
+      <c r="E224" s="44">
         <v>673288.08424335392</v>
       </c>
-      <c r="F224" s="54" t="s">
+      <c r="F224" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B225" s="51" t="s">
+      <c r="B225" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C225" s="52" t="s">
+      <c r="C225" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="D225" s="53">
+      <c r="D225" s="44">
         <v>3859090.3562601944</v>
       </c>
-      <c r="E225" s="53">
+      <c r="E225" s="44">
         <v>6954763.5502086449</v>
       </c>
-      <c r="F225" s="54" t="s">
+      <c r="F225" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="51" t="s">
+      <c r="B226" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C226" s="52" t="s">
+      <c r="C226" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="D226" s="53">
+      <c r="D226" s="44">
         <v>33406.957592748324</v>
       </c>
-      <c r="E226" s="53">
+      <c r="E226" s="44">
         <v>52743.910504967178</v>
       </c>
-      <c r="F226" s="54" t="s">
+      <c r="F226" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B227" s="51" t="s">
+      <c r="B227" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C227" s="52" t="s">
+      <c r="C227" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="D227" s="53">
+      <c r="D227" s="44">
         <v>154689.80960651441</v>
       </c>
-      <c r="E227" s="53">
+      <c r="E227" s="44">
         <v>244228.92899673941</v>
       </c>
-      <c r="F227" s="54" t="s">
+      <c r="F227" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B228" s="51" t="s">
+      <c r="B228" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C228" s="52" t="s">
+      <c r="C228" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="D228" s="53">
+      <c r="D228" s="44">
         <v>207367.71829098687</v>
       </c>
-      <c r="E228" s="53">
+      <c r="E228" s="44">
         <v>327398.39731868467</v>
       </c>
-      <c r="F228" s="54" t="s">
+      <c r="F228" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B229" s="51" t="s">
+      <c r="B229" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C229" s="52" t="s">
+      <c r="C229" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="D229" s="53">
+      <c r="D229" s="44">
         <v>210159.99848557747</v>
       </c>
-      <c r="E229" s="53">
+      <c r="E229" s="44">
         <v>331806.93336329132</v>
       </c>
-      <c r="F229" s="54" t="s">
+      <c r="F229" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B230" s="51" t="s">
+      <c r="B230" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C230" s="52" t="s">
+      <c r="C230" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="D230" s="53">
+      <c r="D230" s="44">
         <v>71123.902062450899</v>
       </c>
-      <c r="E230" s="53">
+      <c r="E230" s="44">
         <v>112292.55806162581</v>
       </c>
-      <c r="F230" s="54" t="s">
+      <c r="F230" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B231" s="51" t="s">
+      <c r="B231" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C231" s="52" t="s">
+      <c r="C231" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="D231" s="53">
+      <c r="D231" s="44">
         <v>1366688.3023500459</v>
       </c>
-      <c r="E231" s="53">
+      <c r="E231" s="44">
         <v>2157768.64167313</v>
       </c>
-      <c r="F231" s="54" t="s">
+      <c r="F231" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B232" s="51" t="s">
+      <c r="B232" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C232" s="52" t="s">
+      <c r="C232" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="D232" s="53">
+      <c r="D232" s="44">
         <v>75115.670396177593</v>
       </c>
-      <c r="E232" s="53">
+      <c r="E232" s="44">
         <v>118594.88209595648</v>
       </c>
-      <c r="F232" s="54" t="s">
+      <c r="F232" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B233" s="51" t="s">
+      <c r="B233" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C233" s="52" t="s">
+      <c r="C233" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="D233" s="53">
+      <c r="D233" s="44">
         <v>166510.36196835179</v>
       </c>
-      <c r="E233" s="53">
+      <c r="E233" s="44">
         <v>262891.57297325542</v>
       </c>
-      <c r="F233" s="54" t="s">
+      <c r="F233" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B234" s="51" t="s">
+      <c r="B234" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C234" s="52" t="s">
+      <c r="C234" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="D234" s="53">
+      <c r="D234" s="44">
         <v>35781.469085008728</v>
       </c>
-      <c r="E234" s="53">
+      <c r="E234" s="44">
         <v>56492.860743643956</v>
       </c>
-      <c r="F234" s="54" t="s">
+      <c r="F234" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B235" s="51" t="s">
+      <c r="B235" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C235" s="52" t="s">
+      <c r="C235" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="D235" s="53">
+      <c r="D235" s="44">
         <v>123990.22244979367</v>
       </c>
-      <c r="E235" s="53">
+      <c r="E235" s="44">
         <v>195759.49645299272</v>
       </c>
-      <c r="F235" s="54" t="s">
+      <c r="F235" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B236" s="51" t="s">
+      <c r="B236" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C236" s="52" t="s">
+      <c r="C236" s="43" t="s">
         <v>269</v>
       </c>
-      <c r="D236" s="53">
+      <c r="D236" s="44">
         <v>72253.073862661709</v>
       </c>
-      <c r="E236" s="53">
+      <c r="E236" s="44">
         <v>114075.32849828419</v>
       </c>
-      <c r="F236" s="54" t="s">
+      <c r="F236" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="51" t="s">
+      <c r="B237" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C237" s="52" t="s">
+      <c r="C237" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="D237" s="53">
+      <c r="D237" s="44">
         <v>55196.548706680755</v>
       </c>
-      <c r="E237" s="53">
+      <c r="E237" s="44">
         <v>87145.973023301834</v>
       </c>
-      <c r="F237" s="54" t="s">
+      <c r="F237" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B238" s="51" t="s">
+      <c r="B238" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C238" s="52" t="s">
+      <c r="C238" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="D238" s="53">
+      <c r="D238" s="44">
         <v>70966.106893791555</v>
       </c>
-      <c r="E238" s="53">
+      <c r="E238" s="44">
         <v>112043.42629825651</v>
       </c>
-      <c r="F238" s="54" t="s">
+      <c r="F238" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B239" s="51" t="s">
+      <c r="B239" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C239" s="52" t="s">
+      <c r="C239" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="D239" s="53">
+      <c r="D239" s="44">
         <v>109070.52910370006</v>
       </c>
-      <c r="E239" s="53">
+      <c r="E239" s="44">
         <v>172261.80080178866</v>
       </c>
-      <c r="F239" s="54" t="s">
+      <c r="F239" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B240" s="51" t="s">
+      <c r="B240" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C240" s="52" t="s">
+      <c r="C240" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="D240" s="53">
+      <c r="D240" s="44">
         <v>45402.756674280492</v>
       </c>
-      <c r="E240" s="53">
+      <c r="E240" s="44">
         <v>71683.239279079862</v>
       </c>
-      <c r="F240" s="54" t="s">
+      <c r="F240" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B241" s="51" t="s">
+      <c r="B241" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C241" s="52" t="s">
+      <c r="C241" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="D241" s="53">
+      <c r="D241" s="44">
         <v>2385388.2862767414</v>
       </c>
-      <c r="E241" s="53">
+      <c r="E241" s="44">
         <v>4298891.7011440909</v>
       </c>
-      <c r="F241" s="54" t="s">
+      <c r="F241" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B242" s="51" t="s">
+      <c r="B242" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C242" s="52" t="s">
+      <c r="C242" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="D242" s="53">
+      <c r="D242" s="44">
         <v>85808.08086343664</v>
       </c>
-      <c r="E242" s="53">
+      <c r="E242" s="44">
         <v>135476.38168183633</v>
       </c>
-      <c r="F242" s="54" t="s">
+      <c r="F242" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B243" s="51" t="s">
+      <c r="B243" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C243" s="52" t="s">
+      <c r="C243" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="D243" s="53">
+      <c r="D243" s="44">
         <v>250533.04465759441</v>
       </c>
-      <c r="E243" s="53">
+      <c r="E243" s="44">
         <v>395549.11426072224</v>
       </c>
-      <c r="F243" s="54" t="s">
+      <c r="F243" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B244" s="51" t="s">
+      <c r="B244" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="C244" s="52" t="s">
+      <c r="C244" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="D244" s="53">
+      <c r="D244" s="44">
         <v>75021.541923818819</v>
       </c>
-      <c r="E244" s="53">
+      <c r="E244" s="44">
         <v>118446.26922966124</v>
       </c>
-      <c r="F244" s="54" t="s">
+      <c r="F244" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B245" s="51" t="s">
+      <c r="B245" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="C245" s="52" t="s">
+      <c r="C245" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="D245" s="53">
+      <c r="D245" s="44">
         <v>580508.4879915457</v>
       </c>
-      <c r="E245" s="53">
+      <c r="E245" s="44">
         <v>916524.27950057492</v>
       </c>
-      <c r="F245" s="54" t="s">
+      <c r="F245" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B246" s="51" t="s">
+      <c r="B246" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="C246" s="52" t="s">
+      <c r="C246" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="D246" s="53">
+      <c r="D246" s="44">
         <v>1006311.0478777629</v>
       </c>
-      <c r="E246" s="53">
+      <c r="E246" s="44">
         <v>1588794.1816331674</v>
       </c>
-      <c r="F246" s="54" t="s">
+      <c r="F246" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B247" s="51" t="s">
+      <c r="B247" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="C247" s="52" t="s">
+      <c r="C247" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="D247" s="53">
+      <c r="D247" s="44">
         <v>648579.67861983448</v>
       </c>
-      <c r="E247" s="53">
+      <c r="E247" s="44">
         <v>1023997.1248351759</v>
       </c>
-      <c r="F247" s="54" t="s">
+      <c r="F247" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B248" s="51" t="s">
+      <c r="B248" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="C248" s="52" t="s">
+      <c r="C248" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="D248" s="53">
+      <c r="D248" s="44">
         <v>132591.7837206382</v>
       </c>
-      <c r="E248" s="53">
+      <c r="E248" s="44">
         <v>209339.90037372854</v>
       </c>
-      <c r="F248" s="54" t="s">
+      <c r="F248" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B249" s="51" t="s">
+      <c r="B249" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="C249" s="52" t="s">
+      <c r="C249" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="D249" s="53">
+      <c r="D249" s="44">
         <v>1110340.9309328382</v>
       </c>
-      <c r="E249" s="53">
+      <c r="E249" s="44">
         <v>1753039.6932594688</v>
       </c>
-      <c r="F249" s="54" t="s">
+      <c r="F249" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B250" s="51" t="s">
+      <c r="B250" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C250" s="52" t="s">
+      <c r="C250" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="D250" s="53">
+      <c r="D250" s="44">
         <v>64806.304549582994</v>
       </c>
-      <c r="E250" s="53">
+      <c r="E250" s="44">
         <v>102318.14489035762</v>
       </c>
-      <c r="F250" s="54" t="s">
+      <c r="F250" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B251" s="51" t="s">
+      <c r="B251" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C251" s="52" t="s">
+      <c r="C251" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="D251" s="53">
+      <c r="D251" s="44">
         <v>72194.899055286514</v>
       </c>
-      <c r="E251" s="53">
+      <c r="E251" s="44">
         <v>113983.48036080203</v>
       </c>
-      <c r="F251" s="54" t="s">
+      <c r="F251" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B252" s="51" t="s">
+      <c r="B252" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C252" s="52" t="s">
+      <c r="C252" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="D252" s="53">
+      <c r="D252" s="44">
         <v>129365.28205157268</v>
       </c>
-      <c r="E252" s="53">
+      <c r="E252" s="44">
         <v>204245.80239114957</v>
       </c>
-      <c r="F252" s="54" t="s">
+      <c r="F252" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B253" s="51" t="s">
+      <c r="B253" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C253" s="52" t="s">
+      <c r="C253" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="D253" s="53">
+      <c r="D253" s="44">
         <v>171672.8136233027</v>
       </c>
-      <c r="E253" s="53">
+      <c r="E253" s="44">
         <v>271042.20708349993</v>
       </c>
-      <c r="F253" s="54" t="s">
+      <c r="F253" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B254" s="51" t="s">
+      <c r="B254" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C254" s="52" t="s">
+      <c r="C254" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="D254" s="53">
+      <c r="D254" s="44">
         <v>359222.60999609315</v>
       </c>
-      <c r="E254" s="53">
+      <c r="E254" s="44">
         <v>567151.47257550561</v>
       </c>
-      <c r="F254" s="54" t="s">
+      <c r="F254" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B255" s="51" t="s">
+      <c r="B255" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C255" s="52" t="s">
+      <c r="C255" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="D255" s="53">
+      <c r="D255" s="44">
         <v>39897.349379017083</v>
       </c>
-      <c r="E255" s="53">
+      <c r="E255" s="44">
         <v>62991.136477782049</v>
       </c>
-      <c r="F255" s="54" t="s">
+      <c r="F255" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B256" s="51" t="s">
+      <c r="B256" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C256" s="52" t="s">
+      <c r="C256" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="D256" s="53">
+      <c r="D256" s="44">
         <v>32848.279257748422</v>
       </c>
-      <c r="E256" s="53">
+      <c r="E256" s="44">
         <v>51861.852328298766</v>
       </c>
-      <c r="F256" s="54" t="s">
+      <c r="F256" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B257" s="51" t="s">
+      <c r="B257" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C257" s="52" t="s">
+      <c r="C257" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="D257" s="53">
+      <c r="D257" s="44">
         <v>84527.668484893074</v>
       </c>
-      <c r="E257" s="53">
+      <c r="E257" s="44">
         <v>133454.82806636993</v>
       </c>
-      <c r="F257" s="54" t="s">
+      <c r="F257" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B258" s="51" t="s">
+      <c r="B258" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C258" s="52" t="s">
+      <c r="C258" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="D258" s="53">
+      <c r="D258" s="44">
         <v>71090.741358645886</v>
       </c>
-      <c r="E258" s="53">
+      <c r="E258" s="44">
         <v>112240.20294401549</v>
       </c>
-      <c r="F258" s="54" t="s">
+      <c r="F258" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B259" s="51" t="s">
+      <c r="B259" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C259" s="52" t="s">
+      <c r="C259" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="D259" s="53">
+      <c r="D259" s="44">
         <v>61110.864051678742</v>
       </c>
-      <c r="E259" s="53">
+      <c r="E259" s="44">
         <v>96483.672165424243</v>
       </c>
-      <c r="F259" s="54" t="s">
+      <c r="F259" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B260" s="51" t="s">
+      <c r="B260" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C260" s="52" t="s">
+      <c r="C260" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="D260" s="53">
+      <c r="D260" s="44">
         <v>195374.66063336004</v>
       </c>
-      <c r="E260" s="53">
+      <c r="E260" s="44">
         <v>308463.39678717585</v>
       </c>
-      <c r="F260" s="54" t="s">
+      <c r="F260" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B261" s="51" t="s">
+      <c r="B261" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C261" s="52" t="s">
+      <c r="C261" s="43" t="s">
         <v>296</v>
       </c>
-      <c r="D261" s="53">
+      <c r="D261" s="44">
         <v>92572.516371586345</v>
       </c>
-      <c r="E261" s="53">
+      <c r="E261" s="44">
         <v>146156.27613400036</v>
       </c>
-      <c r="F261" s="54" t="s">
+      <c r="F261" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B262" s="51" t="s">
+      <c r="B262" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C262" s="52" t="s">
+      <c r="C262" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="D262" s="53">
+      <c r="D262" s="44">
         <v>168515.40309331808</v>
       </c>
-      <c r="E262" s="53">
+      <c r="E262" s="44">
         <v>266057.19227158243</v>
       </c>
-      <c r="F262" s="54" t="s">
+      <c r="F262" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B263" s="51" t="s">
+      <c r="B263" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C263" s="52" t="s">
+      <c r="C263" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="D263" s="53">
+      <c r="D263" s="44">
         <v>110897.27724608926</v>
       </c>
-      <c r="E263" s="53">
+      <c r="E263" s="44">
         <v>175087.96034697728</v>
       </c>
-      <c r="F263" s="54" t="s">
+      <c r="F263" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B264" s="51" t="s">
+      <c r="B264" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C264" s="52" t="s">
+      <c r="C264" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="D264" s="53">
+      <c r="D264" s="44">
         <v>157354.80036898993</v>
       </c>
-      <c r="E264" s="53">
+      <c r="E264" s="44">
         <v>248436.49665333683</v>
       </c>
-      <c r="F264" s="54" t="s">
+      <c r="F264" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B265" s="51" t="s">
+      <c r="B265" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C265" s="52" t="s">
+      <c r="C265" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="D265" s="53">
+      <c r="D265" s="44">
         <v>99629.289234785028</v>
       </c>
-      <c r="E265" s="53">
+      <c r="E265" s="44">
         <v>157297.72160436626</v>
       </c>
-      <c r="F265" s="54" t="s">
+      <c r="F265" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B266" s="51" t="s">
+      <c r="B266" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C266" s="52" t="s">
+      <c r="C266" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="D266" s="53">
+      <c r="D266" s="44">
         <v>431721.51813676796</v>
       </c>
-      <c r="E266" s="53">
+      <c r="E266" s="44">
         <v>681614.93163379573</v>
       </c>
-      <c r="F266" s="54" t="s">
+      <c r="F266" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B267" s="51" t="s">
+      <c r="B267" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C267" s="52" t="s">
+      <c r="C267" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="D267" s="53">
+      <c r="D267" s="44">
         <v>77189.021200251751</v>
       </c>
-      <c r="E267" s="53">
+      <c r="E267" s="44">
         <v>121868.35077241054</v>
       </c>
-      <c r="F267" s="54" t="s">
+      <c r="F267" s="45" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B268" s="56" t="s">
+      <c r="B268" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="C268" s="57" t="s">
+      <c r="C268" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D268" s="58">
+      <c r="D268" s="49">
         <v>213146.40164271297</v>
       </c>
-      <c r="E268" s="58">
+      <c r="E268" s="49">
         <v>336521.95658605563</v>
       </c>
-      <c r="F268" s="59" t="s">
+      <c r="F268" s="50" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B54:E54"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B6:F6"/>
@@ -7031,6 +7030,11 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B54:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" r:id="rId1"/>

--- a/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
+++ b/BenMAP/Tools/GBDRollBackOutputTemplate.xlsx
@@ -218,722 +218,722 @@
     <t>Valuation</t>
   </si>
   <si>
+    <t>VSL estimates provided by authors of:</t>
+  </si>
+  <si>
+    <t>World Bank and IHME (2016). The Cost of Air Pollution: Strengthening the Economic Case for Action. Washington, DC: 2016 International Bank for Reconstruction and Development/The World Bank.</t>
+  </si>
+  <si>
+    <t>In some instances, VSLs were imputed (due to lack of GDP data) using a population-weighted average of VSLs from countries in the same region.</t>
+  </si>
+  <si>
+    <t>REGIONNAME</t>
+  </si>
+  <si>
+    <t>COUNTRYNAME</t>
+  </si>
+  <si>
+    <t>OECD VSL (2011 USD, PPP)</t>
+  </si>
+  <si>
+    <t>USEPA VSL  (2011 USD, PPP)</t>
+  </si>
+  <si>
+    <t>Imputed</t>
+  </si>
+  <si>
+    <t>High-income Asia Pacific</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Central Asia</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>East Asia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Democratic Peoples Republic of Korea</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>China - Hong Kong Special Administrative Region</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Southeast Asia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Lao Peoples Democratic Republic</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Australasia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Bonaire - Saint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Central Europe</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Eastern Europe</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Republic of Moldova</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Andean Latin America</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Central Latin America</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Southern Latin America</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Tropical Latin America</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>North Africa and Middle East</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>High-income North America</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Central sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eastern sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Southern sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Western sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Cote dIvoire</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
     <t>Estimated reductions in premature mortality are valued using country-specific estimates of the value per statistical life (VSL). This value is not the monetary value of individual lives. Rather, it reflects the amount individuals are willing to pay to incrementally reduce their risks of death from adverse health conditions that may be caused by environmental pollution. For example, if each individual in a population is willing to pay $20 to reduce his or her risk of death by 10 in 100,000, the VSL for that population would be $200,000 (= $20 ÷ (10/100,000)). For 500 avoided deaths in that population, the economic benefit would be $100,000,000 (= 500 * $200,000). 
-Fatal risk reductions have been shown to be sensative to income; individuals are willing to pay more for risk reductions as their income increases. Thus, the VSL is commonly adjusted to reflect differences in the average income levels both across countries and within a country over time.  Because of these adjustments, in some instances, a country  with a larger number of  avoided deaths than another country may actually show a smaller economic benefit when compared in common currency units.</t>
-  </si>
-  <si>
-    <t>VSL estimates provided by authors of:</t>
-  </si>
-  <si>
-    <t>World Bank and IHME (2016). The Cost of Air Pollution: Strengthening the Economic Case for Action. Washington, DC: 2016 International Bank for Reconstruction and Development/The World Bank.</t>
-  </si>
-  <si>
-    <t>In some instances, VSLs were imputed (due to lack of GDP data) using a population-weighted average of VSLs from countries in the same region.</t>
-  </si>
-  <si>
-    <t>REGIONNAME</t>
-  </si>
-  <si>
-    <t>COUNTRYNAME</t>
-  </si>
-  <si>
-    <t>OECD VSL (2011 USD, PPP)</t>
-  </si>
-  <si>
-    <t>USEPA VSL  (2011 USD, PPP)</t>
-  </si>
-  <si>
-    <t>Imputed</t>
-  </si>
-  <si>
-    <t>High-income Asia Pacific</t>
-  </si>
-  <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Central Asia</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>East Asia</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Democratic Peoples Republic of Korea</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>China - Hong Kong Special Administrative Region</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>South Asia</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Southeast Asia</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Lao Peoples Democratic Republic</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Australasia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Caribbean</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Bonaire - Saint Eustatius and Saba</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
-    <t>Central Europe</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>The former Yugoslav Republic of Macedonia</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Eastern Europe</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Republic of Moldova</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Western Europe</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Aland Islands</t>
-  </si>
-  <si>
-    <t>United Kingdom of Great Britain and Northern Ireland</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Andean Latin America</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Central Latin America</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Southern Latin America</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Tropical Latin America</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>North Africa and Middle East</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>High-income North America</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Micronesia (Federated States of)</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Central sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eastern sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>United Republic of Tanzania</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Southern sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Western sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Cote dIvoire</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
+Fatal risk reductions have been shown to be sensitive to income; individuals are willing to pay more for risk reductions as their income increases. Thus, the VSL is commonly adjusted to reflect differences in the average income levels both across countries and within a country over time.  Because of these adjustments, in some instances, a country with a larger number of  avoided deaths than another country may actually show a smaller economic benefit when compared in common currency units.</t>
   </si>
 </sst>
 </file>
@@ -1484,6 +1484,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1592,11 +1593,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="47559808"/>
-        <c:axId val="47561728"/>
+        <c:axId val="63127552"/>
+        <c:axId val="63129088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47559808"/>
+        <c:axId val="63127552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,7 +1607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47561728"/>
+        <c:crossAx val="63129088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1614,7 +1615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47561728"/>
+        <c:axId val="63129088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,13 +1638,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47559808"/>
+        <c:crossAx val="63127552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1813,11 +1815,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48306432"/>
-        <c:axId val="48349184"/>
+        <c:axId val="63142528"/>
+        <c:axId val="62759296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48306432"/>
+        <c:axId val="63142528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48349184"/>
+        <c:crossAx val="62759296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1835,7 +1837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48349184"/>
+        <c:axId val="62759296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,7 +1848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48306432"/>
+        <c:crossAx val="63142528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1893,6 +1895,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2001,11 +2004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49137152"/>
-        <c:axId val="49139072"/>
+        <c:axId val="62784256"/>
+        <c:axId val="62785792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49137152"/>
+        <c:axId val="62784256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49139072"/>
+        <c:crossAx val="62785792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49139072"/>
+        <c:axId val="62785792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,12 +2037,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49137152"/>
+        <c:crossAx val="62784256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
@@ -2054,7 +2059,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart3"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="143" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2065,7 +2070,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart4"/>
   <sheetViews>
-    <sheetView zoomScale="146" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="143" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2076,7 +2081,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="143" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2103,7 +2108,7 @@
         <xdr:cNvPr id="3" name="Chart 2" title="By Country">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2144,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,13 +2198,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8658311" cy="6281351"/>
+    <xdr:ext cx="8672413" cy="6294493"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,13 +2231,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670360" cy="6295634"/>
+    <xdr:ext cx="8672413" cy="6294493"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2264,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:ext cx="8672413" cy="6294493"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2778,9 +2783,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2889,9 +2892,7 @@
   </sheetPr>
   <dimension ref="A1:F268"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3382,7 +3383,7 @@
     </row>
     <row r="51" spans="1:6" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="59" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
@@ -3398,7 +3399,7 @@
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="36"/>
       <c r="D53" s="36"/>
@@ -3407,7 +3408,7 @@
     </row>
     <row r="54" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="56"/>
       <c r="D54" s="56"/>
@@ -3423,7 +3424,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
@@ -3436,27 +3437,27 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="D58" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="E58" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="F58" s="41" t="s">
         <v>72</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="43" t="s">
         <v>74</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>75</v>
       </c>
       <c r="D59" s="44">
         <v>3290305.6926085213</v>
@@ -3465,15 +3466,15 @@
         <v>5929712.9601737866</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" s="44">
         <v>6547267.5477391807</v>
@@ -3482,12 +3483,12 @@
         <v>11799334.426211156</v>
       </c>
       <c r="F60" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>40</v>
@@ -3499,12 +3500,12 @@
         <v>11814329.244679328</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" s="43" t="s">
         <v>35</v>
@@ -3516,15 +3517,15 @@
         <v>6539715.8490677839</v>
       </c>
       <c r="F62" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="43" t="s">
         <v>78</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>79</v>
       </c>
       <c r="D63" s="44">
         <v>124821.91185661747</v>
@@ -3533,15 +3534,15 @@
         <v>197072.59273000804</v>
       </c>
       <c r="F63" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" s="44">
         <v>804636.9406998991</v>
@@ -3550,15 +3551,15 @@
         <v>1270385.0289700886</v>
       </c>
       <c r="F64" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D65" s="44">
         <v>478722.23834219226</v>
@@ -3567,15 +3568,15 @@
         <v>755821.08384928619</v>
       </c>
       <c r="F65" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="44">
         <v>586573.81323068135</v>
@@ -3584,15 +3585,15 @@
         <v>926100.39761035226</v>
       </c>
       <c r="F66" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" s="44">
         <v>281841.99712314445</v>
@@ -3601,15 +3602,15 @@
         <v>444980.63110156474</v>
       </c>
       <c r="F67" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D68" s="44">
         <v>1403701.1027275496</v>
@@ -3618,15 +3619,15 @@
         <v>2216205.5653357934</v>
       </c>
       <c r="F68" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" s="44">
         <v>1797585.68467049</v>
@@ -3635,15 +3636,15 @@
         <v>2838082.402866025</v>
       </c>
       <c r="F69" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="44">
         <v>428893.59441180492</v>
@@ -3652,15 +3653,15 @@
         <v>677150.12051023834</v>
       </c>
       <c r="F70" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" s="44">
         <v>173264.79370933332</v>
@@ -3669,15 +3670,15 @@
         <v>273555.6731766084</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="43" t="s">
         <v>88</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>89</v>
       </c>
       <c r="D72" s="44">
         <v>747033.13453817845</v>
@@ -3686,15 +3687,15 @@
         <v>1179438.4053961178</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D73" s="44">
         <v>815731.31455121911</v>
@@ -3703,15 +3704,15 @@
         <v>1306577.4321395389</v>
       </c>
       <c r="F73" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D74" s="44">
         <v>4745125.7521404801</v>
@@ -3720,15 +3721,15 @@
         <v>8551556.085907286</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D75" s="44">
         <v>4047079.9676512373</v>
@@ -3737,15 +3738,15 @@
         <v>7293554.0879838001</v>
       </c>
       <c r="F75" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="43" t="s">
         <v>94</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>95</v>
       </c>
       <c r="D76" s="44">
         <v>93102.754086549379</v>
@@ -3754,12 +3755,12 @@
         <v>146993.43140342945</v>
       </c>
       <c r="F76" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>39</v>
@@ -3771,15 +3772,15 @@
         <v>479361.6430005618</v>
       </c>
       <c r="F77" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D78" s="44">
         <v>115976.61792497299</v>
@@ -3788,15 +3789,15 @@
         <v>183107.37634580012</v>
       </c>
       <c r="F78" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D79" s="44">
         <v>290873.95944608259</v>
@@ -3805,15 +3806,15 @@
         <v>459240.56516238733</v>
       </c>
       <c r="F79" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D80" s="44">
         <v>476752.16253127955</v>
@@ -3822,15 +3823,15 @@
         <v>752710.66884156491</v>
       </c>
       <c r="F80" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D81" s="44">
         <v>148330.44029253119</v>
@@ -3839,15 +3840,15 @@
         <v>234188.56524815375</v>
       </c>
       <c r="F81" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="43" t="s">
         <v>100</v>
-      </c>
-      <c r="C82" s="43" t="s">
-        <v>101</v>
       </c>
       <c r="D82" s="44">
         <v>1963987.8818500957</v>
@@ -3856,15 +3857,15 @@
         <v>3100803.202014049</v>
       </c>
       <c r="F82" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D83" s="44">
         <v>403016.36446263507</v>
@@ -3873,15 +3874,15 @@
         <v>636294.37072320166</v>
       </c>
       <c r="F83" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" s="44">
         <v>306347.86353010684</v>
@@ -3890,15 +3891,15 @@
         <v>483671.2308374737</v>
       </c>
       <c r="F84" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D85" s="44">
         <v>663623.98318253644</v>
@@ -3907,15 +3908,15 @@
         <v>1047749.525851091</v>
       </c>
       <c r="F85" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D86" s="44">
         <v>152842.87741943006</v>
@@ -3924,15 +3925,15 @@
         <v>241312.93685007736</v>
       </c>
       <c r="F86" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D87" s="44">
         <v>851323.61181139515</v>
@@ -3941,15 +3942,15 @@
         <v>1344095.3510203103</v>
       </c>
       <c r="F87" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D88" s="44">
         <v>644860.03657322074</v>
@@ -3958,15 +3959,15 @@
         <v>1018124.4419764503</v>
       </c>
       <c r="F88" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D89" s="44">
         <v>265743.80870687531</v>
@@ -3975,15 +3976,15 @@
         <v>419564.32652601384</v>
       </c>
       <c r="F89" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D90" s="44">
         <v>1157696.2708244091</v>
@@ -3992,15 +3993,15 @@
         <v>1827805.7297127701</v>
       </c>
       <c r="F90" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91" s="44">
         <v>108249.98001629034</v>
@@ -4009,15 +4010,15 @@
         <v>170908.32777250808</v>
       </c>
       <c r="F91" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D92" s="44">
         <v>656332.57853435271</v>
@@ -4026,15 +4027,15 @@
         <v>1036237.6366540103</v>
       </c>
       <c r="F92" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" s="43" t="s">
         <v>112</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>113</v>
       </c>
       <c r="D93" s="44">
         <v>3409425.3195953574</v>
@@ -4043,15 +4044,15 @@
         <v>6144387.6019682158</v>
       </c>
       <c r="F93" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D94" s="44">
         <v>4205013.4349393807</v>
@@ -4060,15 +4061,15 @@
         <v>7578178.1367241591</v>
       </c>
       <c r="F94" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="43" t="s">
         <v>115</v>
-      </c>
-      <c r="C95" s="43" t="s">
-        <v>116</v>
       </c>
       <c r="D95" s="44">
         <v>1035569.6745922752</v>
@@ -4077,15 +4078,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F95" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D96" s="44">
         <v>916200.07669429597</v>
@@ -4094,15 +4095,15 @@
         <v>1446524.2671573833</v>
       </c>
       <c r="F96" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D97" s="44">
         <v>1035569.6745922752</v>
@@ -4111,15 +4112,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F97" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D98" s="44">
         <v>2404466.7678753529</v>
@@ -4128,15 +4129,15 @@
         <v>4333274.5002408018</v>
       </c>
       <c r="F98" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D99" s="44">
         <v>2619733.9859117153</v>
@@ -4145,15 +4146,15 @@
         <v>4721224.1109892186</v>
       </c>
       <c r="F99" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D100" s="44">
         <v>1035569.6745922752</v>
@@ -4162,15 +4163,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F100" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D101" s="44">
         <v>415474.35267603159</v>
@@ -4179,15 +4180,15 @@
         <v>655963.41761485697</v>
       </c>
       <c r="F101" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D102" s="44">
         <v>1035569.6745922752</v>
@@ -4196,15 +4197,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F102" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D103" s="44">
         <v>1035569.6745922752</v>
@@ -4213,15 +4214,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F103" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D104" s="44">
         <v>1035569.6745922752</v>
@@ -4230,15 +4231,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F104" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D105" s="44">
         <v>82407.866933715108</v>
@@ -4247,15 +4248,15 @@
         <v>130108.02155179245</v>
       </c>
       <c r="F105" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D106" s="44">
         <v>1902349.8331391599</v>
@@ -4264,15 +4265,15 @@
         <v>3428370.9521855223</v>
       </c>
       <c r="F106" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D107" s="44">
         <v>1035569.6745922752</v>
@@ -4281,15 +4282,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F107" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D108" s="44">
         <v>1669914.1284475171</v>
@@ -4298,15 +4299,15 @@
         <v>2636510.7058098367</v>
       </c>
       <c r="F108" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D109" s="44">
         <v>1035569.6745922752</v>
@@ -4315,15 +4316,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F109" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" s="44">
         <v>2396169.5156936087</v>
@@ -4332,15 +4333,15 @@
         <v>4318321.3839068254</v>
       </c>
       <c r="F110" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" s="44">
         <v>1035569.6745922752</v>
@@ -4349,15 +4350,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F111" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112" s="44">
         <v>823094.51481817348</v>
@@ -4366,15 +4367,15 @@
         <v>1299526.4027312349</v>
       </c>
       <c r="F112" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D113" s="44">
         <v>919141.46952648577</v>
@@ -4383,15 +4384,15 @@
         <v>1451168.2267238968</v>
       </c>
       <c r="F113" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D114" s="44">
         <v>647058.9027479823</v>
@@ -4400,15 +4401,15 @@
         <v>1021596.0780993166</v>
       </c>
       <c r="F114" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D115" s="44">
         <v>601966.32928652223</v>
@@ -4417,15 +4418,15 @@
         <v>950402.56541601266</v>
       </c>
       <c r="F115" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D116" s="44">
         <v>1035569.6745922752</v>
@@ -4434,15 +4435,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F116" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D117" s="44">
         <v>857287.48059729743</v>
@@ -4451,15 +4452,15 @@
         <v>1353511.2866269485</v>
       </c>
       <c r="F117" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C118" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D118" s="44">
         <v>1253016.3139902861</v>
@@ -4468,15 +4469,15 @@
         <v>1978299.8838754925</v>
       </c>
       <c r="F118" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D119" s="44">
         <v>3244625.5067332508</v>
@@ -4485,15 +4486,15 @@
         <v>5847389.1837489298</v>
       </c>
       <c r="F119" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D120" s="44">
         <v>793510.61019327678</v>
@@ -4502,15 +4503,15 @@
         <v>1252818.4433610663</v>
       </c>
       <c r="F120" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C121" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D121" s="44">
         <v>1035569.6745922752</v>
@@ -4519,15 +4520,15 @@
         <v>1666039.8450759219</v>
       </c>
       <c r="F121" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122" s="43" t="s">
         <v>143</v>
-      </c>
-      <c r="C122" s="43" t="s">
-        <v>144</v>
       </c>
       <c r="D122" s="44">
         <v>2350202.0151256388</v>
@@ -4536,15 +4537,15 @@
         <v>4235479.815575649</v>
       </c>
       <c r="F122" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D123" s="44">
         <v>1027700.7709394741</v>
@@ -4553,15 +4554,15 @@
         <v>1622564.9204309389</v>
       </c>
       <c r="F123" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D124" s="44">
         <v>1178304.9300859834</v>
@@ -4570,15 +4571,15 @@
         <v>1860343.3014656608</v>
       </c>
       <c r="F124" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D125" s="44">
         <v>3087250.5046681091</v>
@@ -4587,15 +4588,15 @@
         <v>5563771.5881408984</v>
       </c>
       <c r="F125" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D126" s="44">
         <v>3111637.3731388333</v>
@@ -4604,15 +4605,15 @@
         <v>5607721.0395106459</v>
       </c>
       <c r="F126" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D127" s="44">
         <v>741743.37343016418</v>
@@ -4621,15 +4622,15 @@
         <v>1171086.7712881882</v>
       </c>
       <c r="F127" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D128" s="44">
         <v>2551374.9710193528</v>
@@ -4638,15 +4639,15 @@
         <v>4598029.0724666435</v>
       </c>
       <c r="F128" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B129" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D129" s="44">
         <v>937494.14143374248</v>
@@ -4655,15 +4656,15 @@
         <v>1480143.9777157649</v>
       </c>
       <c r="F129" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D130" s="44">
         <v>2766046.282739277</v>
@@ -4672,15 +4673,15 @@
         <v>4984904.7546084961</v>
       </c>
       <c r="F130" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C131" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D131" s="44">
         <v>1331350.3274507178</v>
@@ -4689,15 +4690,15 @@
         <v>2101975.9829031029</v>
       </c>
       <c r="F131" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D132" s="44">
         <v>2487356.6964748995</v>
@@ -4706,15 +4707,15 @@
         <v>4482656.8159899944</v>
       </c>
       <c r="F132" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D133" s="44">
         <v>722437.69612363353</v>
@@ -4723,15 +4724,15 @@
         <v>1140606.3866776943</v>
       </c>
       <c r="F133" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C134" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D134" s="44">
         <v>1553298.0386305354</v>
@@ -4740,15 +4741,15 @@
         <v>2452393.711986932</v>
       </c>
       <c r="F134" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C135" s="43" t="s">
         <v>157</v>
-      </c>
-      <c r="C135" s="43" t="s">
-        <v>158</v>
       </c>
       <c r="D135" s="44">
         <v>2506462.0297725727</v>
@@ -4757,15 +4758,15 @@
         <v>4517088.0065988647</v>
       </c>
       <c r="F135" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C136" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D136" s="44">
         <v>2555882.3983071623</v>
@@ -4774,15 +4775,15 @@
         <v>4606152.2538675703</v>
       </c>
       <c r="F136" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C137" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D137" s="44">
         <v>1377641.6605463785</v>
@@ -4791,15 +4792,15 @@
         <v>2175062.1333906041</v>
       </c>
       <c r="F137" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C138" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D138" s="44">
         <v>598983.67173910909</v>
@@ -4808,15 +4809,15 @@
         <v>945693.45587465598</v>
       </c>
       <c r="F138" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C139" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D139" s="44">
         <v>260954.90445666699</v>
@@ -4825,15 +4826,15 @@
         <v>412003.46030559909</v>
       </c>
       <c r="F139" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D140" s="44">
         <v>2159564.8036913252</v>
@@ -4842,15 +4843,15 @@
         <v>3891917.8341242378</v>
       </c>
       <c r="F140" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D141" s="44">
         <v>2424524.7130455836</v>
@@ -4859,15 +4860,15 @@
         <v>4369422.4659746718</v>
       </c>
       <c r="F141" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C142" s="43" t="s">
         <v>165</v>
-      </c>
-      <c r="C142" s="43" t="s">
-        <v>166</v>
       </c>
       <c r="D142" s="44">
         <v>3507768.2638881821</v>
@@ -4876,15 +4877,15 @@
         <v>6321618.9858559864</v>
       </c>
       <c r="F142" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C143" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D143" s="44">
         <v>4046616.3092794176</v>
@@ -4893,15 +4894,15 @@
         <v>7292718.4935699906</v>
       </c>
       <c r="F143" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D144" s="44">
         <v>4334754.4004334249</v>
@@ -4910,15 +4911,15 @@
         <v>7811994.3095751302</v>
       </c>
       <c r="F144" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C145" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D145" s="44">
         <v>4148124.120035029</v>
@@ -4927,15 +4928,15 @@
         <v>7475653.5267338008</v>
       </c>
       <c r="F145" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C146" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D146" s="44">
         <v>4337400.1607029857</v>
@@ -4944,15 +4945,15 @@
         <v>7816762.4376536785</v>
       </c>
       <c r="F146" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C147" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D147" s="44">
         <v>7886958.1693686442</v>
@@ -4961,15 +4962,15 @@
         <v>14213693.936801672</v>
       </c>
       <c r="F147" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D148" s="44">
         <v>3824803.1230196669</v>
@@ -4978,15 +4979,15 @@
         <v>6892971.8900077119</v>
       </c>
       <c r="F148" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C149" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D149" s="44">
         <v>3742211.7251321161</v>
@@ -4995,15 +4996,15 @@
         <v>6744127.5794158857</v>
       </c>
       <c r="F149" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C150" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D150" s="44">
         <v>3222034.5100537436</v>
@@ -5012,15 +5013,15 @@
         <v>5806676.2110623345</v>
       </c>
       <c r="F150" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C151" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D151" s="44">
         <v>3180416.4816154991</v>
@@ -5029,15 +5030,15 @@
         <v>5731673.1609926941</v>
       </c>
       <c r="F151" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D152" s="44">
         <v>3922909.4046901651</v>
@@ -5046,15 +5047,15 @@
         <v>7069776.7659810474</v>
       </c>
       <c r="F152" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C153" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D153" s="44">
         <v>4329343.6720405612</v>
@@ -5063,15 +5064,15 @@
         <v>7802243.2197760213</v>
       </c>
       <c r="F153" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C154" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D154" s="44">
         <v>5218737.3950248696</v>
@@ -5080,15 +5081,15 @@
         <v>9405088.0550521687</v>
       </c>
       <c r="F154" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C155" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D155" s="44">
         <v>4003911.5977414665</v>
@@ -5097,15 +5098,15 @@
         <v>7215757.0483049117</v>
       </c>
       <c r="F155" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D156" s="44">
         <v>3922909.4046901651</v>
@@ -5114,15 +5115,15 @@
         <v>7069776.7659810474</v>
       </c>
       <c r="F156" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C157" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D157" s="44">
         <v>3922909.4046901651</v>
@@ -5131,15 +5132,15 @@
         <v>7069776.7659810474</v>
       </c>
       <c r="F157" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C158" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D158" s="44">
         <v>3776566.257003834</v>
@@ -5148,15 +5149,15 @@
         <v>6806040.5236563114</v>
       </c>
       <c r="F158" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C159" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D159" s="44">
         <v>5883698.2348961169</v>
@@ -5165,15 +5166,15 @@
         <v>10603465.129574561</v>
       </c>
       <c r="F159" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C160" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D160" s="44">
         <v>4143320.1012423248</v>
@@ -5182,15 +5183,15 @@
         <v>7466995.8349697776</v>
       </c>
       <c r="F160" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C161" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D161" s="44">
         <v>3922909.4046901651</v>
@@ -5199,15 +5200,15 @@
         <v>7069776.7659810474</v>
       </c>
       <c r="F161" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C162" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D162" s="44">
         <v>4565525.0515592024</v>
@@ -5216,15 +5217,15 @@
         <v>8227883.8495295215</v>
       </c>
       <c r="F162" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C163" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D163" s="44">
         <v>3922909.4046901651</v>
@@ -5233,15 +5234,15 @@
         <v>7069776.7659810474</v>
       </c>
       <c r="F163" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C164" s="43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D164" s="44">
         <v>3573281.5308429417</v>
@@ -5250,15 +5251,15 @@
         <v>6439685.4831415266</v>
       </c>
       <c r="F164" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D165" s="44">
         <v>3024063.47206337</v>
@@ -5267,15 +5268,15 @@
         <v>5449897.3766981913</v>
       </c>
       <c r="F165" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C166" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D166" s="44">
         <v>3069305.6355737308</v>
@@ -5284,15 +5285,15 @@
         <v>5531431.7593290666</v>
       </c>
       <c r="F166" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C167" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D167" s="44">
         <v>4472965.2073965073</v>
@@ -5301,15 +5302,15 @@
         <v>8061074.6351892957</v>
       </c>
       <c r="F167" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C168" s="43" t="s">
         <v>192</v>
-      </c>
-      <c r="C168" s="43" t="s">
-        <v>193</v>
       </c>
       <c r="D168" s="44">
         <v>739703.91058245453</v>
@@ -5318,15 +5319,15 @@
         <v>1167866.8059375826</v>
       </c>
       <c r="F168" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C169" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D169" s="44">
         <v>383306.52303690225</v>
@@ -5335,15 +5336,15 @@
         <v>605175.87963224342</v>
       </c>
       <c r="F169" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C170" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D170" s="44">
         <v>789843.56394229853</v>
@@ -5352,15 +5353,15 @@
         <v>1247028.8003281087</v>
       </c>
       <c r="F170" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C171" s="43" t="s">
         <v>196</v>
-      </c>
-      <c r="C171" s="43" t="s">
-        <v>197</v>
       </c>
       <c r="D171" s="44">
         <v>1320535.6338163763</v>
@@ -5369,15 +5370,15 @@
         <v>2084901.4189711823</v>
       </c>
       <c r="F171" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C172" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D172" s="44">
         <v>492855.48848924326</v>
@@ -5386,15 +5387,15 @@
         <v>778135.0847226308</v>
       </c>
       <c r="F172" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C173" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D173" s="44">
         <v>563274.51258089743</v>
@@ -5403,15 +5404,15 @@
         <v>889314.76022063452</v>
       </c>
       <c r="F173" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C174" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D174" s="44">
         <v>294143.46643357974</v>
@@ -5420,15 +5421,15 @@
         <v>464402.56123656267</v>
       </c>
       <c r="F174" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C175" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D175" s="44">
         <v>268888.60431065899</v>
@@ -5437,15 +5438,15 @@
         <v>424529.42451261985</v>
       </c>
       <c r="F175" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D176" s="44">
         <v>1063736.5733069701</v>
@@ -5454,15 +5455,15 @@
         <v>1679459.3302187508</v>
       </c>
       <c r="F176" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C177" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D177" s="44">
         <v>2022066.5731762508</v>
@@ -5471,15 +5472,15 @@
         <v>3644121.6973343417</v>
       </c>
       <c r="F177" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C178" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D178" s="44">
         <v>1341534.7005376401</v>
@@ -5488,15 +5489,15 @@
         <v>2118055.3777762963</v>
       </c>
       <c r="F178" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D179" s="44">
         <v>888974.52164897765</v>
@@ -5505,15 +5506,15 @@
         <v>1403539.7411115258</v>
       </c>
       <c r="F179" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C180" s="43" t="s">
         <v>206</v>
-      </c>
-      <c r="C180" s="43" t="s">
-        <v>207</v>
       </c>
       <c r="D180" s="44">
         <v>2252772.2364681857</v>
@@ -5522,15 +5523,15 @@
         <v>4059894.1177148693</v>
       </c>
       <c r="F180" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C181" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D181" s="44">
         <v>2252772.2364681857</v>
@@ -5539,15 +5540,15 @@
         <v>4059894.1177148693</v>
       </c>
       <c r="F181" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C182" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D182" s="44">
         <v>2290629.7022343152</v>
@@ -5556,15 +5557,15 @@
         <v>4128119.9685520865</v>
       </c>
       <c r="F182" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C183" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D183" s="44">
         <v>2072598.8732683724</v>
@@ -5573,15 +5574,15 @@
         <v>3735189.8419863032</v>
       </c>
       <c r="F183" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C184" s="43" t="s">
         <v>211</v>
-      </c>
-      <c r="C184" s="43" t="s">
-        <v>212</v>
       </c>
       <c r="D184" s="44">
         <v>548519.01419235638</v>
@@ -5590,15 +5591,15 @@
         <v>866018.33508821437</v>
       </c>
       <c r="F184" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C185" s="43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D185" s="44">
         <v>1242522.1934818879</v>
@@ -5607,15 +5608,15 @@
         <v>1961731.4504470199</v>
       </c>
       <c r="F185" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C186" s="43" t="s">
         <v>214</v>
-      </c>
-      <c r="C186" s="43" t="s">
-        <v>215</v>
       </c>
       <c r="D186" s="44">
         <v>297245.60100814991</v>
@@ -5624,15 +5625,15 @@
         <v>469300.3047057559</v>
       </c>
       <c r="F186" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C187" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D187" s="44">
         <v>5465705.7159036426</v>
@@ -5641,15 +5642,15 @@
         <v>9850168.6615006868</v>
       </c>
       <c r="F187" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C188" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D188" s="44">
         <v>1438770.0188601092</v>
@@ -5658,15 +5659,15 @@
         <v>2364280.0181682934</v>
       </c>
       <c r="F188" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C189" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D189" s="44">
         <v>811373.47388421791</v>
@@ -5675,15 +5676,15 @@
         <v>1281020.8703932706</v>
       </c>
       <c r="F189" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C190" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D190" s="44">
         <v>854153.69495848124</v>
@@ -5692,15 +5693,15 @@
         <v>1348563.5715045342</v>
       </c>
       <c r="F190" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C191" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D191" s="44">
         <v>1476231.2371073815</v>
@@ -5709,15 +5710,15 @@
         <v>2330718.3253206625</v>
       </c>
       <c r="F191" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C192" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D192" s="44">
         <v>1438770.0188601092</v>
@@ -5726,15 +5727,15 @@
         <v>2364280.0181682934</v>
       </c>
       <c r="F192" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C193" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D193" s="44">
         <v>4113217.0745374002</v>
@@ -5743,15 +5744,15 @@
         <v>7412744.8551919274</v>
       </c>
       <c r="F193" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C194" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D194" s="44">
         <v>1570789.3921099347</v>
@@ -5760,15 +5761,15 @@
         <v>2480009.5875112698</v>
       </c>
       <c r="F194" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C195" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D195" s="44">
         <v>477723.8892442502</v>
@@ -5777,15 +5778,15 @@
         <v>754244.8602339396</v>
       </c>
       <c r="F195" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C196" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D196" s="44">
         <v>4437941.8024825538</v>
@@ -5794,15 +5795,15 @@
         <v>7997956.2633935623</v>
       </c>
       <c r="F196" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C197" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D197" s="44">
         <v>1089177.9434176167</v>
@@ -5811,15 +5812,15 @@
         <v>1719626.9313693263</v>
       </c>
       <c r="F197" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C198" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D198" s="44">
         <v>2896953.8541976949</v>
@@ -5828,15 +5829,15 @@
         <v>4573797.9700369593</v>
       </c>
       <c r="F198" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C199" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D199" s="44">
         <v>1438354.869045177</v>
@@ -5845,15 +5846,15 @@
         <v>2270917.9749960415</v>
       </c>
       <c r="F199" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D200" s="44">
         <v>4644216.203851915</v>
@@ -5862,15 +5863,15 @@
         <v>8369699.2275502719</v>
       </c>
       <c r="F200" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C201" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D201" s="44">
         <v>6674626.9087233488</v>
@@ -5879,15 +5880,15 @@
         <v>12028858.526395462</v>
       </c>
       <c r="F201" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C202" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D202" s="44">
         <v>1438770.0188601092</v>
@@ -5896,15 +5897,15 @@
         <v>2364280.0181682934</v>
       </c>
       <c r="F202" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C203" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D203" s="44">
         <v>10359736.034941908</v>
@@ -5913,15 +5914,15 @@
         <v>18670077.120303411</v>
       </c>
       <c r="F203" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C204" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D204" s="44">
         <v>923886.64128603728</v>
@@ -5930,15 +5931,15 @@
         <v>1458660.0467713112</v>
       </c>
       <c r="F204" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C205" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D205" s="44">
         <v>1065261.0054039159</v>
@@ -5947,15 +5948,15 @@
         <v>1681866.1495128751</v>
       </c>
       <c r="F205" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C206" s="43" t="s">
         <v>235</v>
-      </c>
-      <c r="C206" s="43" t="s">
-        <v>236</v>
       </c>
       <c r="D206" s="44">
         <v>4844691.8634169903</v>
@@ -5964,15 +5965,15 @@
         <v>8730991.8330953736</v>
       </c>
       <c r="F206" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C207" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D207" s="44">
         <v>4156948.7181974985</v>
@@ -5981,15 +5982,15 @@
         <v>7491557.0138200829</v>
       </c>
       <c r="F207" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C208" s="43" t="s">
         <v>238</v>
-      </c>
-      <c r="C208" s="43" t="s">
-        <v>239</v>
       </c>
       <c r="D208" s="44">
         <v>184230.94059927965</v>
@@ -5998,15 +5999,15 @@
         <v>290869.35606861807</v>
       </c>
       <c r="F208" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C209" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D209" s="44">
         <v>1008892.3299135733</v>
@@ -6015,15 +6016,15 @@
         <v>1592869.5874317016</v>
       </c>
       <c r="F209" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C210" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D210" s="44">
         <v>184230.94059927965</v>
@@ -6032,15 +6033,15 @@
         <v>290869.35606861807</v>
       </c>
       <c r="F210" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C211" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D211" s="44">
         <v>383007.7293688652</v>
@@ -6049,15 +6050,15 @@
         <v>604704.13519270136</v>
       </c>
       <c r="F211" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C212" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D212" s="44">
         <v>184230.94059927965</v>
@@ -6066,15 +6067,15 @@
         <v>290869.35606861807</v>
       </c>
       <c r="F212" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D213" s="44">
         <v>185090.18082791899</v>
@@ -6083,15 +6084,15 @@
         <v>292225.95041264937</v>
       </c>
       <c r="F213" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C214" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D214" s="44">
         <v>127900.39408823143</v>
@@ -6100,15 +6101,15 @@
         <v>201932.99316798808</v>
       </c>
       <c r="F214" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C215" s="43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D215" s="44">
         <v>344914.10488048894</v>
@@ -6117,15 +6118,15 @@
         <v>544560.77388101805</v>
       </c>
       <c r="F215" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C216" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D216" s="44">
         <v>228005.7420287666</v>
@@ -6134,15 +6135,15 @@
         <v>359982.33059075038</v>
       </c>
       <c r="F216" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C217" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D217" s="44">
         <v>101596.86109153602</v>
@@ -6151,15 +6152,15 @@
         <v>160404.18329386457</v>
       </c>
       <c r="F217" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C218" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D218" s="44">
         <v>92023.793505759255</v>
@@ -6168,15 +6169,15 @@
         <v>145289.93595181339</v>
       </c>
       <c r="F218" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C219" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D219" s="44">
         <v>593882.72446467215</v>
@@ -6185,15 +6186,15 @@
         <v>937639.92673221591</v>
       </c>
       <c r="F219" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C220" s="43" t="s">
         <v>251</v>
-      </c>
-      <c r="C220" s="43" t="s">
-        <v>252</v>
       </c>
       <c r="D220" s="44">
         <v>43493.682713869217</v>
@@ -6202,15 +6203,15 @@
         <v>68669.13582964892</v>
       </c>
       <c r="F220" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C221" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D221" s="44">
         <v>399338.45659670484</v>
@@ -6219,15 +6220,15 @@
         <v>630487.57904552261</v>
       </c>
       <c r="F221" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C222" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D222" s="44">
         <v>422405.32147751201</v>
@@ -6236,15 +6237,15 @@
         <v>673288.08424335392</v>
       </c>
       <c r="F222" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D223" s="44">
         <v>1444374.2460897963</v>
@@ -6253,15 +6254,15 @@
         <v>2280421.5487128529</v>
       </c>
       <c r="F223" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C224" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D224" s="44">
         <v>422405.32147751201</v>
@@ -6270,15 +6271,15 @@
         <v>673288.08424335392</v>
       </c>
       <c r="F224" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C225" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D225" s="44">
         <v>3859090.3562601944</v>
@@ -6287,15 +6288,15 @@
         <v>6954763.5502086449</v>
       </c>
       <c r="F225" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C226" s="43" t="s">
         <v>258</v>
-      </c>
-      <c r="C226" s="43" t="s">
-        <v>259</v>
       </c>
       <c r="D226" s="44">
         <v>33406.957592748324</v>
@@ -6304,15 +6305,15 @@
         <v>52743.910504967178</v>
       </c>
       <c r="F226" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D227" s="44">
         <v>154689.80960651441</v>
@@ -6321,15 +6322,15 @@
         <v>244228.92899673941</v>
       </c>
       <c r="F227" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C228" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D228" s="44">
         <v>207367.71829098687</v>
@@ -6338,15 +6339,15 @@
         <v>327398.39731868467</v>
       </c>
       <c r="F228" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C229" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D229" s="44">
         <v>210159.99848557747</v>
@@ -6355,15 +6356,15 @@
         <v>331806.93336329132</v>
       </c>
       <c r="F229" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C230" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D230" s="44">
         <v>71123.902062450899</v>
@@ -6372,15 +6373,15 @@
         <v>112292.55806162581</v>
       </c>
       <c r="F230" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D231" s="44">
         <v>1366688.3023500459</v>
@@ -6389,15 +6390,15 @@
         <v>2157768.64167313</v>
       </c>
       <c r="F231" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C232" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D232" s="44">
         <v>75115.670396177593</v>
@@ -6406,15 +6407,15 @@
         <v>118594.88209595648</v>
       </c>
       <c r="F232" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C233" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D233" s="44">
         <v>166510.36196835179</v>
@@ -6423,15 +6424,15 @@
         <v>262891.57297325542</v>
       </c>
       <c r="F233" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C234" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D234" s="44">
         <v>35781.469085008728</v>
@@ -6440,15 +6441,15 @@
         <v>56492.860743643956</v>
       </c>
       <c r="F234" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D235" s="44">
         <v>123990.22244979367</v>
@@ -6457,15 +6458,15 @@
         <v>195759.49645299272</v>
       </c>
       <c r="F235" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C236" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D236" s="44">
         <v>72253.073862661709</v>
@@ -6474,15 +6475,15 @@
         <v>114075.32849828419</v>
       </c>
       <c r="F236" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C237" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D237" s="44">
         <v>55196.548706680755</v>
@@ -6491,15 +6492,15 @@
         <v>87145.973023301834</v>
       </c>
       <c r="F237" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C238" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D238" s="44">
         <v>70966.106893791555</v>
@@ -6508,15 +6509,15 @@
         <v>112043.42629825651</v>
       </c>
       <c r="F238" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C239" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D239" s="44">
         <v>109070.52910370006</v>
@@ -6525,15 +6526,15 @@
         <v>172261.80080178866</v>
       </c>
       <c r="F239" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C240" s="43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D240" s="44">
         <v>45402.756674280492</v>
@@ -6542,15 +6543,15 @@
         <v>71683.239279079862</v>
       </c>
       <c r="F240" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C241" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D241" s="44">
         <v>2385388.2862767414</v>
@@ -6559,15 +6560,15 @@
         <v>4298891.7011440909</v>
       </c>
       <c r="F241" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C242" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D242" s="44">
         <v>85808.08086343664</v>
@@ -6576,15 +6577,15 @@
         <v>135476.38168183633</v>
       </c>
       <c r="F242" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C243" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D243" s="44">
         <v>250533.04465759441</v>
@@ -6593,15 +6594,15 @@
         <v>395549.11426072224</v>
       </c>
       <c r="F243" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C244" s="43" t="s">
         <v>277</v>
-      </c>
-      <c r="C244" s="43" t="s">
-        <v>278</v>
       </c>
       <c r="D244" s="44">
         <v>75021.541923818819</v>
@@ -6610,15 +6611,15 @@
         <v>118446.26922966124</v>
       </c>
       <c r="F244" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C245" s="43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D245" s="44">
         <v>580508.4879915457</v>
@@ -6627,15 +6628,15 @@
         <v>916524.27950057492</v>
       </c>
       <c r="F245" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C246" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D246" s="44">
         <v>1006311.0478777629</v>
@@ -6644,15 +6645,15 @@
         <v>1588794.1816331674</v>
       </c>
       <c r="F246" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C247" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D247" s="44">
         <v>648579.67861983448</v>
@@ -6661,15 +6662,15 @@
         <v>1023997.1248351759</v>
       </c>
       <c r="F247" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C248" s="43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D248" s="44">
         <v>132591.7837206382</v>
@@ -6678,15 +6679,15 @@
         <v>209339.90037372854</v>
       </c>
       <c r="F248" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C249" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D249" s="44">
         <v>1110340.9309328382</v>
@@ -6695,15 +6696,15 @@
         <v>1753039.6932594688</v>
       </c>
       <c r="F249" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C250" s="43" t="s">
         <v>284</v>
-      </c>
-      <c r="C250" s="43" t="s">
-        <v>285</v>
       </c>
       <c r="D250" s="44">
         <v>64806.304549582994</v>
@@ -6712,15 +6713,15 @@
         <v>102318.14489035762</v>
       </c>
       <c r="F250" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C251" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D251" s="44">
         <v>72194.899055286514</v>
@@ -6729,15 +6730,15 @@
         <v>113983.48036080203</v>
       </c>
       <c r="F251" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C252" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D252" s="44">
         <v>129365.28205157268</v>
@@ -6746,15 +6747,15 @@
         <v>204245.80239114957</v>
       </c>
       <c r="F252" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C253" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D253" s="44">
         <v>171672.8136233027</v>
@@ -6763,15 +6764,15 @@
         <v>271042.20708349993</v>
       </c>
       <c r="F253" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C254" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D254" s="44">
         <v>359222.60999609315</v>
@@ -6780,15 +6781,15 @@
         <v>567151.47257550561</v>
       </c>
       <c r="F254" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C255" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D255" s="44">
         <v>39897.349379017083</v>
@@ -6797,15 +6798,15 @@
         <v>62991.136477782049</v>
       </c>
       <c r="F255" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C256" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D256" s="44">
         <v>32848.279257748422</v>
@@ -6814,15 +6815,15 @@
         <v>51861.852328298766</v>
       </c>
       <c r="F256" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C257" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D257" s="44">
         <v>84527.668484893074</v>
@@ -6831,15 +6832,15 @@
         <v>133454.82806636993</v>
       </c>
       <c r="F257" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C258" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D258" s="44">
         <v>71090.741358645886</v>
@@ -6848,15 +6849,15 @@
         <v>112240.20294401549</v>
       </c>
       <c r="F258" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C259" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D259" s="44">
         <v>61110.864051678742</v>
@@ -6865,15 +6866,15 @@
         <v>96483.672165424243</v>
       </c>
       <c r="F259" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C260" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D260" s="44">
         <v>195374.66063336004</v>
@@ -6882,15 +6883,15 @@
         <v>308463.39678717585</v>
       </c>
       <c r="F260" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C261" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D261" s="44">
         <v>92572.516371586345</v>
@@ -6899,15 +6900,15 @@
         <v>146156.27613400036</v>
       </c>
       <c r="F261" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D262" s="44">
         <v>168515.40309331808</v>
@@ -6916,15 +6917,15 @@
         <v>266057.19227158243</v>
       </c>
       <c r="F262" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C263" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D263" s="44">
         <v>110897.27724608926</v>
@@ -6933,15 +6934,15 @@
         <v>175087.96034697728</v>
       </c>
       <c r="F263" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C264" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D264" s="44">
         <v>157354.80036898993</v>
@@ -6950,15 +6951,15 @@
         <v>248436.49665333683</v>
       </c>
       <c r="F264" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C265" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D265" s="44">
         <v>99629.289234785028</v>
@@ -6967,15 +6968,15 @@
         <v>157297.72160436626</v>
       </c>
       <c r="F265" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C266" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D266" s="44">
         <v>431721.51813676796</v>
@@ -6984,15 +6985,15 @@
         <v>681614.93163379573</v>
       </c>
       <c r="F266" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C267" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D267" s="44">
         <v>77189.021200251751</v>
@@ -7001,15 +7002,15 @@
         <v>121868.35077241054</v>
       </c>
       <c r="F267" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C268" s="48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D268" s="49">
         <v>213146.40164271297</v>
@@ -7018,7 +7019,7 @@
         <v>336521.95658605563</v>
       </c>
       <c r="F268" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
